--- a/saraceni_wines/others/ricette.xlsx
+++ b/saraceni_wines/others/ricette.xlsx
@@ -1201,7 +1201,7 @@
     <t>Let's Celebrate</t>
   </si>
   <si>
-    <t>Private tasting room</t>
+    <t>Saraceni™ Private Tasting Room | 6-pack</t>
   </si>
   <si>
     <t>Made in Tuscany with love</t>
@@ -31141,7 +31141,7 @@
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="255" t="s">
-        <v>421</v>
+        <v>214</v>
       </c>
       <c r="C9" s="256"/>
       <c r="D9" s="257" t="s">

--- a/saraceni_wines/others/ricette.xlsx
+++ b/saraceni_wines/others/ricette.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="567">
   <si>
     <t>ANTIPASTI E CONTORNI</t>
   </si>
@@ -791,6 +791,9 @@
   </si>
   <si>
     <t>Steak with french fries</t>
+  </si>
+  <si>
+    <t>steak</t>
   </si>
   <si>
     <t>When pairing with the bistro classic steak frites, keep it complex, robust and seductive, just like these wines</t>
@@ -3519,7 +3522,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="272">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3747,6 +3750,9 @@
     </xf>
     <xf borderId="35" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="34" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -12077,8 +12083,8 @@
         <v>229</v>
       </c>
       <c r="C28" s="69"/>
-      <c r="D28" s="67" t="s">
-        <v>88</v>
+      <c r="D28" s="94" t="s">
+        <v>230</v>
       </c>
       <c r="E28" s="66"/>
       <c r="F28" s="66"/>
@@ -12092,13 +12098,13 @@
         <v>11</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="84"/>
       <c r="B29" s="64" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C29" s="69"/>
       <c r="D29" s="67" t="s">
@@ -12118,13 +12124,13 @@
         <v>11</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="84"/>
-      <c r="B30" s="94" t="s">
-        <v>233</v>
+      <c r="B30" s="95" t="s">
+        <v>234</v>
       </c>
       <c r="C30" s="69"/>
       <c r="D30" s="67" t="s">
@@ -12142,13 +12148,13 @@
         <v>11</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="84"/>
       <c r="B31" s="64" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C31" s="69"/>
       <c r="D31" s="71" t="s">
@@ -12166,17 +12172,17 @@
         <v>120</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="84"/>
       <c r="B32" s="64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C32" s="69"/>
       <c r="D32" s="71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E32" s="66" t="s">
         <v>8</v>
@@ -12192,13 +12198,13 @@
         <v>120</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="84"/>
       <c r="B33" s="64" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C33" s="69"/>
       <c r="D33" s="66"/>
@@ -12214,13 +12220,13 @@
         <v>105</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="84"/>
       <c r="B34" s="64" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C34" s="69"/>
       <c r="D34" s="67" t="s">
@@ -12238,17 +12244,17 @@
         <v>11</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="84"/>
       <c r="B35" s="64" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C35" s="69"/>
       <c r="D35" s="71" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E35" s="66"/>
       <c r="F35" s="66"/>
@@ -12262,17 +12268,17 @@
         <v>120</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="84"/>
       <c r="B36" s="64" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C36" s="69"/>
       <c r="D36" s="71" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E36" s="66"/>
       <c r="F36" s="66"/>
@@ -12286,13 +12292,13 @@
         <v>120</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="84"/>
       <c r="B37" s="64" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C37" s="69"/>
       <c r="D37" s="71" t="s">
@@ -12310,17 +12316,17 @@
         <v>120</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="84"/>
       <c r="B38" s="64" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C38" s="69"/>
       <c r="D38" s="67" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E38" s="66" t="s">
         <v>31</v>
@@ -12336,16 +12342,16 @@
         <v>110</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="84"/>
       <c r="B39" s="64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C39" s="69"/>
-      <c r="D39" s="95" t="s">
+      <c r="D39" s="96" t="s">
         <v>27</v>
       </c>
       <c r="E39" s="66"/>
@@ -12360,20 +12366,20 @@
         <v>120</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="84"/>
       <c r="B40" s="64" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C40" s="69"/>
       <c r="D40" s="91" t="s">
         <v>173</v>
       </c>
       <c r="E40" s="66" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F40" s="66"/>
       <c r="G40" s="18" t="s">
@@ -12386,23 +12392,23 @@
         <v>11</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="84"/>
       <c r="B41" s="64" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C41" s="69"/>
       <c r="D41" s="67" t="s">
         <v>88</v>
       </c>
       <c r="E41" s="66" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F41" s="66" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G41" s="75" t="s">
         <v>128</v>
@@ -12414,23 +12420,23 @@
         <v>11</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="84"/>
       <c r="B42" s="64" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C42" s="69"/>
-      <c r="D42" s="67" t="s">
-        <v>88</v>
+      <c r="D42" s="94" t="s">
+        <v>230</v>
       </c>
       <c r="E42" s="66" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F42" s="66" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G42" s="75" t="s">
         <v>128</v>
@@ -12442,20 +12448,20 @@
         <v>11</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="64" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C43" s="69"/>
       <c r="D43" s="66" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E43" s="70" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F43" s="66"/>
       <c r="G43" s="90" t="s">
@@ -12468,17 +12474,17 @@
         <v>105</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C44" s="69"/>
       <c r="D44" s="70" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E44" s="66"/>
       <c r="F44" s="66"/>
@@ -12492,7 +12498,7 @@
         <v>132</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -12500,8 +12506,8 @@
       <c r="B45" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="96"/>
-      <c r="D45" s="97" t="s">
+      <c r="C45" s="97"/>
+      <c r="D45" s="98" t="s">
         <v>159</v>
       </c>
       <c r="E45" s="80"/>
@@ -15262,7 +15268,7 @@
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -15293,15 +15299,15 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -15324,7 +15330,7 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -15441,226 +15447,226 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="99" t="s">
-        <v>276</v>
-      </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="101" t="s">
+      <c r="B8" s="100" t="s">
         <v>277</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="C8" s="101"/>
+      <c r="D8" s="102" t="s">
         <v>278</v>
       </c>
-      <c r="F8" s="103"/>
-      <c r="G8" s="104" t="s">
+      <c r="E8" s="103" t="s">
         <v>279</v>
       </c>
-      <c r="H8" s="105" t="s">
+      <c r="F8" s="104"/>
+      <c r="G8" s="105" t="s">
         <v>280</v>
       </c>
-      <c r="I8" s="106" t="s">
+      <c r="H8" s="106" t="s">
         <v>281</v>
       </c>
+      <c r="I8" s="107" t="s">
+        <v>282</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="107" t="s">
-        <v>283</v>
-      </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="111" t="s">
-        <v>279</v>
-      </c>
-      <c r="H9" s="112" t="s">
+      <c r="B9" s="108" t="s">
         <v>284</v>
       </c>
-      <c r="I9" s="113" t="s">
+      <c r="C9" s="109"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="112" t="s">
+        <v>280</v>
+      </c>
+      <c r="H9" s="113" t="s">
         <v>285</v>
       </c>
+      <c r="I9" s="114" t="s">
+        <v>286</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="107" t="s">
-        <v>287</v>
-      </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="114" t="s">
+      <c r="B10" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111" t="s">
-        <v>279</v>
+      <c r="C10" s="109"/>
+      <c r="D10" s="115" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="112" t="s">
+        <v>280</v>
       </c>
       <c r="H10" s="77" t="s">
-        <v>280</v>
-      </c>
-      <c r="I10" s="113" t="s">
-        <v>289</v>
+        <v>281</v>
+      </c>
+      <c r="I10" s="114" t="s">
+        <v>290</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="107" t="s">
-        <v>291</v>
-      </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="115" t="s">
+      <c r="B11" s="108" t="s">
         <v>292</v>
       </c>
-      <c r="E11" s="109" t="s">
+      <c r="C11" s="109"/>
+      <c r="D11" s="116" t="s">
         <v>293</v>
       </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="113" t="s">
+      <c r="E11" s="110" t="s">
         <v>294</v>
       </c>
-      <c r="H11" s="113" t="s">
-        <v>285</v>
-      </c>
-      <c r="I11" s="111" t="s">
-        <v>279</v>
+      <c r="F11" s="111"/>
+      <c r="G11" s="114" t="s">
+        <v>295</v>
+      </c>
+      <c r="H11" s="114" t="s">
+        <v>286</v>
+      </c>
+      <c r="I11" s="112" t="s">
+        <v>280</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="107" t="s">
-        <v>296</v>
-      </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="114" t="s">
-        <v>288</v>
-      </c>
-      <c r="E12" s="109" t="s">
+      <c r="B12" s="108" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" s="109"/>
+      <c r="D12" s="115" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" s="110" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="110"/>
-      <c r="G12" s="113" t="s">
-        <v>289</v>
+      <c r="F12" s="111"/>
+      <c r="G12" s="114" t="s">
+        <v>290</v>
       </c>
       <c r="H12" s="77" t="s">
-        <v>280</v>
-      </c>
-      <c r="I12" s="112" t="s">
-        <v>284</v>
+        <v>281</v>
+      </c>
+      <c r="I12" s="113" t="s">
+        <v>285</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="107" t="s">
-        <v>298</v>
-      </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="116" t="s">
-        <v>262</v>
-      </c>
-      <c r="E13" s="109" t="s">
+      <c r="B13" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" s="109"/>
+      <c r="D13" s="117" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" s="110" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="110"/>
-      <c r="G13" s="111" t="s">
-        <v>279</v>
+      <c r="F13" s="111"/>
+      <c r="G13" s="112" t="s">
+        <v>280</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="113" t="s">
-        <v>289</v>
+      <c r="I13" s="114" t="s">
+        <v>290</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="107" t="s">
-        <v>300</v>
-      </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="117" t="s">
+      <c r="B14" s="108" t="s">
         <v>301</v>
       </c>
-      <c r="E14" s="109"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="111" t="s">
-        <v>279</v>
+      <c r="C14" s="109"/>
+      <c r="D14" s="118" t="s">
+        <v>302</v>
+      </c>
+      <c r="E14" s="110"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="112" t="s">
+        <v>280</v>
       </c>
       <c r="H14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="113" t="s">
-        <v>302</v>
+      <c r="I14" s="114" t="s">
+        <v>303</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="107" t="s">
-        <v>304</v>
-      </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="118" t="s">
+      <c r="B15" s="108" t="s">
         <v>305</v>
       </c>
-      <c r="E15" s="109" t="s">
+      <c r="C15" s="109"/>
+      <c r="D15" s="119" t="s">
         <v>306</v>
       </c>
-      <c r="F15" s="110"/>
-      <c r="G15" s="111" t="s">
-        <v>279</v>
-      </c>
-      <c r="H15" s="113" t="s">
-        <v>294</v>
-      </c>
-      <c r="I15" s="113" t="s">
-        <v>289</v>
+      <c r="E15" s="110" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" s="111"/>
+      <c r="G15" s="112" t="s">
+        <v>280</v>
+      </c>
+      <c r="H15" s="114" t="s">
+        <v>295</v>
+      </c>
+      <c r="I15" s="114" t="s">
+        <v>290</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="119" t="s">
-        <v>308</v>
-      </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="121" t="s">
+      <c r="B16" s="120" t="s">
+        <v>309</v>
+      </c>
+      <c r="C16" s="121"/>
+      <c r="D16" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="113" t="s">
-        <v>289</v>
-      </c>
-      <c r="H16" s="113" t="s">
-        <v>285</v>
-      </c>
-      <c r="I16" s="123" t="s">
-        <v>309</v>
-      </c>
-      <c r="J16" s="124" t="s">
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="114" t="s">
+        <v>290</v>
+      </c>
+      <c r="H16" s="114" t="s">
+        <v>286</v>
+      </c>
+      <c r="I16" s="124" t="s">
         <v>310</v>
+      </c>
+      <c r="J16" s="125" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -15686,9 +15692,9 @@
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="125"/>
+      <c r="C19" s="126"/>
       <c r="D19" s="51" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E19" s="46"/>
       <c r="F19" s="46"/>
@@ -15781,7 +15787,7 @@
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="126"/>
+      <c r="C28" s="127"/>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
       <c r="J28" s="13"/>
@@ -15789,7 +15795,7 @@
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="5"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="127"/>
+      <c r="C29" s="128"/>
       <c r="D29" s="59"/>
       <c r="E29" s="46"/>
       <c r="F29" s="46"/>
@@ -15840,7 +15846,7 @@
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="128"/>
+      <c r="C35" s="129"/>
       <c r="D35" s="59"/>
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
@@ -18405,8 +18411,8 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="129" t="s">
-        <v>312</v>
+      <c r="B3" s="130" t="s">
+        <v>313</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -18441,8 +18447,8 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="130" t="s">
-        <v>313</v>
+      <c r="B5" s="131" t="s">
+        <v>314</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -18533,9 +18539,9 @@
       <c r="A8" s="84"/>
       <c r="B8" s="5"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -18560,16 +18566,16 @@
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="84"/>
       <c r="B9" s="86" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C9" s="87"/>
-      <c r="D9" s="132" t="s">
+      <c r="D9" s="133" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="133" t="s">
+      <c r="E9" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="132" t="s">
+      <c r="F9" s="133" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="19" t="s">
@@ -18582,13 +18588,13 @@
         <v>110</v>
       </c>
       <c r="J9" s="68" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="84"/>
       <c r="B10" s="64" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C10" s="69"/>
       <c r="D10" s="66" t="s">
@@ -18610,13 +18616,13 @@
         <v>110</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="84"/>
       <c r="B11" s="64" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C11" s="69"/>
       <c r="D11" s="66" t="s">
@@ -18636,53 +18642,53 @@
         <v>9</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="84"/>
-      <c r="B12" s="134" t="s">
-        <v>320</v>
+      <c r="B12" s="135" t="s">
+        <v>321</v>
       </c>
       <c r="C12" s="69"/>
-      <c r="D12" s="135" t="s">
+      <c r="D12" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="136" t="s">
-        <v>321</v>
-      </c>
-      <c r="F12" s="137" t="s">
+      <c r="E12" s="137" t="s">
+        <v>322</v>
+      </c>
+      <c r="F12" s="138" t="s">
         <v>190</v>
       </c>
-      <c r="G12" s="138" t="s">
+      <c r="G12" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="139" t="s">
+      <c r="H12" s="140" t="s">
         <v>129</v>
       </c>
       <c r="I12" s="29" t="s">
         <v>110</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="84"/>
       <c r="B13" s="64" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C13" s="69"/>
-      <c r="D13" s="140" t="s">
+      <c r="D13" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="141" t="s">
+      <c r="E13" s="142" t="s">
         <v>60</v>
       </c>
       <c r="F13" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="138" t="s">
+      <c r="G13" s="139" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="29" t="s">
@@ -18692,41 +18698,41 @@
         <v>11</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="84"/>
       <c r="B14" s="64" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C14" s="69"/>
-      <c r="D14" s="140" t="s">
+      <c r="D14" s="141" t="s">
         <v>87</v>
       </c>
       <c r="E14" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="F14" s="142" t="s">
+      <c r="F14" s="143" t="s">
         <v>167</v>
       </c>
-      <c r="G14" s="143" t="s">
+      <c r="G14" s="144" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="144" t="s">
+      <c r="I14" s="145" t="s">
         <v>34</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="84"/>
       <c r="B15" s="64" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C15" s="69"/>
       <c r="D15" s="66" t="s">
@@ -18746,20 +18752,20 @@
         <v>110</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="84"/>
       <c r="B16" s="64" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C16" s="69"/>
-      <c r="D16" s="140" t="s">
-        <v>330</v>
+      <c r="D16" s="141" t="s">
+        <v>331</v>
       </c>
       <c r="E16" s="67" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F16" s="66"/>
       <c r="G16" s="29" t="s">
@@ -18768,23 +18774,23 @@
       <c r="H16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="145" t="s">
+      <c r="I16" s="146" t="s">
         <v>129</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="84"/>
       <c r="B17" s="64" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C17" s="69"/>
-      <c r="D17" s="140" t="s">
+      <c r="D17" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="140" t="s">
+      <c r="E17" s="141" t="s">
         <v>152</v>
       </c>
       <c r="F17" s="66" t="s">
@@ -18793,32 +18799,32 @@
       <c r="G17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="138" t="s">
+      <c r="H17" s="139" t="s">
         <v>128</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>9</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="84"/>
       <c r="B18" s="64" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C18" s="69"/>
-      <c r="D18" s="140" t="s">
+      <c r="D18" s="141" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="66" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F18" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="146" t="s">
+      <c r="G18" s="147" t="s">
         <v>34</v>
       </c>
       <c r="H18" s="29" t="s">
@@ -18828,16 +18834,16 @@
         <v>105</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="84"/>
       <c r="B19" s="64" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C19" s="69"/>
-      <c r="D19" s="140" t="s">
+      <c r="D19" s="141" t="s">
         <v>87</v>
       </c>
       <c r="E19" s="67" t="s">
@@ -18849,30 +18855,30 @@
       <c r="G19" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="144" t="s">
-        <v>339</v>
-      </c>
-      <c r="I19" s="144" t="s">
+      <c r="H19" s="145" t="s">
         <v>340</v>
       </c>
+      <c r="I19" s="145" t="s">
+        <v>341</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="84"/>
       <c r="B20" s="64" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C20" s="69"/>
-      <c r="D20" s="140" t="s">
+      <c r="D20" s="141" t="s">
         <v>87</v>
       </c>
       <c r="E20" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="141" t="s">
-        <v>343</v>
+      <c r="F20" s="142" t="s">
+        <v>344</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>9</v>
@@ -18884,23 +18890,23 @@
         <v>105</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="84"/>
       <c r="B21" s="64" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C21" s="69"/>
-      <c r="D21" s="140" t="s">
-        <v>346</v>
+      <c r="D21" s="141" t="s">
+        <v>347</v>
       </c>
       <c r="E21" s="66" t="s">
         <v>193</v>
       </c>
       <c r="F21" s="66"/>
-      <c r="G21" s="146" t="s">
+      <c r="G21" s="147" t="s">
         <v>21</v>
       </c>
       <c r="H21" s="29" t="s">
@@ -18910,78 +18916,78 @@
         <v>38</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="84"/>
       <c r="B22" s="64" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C22" s="69"/>
-      <c r="D22" s="140" t="s">
-        <v>349</v>
+      <c r="D22" s="141" t="s">
+        <v>350</v>
       </c>
       <c r="E22" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="147" t="s">
-        <v>350</v>
-      </c>
-      <c r="G22" s="146" t="s">
-        <v>340</v>
+      <c r="F22" s="148" t="s">
+        <v>351</v>
+      </c>
+      <c r="G22" s="147" t="s">
+        <v>341</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="145" t="s">
-        <v>351</v>
+      <c r="I22" s="146" t="s">
+        <v>352</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="84"/>
       <c r="B23" s="64" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C23" s="69"/>
       <c r="D23" s="67" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E23" s="66"/>
       <c r="F23" s="66"/>
-      <c r="G23" s="146" t="s">
+      <c r="G23" s="147" t="s">
         <v>128</v>
       </c>
       <c r="H23" s="77" t="s">
-        <v>355</v>
-      </c>
-      <c r="I23" s="145" t="s">
-        <v>339</v>
+        <v>356</v>
+      </c>
+      <c r="I23" s="146" t="s">
+        <v>340</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="84"/>
       <c r="B24" s="64" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C24" s="69"/>
-      <c r="D24" s="140" t="s">
+      <c r="D24" s="141" t="s">
         <v>115</v>
       </c>
       <c r="E24" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="F24" s="147" t="s">
+        <v>359</v>
+      </c>
+      <c r="F24" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="145" t="s">
-        <v>359</v>
+      <c r="G24" s="146" t="s">
+        <v>360</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>9</v>
@@ -18990,20 +18996,20 @@
         <v>38</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="84"/>
       <c r="B25" s="64" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C25" s="69"/>
       <c r="D25" s="66" t="s">
         <v>115</v>
       </c>
       <c r="E25" s="71" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F25" s="66"/>
       <c r="G25" s="29" t="s">
@@ -19016,141 +19022,141 @@
         <v>120</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="84"/>
       <c r="B26" s="64" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C26" s="69"/>
-      <c r="D26" s="140" t="s">
+      <c r="D26" s="141" t="s">
         <v>87</v>
       </c>
       <c r="E26" s="67" t="s">
         <v>109</v>
       </c>
       <c r="F26" s="66"/>
-      <c r="G26" s="145" t="s">
-        <v>359</v>
+      <c r="G26" s="146" t="s">
+        <v>360</v>
       </c>
       <c r="H26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="145" t="s">
-        <v>340</v>
+      <c r="I26" s="146" t="s">
+        <v>341</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="84"/>
       <c r="B27" s="64" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C27" s="69"/>
-      <c r="D27" s="140"/>
+      <c r="D27" s="141"/>
       <c r="E27" s="66"/>
       <c r="F27" s="66"/>
       <c r="G27" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="138" t="s">
+      <c r="H27" s="139" t="s">
         <v>128</v>
       </c>
       <c r="I27" s="29" t="s">
         <v>110</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="84"/>
       <c r="B28" s="64" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C28" s="69"/>
       <c r="D28" s="67" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E28" s="66" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F28" s="66"/>
       <c r="G28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="148" t="s">
-        <v>371</v>
-      </c>
-      <c r="I28" s="145" t="s">
+      <c r="H28" s="149" t="s">
+        <v>372</v>
+      </c>
+      <c r="I28" s="146" t="s">
         <v>17</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="84"/>
       <c r="B29" s="64" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C29" s="69"/>
-      <c r="D29" s="140" t="s">
-        <v>369</v>
+      <c r="D29" s="141" t="s">
+        <v>370</v>
       </c>
       <c r="E29" s="67" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F29" s="66"/>
-      <c r="G29" s="146" t="s">
-        <v>375</v>
-      </c>
-      <c r="H29" s="138" t="s">
-        <v>340</v>
+      <c r="G29" s="147" t="s">
+        <v>376</v>
+      </c>
+      <c r="H29" s="139" t="s">
+        <v>341</v>
       </c>
       <c r="I29" s="29" t="s">
         <v>110</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="84"/>
       <c r="B30" s="64" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C30" s="69"/>
-      <c r="D30" s="149" t="s">
+      <c r="D30" s="150" t="s">
         <v>32</v>
       </c>
       <c r="E30" s="66" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F30" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="146" t="s">
+      <c r="G30" s="147" t="s">
         <v>128</v>
       </c>
-      <c r="H30" s="138" t="s">
+      <c r="H30" s="139" t="s">
         <v>129</v>
       </c>
       <c r="I30" s="29" t="s">
         <v>110</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="84"/>
-      <c r="B31" s="94" t="s">
-        <v>380</v>
+      <c r="B31" s="95" t="s">
+        <v>381</v>
       </c>
       <c r="C31" s="69"/>
       <c r="D31" s="67" t="s">
@@ -19158,26 +19164,26 @@
       </c>
       <c r="E31" s="66"/>
       <c r="F31" s="66"/>
-      <c r="G31" s="146" t="s">
+      <c r="G31" s="147" t="s">
         <v>128</v>
       </c>
       <c r="H31" s="77" t="s">
-        <v>355</v>
-      </c>
-      <c r="I31" s="145" t="s">
-        <v>339</v>
+        <v>356</v>
+      </c>
+      <c r="I31" s="146" t="s">
+        <v>340</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="84"/>
       <c r="B32" s="64" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C32" s="69"/>
-      <c r="D32" s="142" t="s">
+      <c r="D32" s="143" t="s">
         <v>162</v>
       </c>
       <c r="E32" s="66"/>
@@ -19185,20 +19191,20 @@
       <c r="G32" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="150" t="s">
+      <c r="H32" s="151" t="s">
         <v>17</v>
       </c>
       <c r="I32" s="29" t="s">
         <v>105</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="84"/>
       <c r="B33" s="64" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C33" s="69"/>
       <c r="D33" s="66" t="s">
@@ -19216,21 +19222,21 @@
       <c r="H33" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="I33" s="151" t="s">
+      <c r="I33" s="152" t="s">
         <v>128</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="84"/>
       <c r="B34" s="64" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C34" s="69"/>
       <c r="D34" s="66" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E34" s="72" t="s">
         <v>59</v>
@@ -19238,7 +19244,7 @@
       <c r="F34" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="G34" s="152" t="s">
+      <c r="G34" s="153" t="s">
         <v>17</v>
       </c>
       <c r="H34" s="29" t="s">
@@ -19248,7 +19254,7 @@
         <v>38</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -19276,88 +19282,88 @@
         <v>105</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="84"/>
-      <c r="B36" s="153" t="s">
-        <v>390</v>
+      <c r="B36" s="154" t="s">
+        <v>391</v>
       </c>
       <c r="C36" s="69"/>
-      <c r="D36" s="154" t="s">
+      <c r="D36" s="155" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="156" t="s">
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="157" t="s">
         <v>128</v>
       </c>
-      <c r="H36" s="157" t="s">
+      <c r="H36" s="158" t="s">
         <v>129</v>
       </c>
       <c r="I36" s="29" t="s">
         <v>90</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="84"/>
-      <c r="B37" s="158" t="s">
-        <v>391</v>
+      <c r="B37" s="159" t="s">
+        <v>392</v>
       </c>
       <c r="C37" s="69"/>
-      <c r="D37" s="159" t="s">
-        <v>392</v>
-      </c>
-      <c r="E37" s="160" t="s">
+      <c r="D37" s="160" t="s">
         <v>393</v>
       </c>
-      <c r="F37" s="161"/>
+      <c r="E37" s="161" t="s">
+        <v>394</v>
+      </c>
+      <c r="F37" s="162"/>
       <c r="G37" s="77" t="s">
+        <v>281</v>
+      </c>
+      <c r="H37" s="163" t="s">
         <v>280</v>
-      </c>
-      <c r="H37" s="162" t="s">
-        <v>279</v>
       </c>
       <c r="I37" s="29" t="s">
         <v>10</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="84"/>
-      <c r="B38" s="163" t="s">
-        <v>304</v>
-      </c>
-      <c r="C38" s="96"/>
-      <c r="D38" s="118" t="s">
+      <c r="B38" s="164" t="s">
         <v>305</v>
       </c>
-      <c r="E38" s="109" t="s">
+      <c r="C38" s="97"/>
+      <c r="D38" s="119" t="s">
         <v>306</v>
       </c>
-      <c r="F38" s="110"/>
-      <c r="G38" s="164" t="s">
-        <v>279</v>
-      </c>
-      <c r="H38" s="165" t="s">
-        <v>294</v>
-      </c>
-      <c r="I38" s="165" t="s">
-        <v>289</v>
-      </c>
-      <c r="J38" s="166" t="s">
+      <c r="E38" s="110" t="s">
         <v>307</v>
+      </c>
+      <c r="F38" s="111"/>
+      <c r="G38" s="165" t="s">
+        <v>280</v>
+      </c>
+      <c r="H38" s="166" t="s">
+        <v>295</v>
+      </c>
+      <c r="I38" s="166" t="s">
+        <v>290</v>
+      </c>
+      <c r="J38" s="167" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="5"/>
-      <c r="B39" s="167"/>
+      <c r="B39" s="168"/>
       <c r="C39" s="46"/>
       <c r="D39" s="46"/>
       <c r="E39" s="46"/>
@@ -22050,7 +22056,7 @@
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -22086,7 +22092,7 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -22148,11 +22154,11 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>4</v>
@@ -22163,7 +22169,7 @@
       <c r="G6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="168" t="s">
+      <c r="H6" s="169" t="s">
         <v>5</v>
       </c>
     </row>
@@ -22195,34 +22201,34 @@
     </row>
     <row r="8">
       <c r="A8" s="5"/>
-      <c r="B8" s="169" t="s">
-        <v>399</v>
-      </c>
-      <c r="C8" s="170"/>
-      <c r="D8" s="171" t="s">
+      <c r="B8" s="170" t="s">
         <v>400</v>
       </c>
-      <c r="E8" s="172" t="s">
+      <c r="C8" s="171"/>
+      <c r="D8" s="172" t="s">
+        <v>401</v>
+      </c>
+      <c r="E8" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="173" t="s">
+      <c r="F8" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="174" t="s">
+      <c r="G8" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="175" t="s">
-        <v>401</v>
+      <c r="H8" s="176" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5"/>
-      <c r="B9" s="176" t="s">
-        <v>399</v>
+      <c r="B9" s="177" t="s">
+        <v>400</v>
       </c>
       <c r="C9" s="69"/>
       <c r="D9" s="73" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>11</v>
@@ -22233,18 +22239,18 @@
       <c r="G9" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="177" t="s">
-        <v>403</v>
+      <c r="H9" s="178" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5"/>
-      <c r="B10" s="176" t="s">
-        <v>399</v>
+      <c r="B10" s="177" t="s">
+        <v>400</v>
       </c>
       <c r="C10" s="69"/>
       <c r="D10" s="73" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>17</v>
@@ -22255,18 +22261,18 @@
       <c r="G10" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="177" t="s">
-        <v>405</v>
+      <c r="H10" s="178" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5"/>
-      <c r="B11" s="176" t="s">
-        <v>399</v>
+      <c r="B11" s="177" t="s">
+        <v>400</v>
       </c>
       <c r="C11" s="69"/>
       <c r="D11" s="73" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>9</v>
@@ -22274,21 +22280,21 @@
       <c r="F11" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="178" t="s">
+      <c r="G11" s="179" t="s">
         <v>206</v>
       </c>
-      <c r="H11" s="177" t="s">
-        <v>407</v>
+      <c r="H11" s="178" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5"/>
-      <c r="B12" s="176" t="s">
-        <v>399</v>
+      <c r="B12" s="177" t="s">
+        <v>400</v>
       </c>
       <c r="C12" s="69"/>
       <c r="D12" s="73" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>10</v>
@@ -22299,40 +22305,40 @@
       <c r="G12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="177" t="s">
-        <v>271</v>
+      <c r="H12" s="178" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5"/>
-      <c r="B13" s="176" t="s">
-        <v>399</v>
+      <c r="B13" s="177" t="s">
+        <v>400</v>
       </c>
       <c r="C13" s="69"/>
       <c r="D13" s="73" t="s">
-        <v>409</v>
-      </c>
-      <c r="E13" s="178" t="s">
         <v>410</v>
+      </c>
+      <c r="E13" s="179" t="s">
+        <v>411</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="148" t="s">
-        <v>371</v>
-      </c>
-      <c r="H13" s="177" t="s">
-        <v>411</v>
+      <c r="G13" s="149" t="s">
+        <v>372</v>
+      </c>
+      <c r="H13" s="178" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5"/>
-      <c r="B14" s="176" t="s">
-        <v>399</v>
+      <c r="B14" s="177" t="s">
+        <v>400</v>
       </c>
       <c r="C14" s="69"/>
       <c r="D14" s="73" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>17</v>
@@ -22343,18 +22349,18 @@
       <c r="G14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="177" t="s">
-        <v>413</v>
+      <c r="H14" s="178" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5"/>
-      <c r="B15" s="176" t="s">
-        <v>399</v>
+      <c r="B15" s="177" t="s">
+        <v>400</v>
       </c>
       <c r="C15" s="69"/>
       <c r="D15" s="73" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>17</v>
@@ -22365,28 +22371,28 @@
       <c r="G15" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="179" t="s">
-        <v>415</v>
+      <c r="H15" s="180" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5"/>
-      <c r="B16" s="180"/>
+      <c r="B16" s="181"/>
       <c r="C16" s="69"/>
-      <c r="D16" s="181"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="183"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="183"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="184"/>
     </row>
     <row r="17">
       <c r="A17" s="5"/>
-      <c r="B17" s="176" t="s">
-        <v>416</v>
+      <c r="B17" s="177" t="s">
+        <v>417</v>
       </c>
       <c r="C17" s="69"/>
       <c r="D17" s="73" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>11</v>
@@ -22395,20 +22401,20 @@
         <v>128</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="H17" s="177" t="s">
         <v>418</v>
+      </c>
+      <c r="H17" s="178" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5"/>
-      <c r="B18" s="176" t="s">
-        <v>416</v>
+      <c r="B18" s="177" t="s">
+        <v>417</v>
       </c>
       <c r="C18" s="69"/>
       <c r="D18" s="73" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>90</v>
@@ -22419,18 +22425,18 @@
       <c r="G18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="177" t="s">
-        <v>418</v>
+      <c r="H18" s="178" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5"/>
-      <c r="B19" s="176" t="s">
-        <v>416</v>
+      <c r="B19" s="177" t="s">
+        <v>417</v>
       </c>
       <c r="C19" s="69"/>
       <c r="D19" s="73" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>17</v>
@@ -22439,20 +22445,20 @@
         <v>21</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="H19" s="177" t="s">
         <v>418</v>
+      </c>
+      <c r="H19" s="178" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5"/>
-      <c r="B20" s="176" t="s">
-        <v>416</v>
+      <c r="B20" s="177" t="s">
+        <v>417</v>
       </c>
       <c r="C20" s="69"/>
       <c r="D20" s="73" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>9</v>
@@ -22463,40 +22469,40 @@
       <c r="G20" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="177" t="s">
-        <v>418</v>
+      <c r="H20" s="178" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5"/>
-      <c r="B21" s="176" t="s">
-        <v>416</v>
+      <c r="B21" s="177" t="s">
+        <v>417</v>
       </c>
       <c r="C21" s="69"/>
       <c r="D21" s="73" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="184" t="s">
-        <v>419</v>
+      <c r="F21" s="185" t="s">
+        <v>420</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="177" t="s">
-        <v>418</v>
+      <c r="H21" s="178" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5"/>
-      <c r="B22" s="176" t="s">
-        <v>416</v>
+      <c r="B22" s="177" t="s">
+        <v>417</v>
       </c>
       <c r="C22" s="69"/>
       <c r="D22" s="73" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>9</v>
@@ -22507,18 +22513,18 @@
       <c r="G22" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="177" t="s">
-        <v>418</v>
+      <c r="H22" s="178" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5"/>
-      <c r="B23" s="176" t="s">
-        <v>416</v>
+      <c r="B23" s="177" t="s">
+        <v>417</v>
       </c>
       <c r="C23" s="69"/>
       <c r="D23" s="73" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>17</v>
@@ -22529,18 +22535,18 @@
       <c r="G23" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="177" t="s">
-        <v>420</v>
+      <c r="H23" s="178" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5"/>
-      <c r="B24" s="176" t="s">
-        <v>416</v>
+      <c r="B24" s="177" t="s">
+        <v>417</v>
       </c>
       <c r="C24" s="69"/>
       <c r="D24" s="73" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>17</v>
@@ -22551,28 +22557,28 @@
       <c r="G24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="179" t="s">
-        <v>415</v>
+      <c r="H24" s="180" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5"/>
-      <c r="B25" s="176"/>
+      <c r="B25" s="177"/>
       <c r="C25" s="69"/>
-      <c r="D25" s="181"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="182"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="183"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="184"/>
     </row>
     <row r="26">
       <c r="A26" s="5"/>
-      <c r="B26" s="176" t="s">
-        <v>421</v>
+      <c r="B26" s="177" t="s">
+        <v>422</v>
       </c>
       <c r="C26" s="69"/>
       <c r="D26" s="73" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>90</v>
@@ -22583,18 +22589,18 @@
       <c r="G26" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="177" t="s">
-        <v>422</v>
+      <c r="H26" s="178" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5"/>
-      <c r="B27" s="176" t="s">
-        <v>421</v>
+      <c r="B27" s="177" t="s">
+        <v>422</v>
       </c>
       <c r="C27" s="69"/>
       <c r="D27" s="73" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E27" s="75" t="s">
         <v>128</v>
@@ -22602,21 +22608,21 @@
       <c r="F27" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="178" t="s">
+      <c r="G27" s="179" t="s">
         <v>110</v>
       </c>
-      <c r="H27" s="177" t="s">
+      <c r="H27" s="178" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5"/>
-      <c r="B28" s="176" t="s">
-        <v>421</v>
+      <c r="B28" s="177" t="s">
+        <v>422</v>
       </c>
       <c r="C28" s="69"/>
       <c r="D28" s="73" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E28" s="75" t="s">
         <v>17</v>
@@ -22627,40 +22633,40 @@
       <c r="G28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="177" t="s">
-        <v>405</v>
+      <c r="H28" s="178" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5"/>
-      <c r="B29" s="176" t="s">
-        <v>421</v>
+      <c r="B29" s="177" t="s">
+        <v>422</v>
       </c>
       <c r="C29" s="69"/>
       <c r="D29" s="73" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="148" t="s">
-        <v>371</v>
-      </c>
-      <c r="G29" s="178" t="s">
-        <v>423</v>
-      </c>
-      <c r="H29" s="177" t="s">
-        <v>405</v>
+      <c r="F29" s="149" t="s">
+        <v>372</v>
+      </c>
+      <c r="G29" s="179" t="s">
+        <v>424</v>
+      </c>
+      <c r="H29" s="178" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5"/>
-      <c r="B30" s="176" t="s">
-        <v>421</v>
+      <c r="B30" s="177" t="s">
+        <v>422</v>
       </c>
       <c r="C30" s="69"/>
       <c r="D30" s="73" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>105</v>
@@ -22671,124 +22677,124 @@
       <c r="G30" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="177" t="s">
-        <v>424</v>
+      <c r="H30" s="178" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5"/>
-      <c r="B31" s="176" t="s">
-        <v>421</v>
+      <c r="B31" s="177" t="s">
+        <v>422</v>
       </c>
       <c r="C31" s="69"/>
       <c r="D31" s="73" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E31" s="66"/>
       <c r="F31" s="73"/>
       <c r="G31" s="73"/>
-      <c r="H31" s="177"/>
+      <c r="H31" s="178"/>
     </row>
     <row r="32">
       <c r="A32" s="5"/>
-      <c r="B32" s="176" t="s">
-        <v>421</v>
+      <c r="B32" s="177" t="s">
+        <v>422</v>
       </c>
       <c r="C32" s="69"/>
       <c r="D32" s="73" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E32" s="66"/>
       <c r="F32" s="73"/>
       <c r="G32" s="73"/>
-      <c r="H32" s="177"/>
+      <c r="H32" s="178"/>
     </row>
     <row r="33">
       <c r="A33" s="5"/>
-      <c r="B33" s="176" t="s">
-        <v>421</v>
+      <c r="B33" s="177" t="s">
+        <v>422</v>
       </c>
       <c r="C33" s="69"/>
       <c r="D33" s="73" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E33" s="66"/>
       <c r="F33" s="73"/>
       <c r="G33" s="73"/>
-      <c r="H33" s="185"/>
+      <c r="H33" s="186"/>
     </row>
     <row r="34">
       <c r="A34" s="5"/>
-      <c r="B34" s="176" t="s">
-        <v>421</v>
+      <c r="B34" s="177" t="s">
+        <v>422</v>
       </c>
       <c r="C34" s="69"/>
       <c r="D34" s="73" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E34" s="66"/>
       <c r="F34" s="73"/>
       <c r="G34" s="73"/>
-      <c r="H34" s="185"/>
+      <c r="H34" s="186"/>
     </row>
     <row r="35">
       <c r="A35" s="5"/>
-      <c r="B35" s="176" t="s">
-        <v>421</v>
+      <c r="B35" s="177" t="s">
+        <v>422</v>
       </c>
       <c r="C35" s="69"/>
       <c r="D35" s="73" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E35" s="66"/>
       <c r="F35" s="73"/>
       <c r="G35" s="73"/>
-      <c r="H35" s="185"/>
+      <c r="H35" s="186"/>
     </row>
     <row r="36">
       <c r="A36" s="5"/>
-      <c r="B36" s="176" t="s">
-        <v>421</v>
+      <c r="B36" s="177" t="s">
+        <v>422</v>
       </c>
       <c r="C36" s="69"/>
       <c r="D36" s="73" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E36" s="66"/>
       <c r="F36" s="73"/>
       <c r="G36" s="73"/>
-      <c r="H36" s="185"/>
+      <c r="H36" s="186"/>
     </row>
     <row r="37">
       <c r="A37" s="5"/>
-      <c r="B37" s="176"/>
+      <c r="B37" s="177"/>
       <c r="C37" s="69"/>
       <c r="D37" s="73"/>
       <c r="E37" s="74"/>
       <c r="F37" s="73"/>
       <c r="G37" s="73"/>
-      <c r="H37" s="186"/>
+      <c r="H37" s="187"/>
     </row>
     <row r="38">
       <c r="A38" s="5"/>
-      <c r="B38" s="187" t="s">
-        <v>425</v>
-      </c>
-      <c r="C38" s="96"/>
-      <c r="D38" s="188" t="s">
+      <c r="B38" s="188" t="s">
         <v>426</v>
       </c>
+      <c r="C38" s="97"/>
+      <c r="D38" s="189" t="s">
+        <v>427</v>
+      </c>
       <c r="E38" s="45" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F38" s="77" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G38" s="44" t="s">
-        <v>427</v>
-      </c>
-      <c r="H38" s="189" t="s">
         <v>428</v>
+      </c>
+      <c r="H38" s="190" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -22796,7 +22802,7 @@
       <c r="B39" s="5"/>
       <c r="C39" s="46"/>
       <c r="D39" s="59"/>
-      <c r="H39" s="190"/>
+      <c r="H39" s="191"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="5"/>
@@ -25034,7 +25040,7 @@
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -25046,7 +25052,7 @@
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="191"/>
+      <c r="C3" s="192"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -25066,9 +25072,9 @@
       <c r="AB3" s="5"/>
     </row>
     <row r="4" ht="40.5" customHeight="1">
-      <c r="A4" s="192"/>
-      <c r="B4" s="193" t="s">
-        <v>430</v>
+      <c r="A4" s="193"/>
+      <c r="B4" s="194" t="s">
+        <v>431</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -25076,31 +25082,31 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="194"/>
-      <c r="M4" s="194"/>
-      <c r="N4" s="194"/>
-      <c r="O4" s="194"/>
-      <c r="P4" s="194"/>
-      <c r="Q4" s="194"/>
-      <c r="R4" s="194"/>
-      <c r="S4" s="194"/>
-      <c r="T4" s="194"/>
-      <c r="U4" s="194"/>
-      <c r="V4" s="194"/>
-      <c r="W4" s="194"/>
-      <c r="X4" s="194"/>
-      <c r="Y4" s="194"/>
-      <c r="Z4" s="194"/>
-      <c r="AA4" s="194"/>
-      <c r="AB4" s="194"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="195"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
+      <c r="P4" s="195"/>
+      <c r="Q4" s="195"/>
+      <c r="R4" s="195"/>
+      <c r="S4" s="195"/>
+      <c r="T4" s="195"/>
+      <c r="U4" s="195"/>
+      <c r="V4" s="195"/>
+      <c r="W4" s="195"/>
+      <c r="X4" s="195"/>
+      <c r="Y4" s="195"/>
+      <c r="Z4" s="195"/>
+      <c r="AA4" s="195"/>
+      <c r="AB4" s="195"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="191"/>
+      <c r="C5" s="192"/>
       <c r="D5" s="60"/>
       <c r="E5" s="60"/>
       <c r="F5" s="60"/>
@@ -25156,1981 +25162,1981 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="195"/>
-      <c r="B7" s="196" t="s">
-        <v>431</v>
-      </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196" t="s">
+      <c r="A7" s="196"/>
+      <c r="B7" s="197" t="s">
+        <v>432</v>
+      </c>
+      <c r="C7" s="197"/>
+      <c r="D7" s="197"/>
+      <c r="E7" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="196" t="s">
+      <c r="F7" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="196" t="s">
+      <c r="G7" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="168" t="s">
+      <c r="H7" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="197"/>
-      <c r="L7" s="197"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="197"/>
-      <c r="O7" s="197"/>
-      <c r="P7" s="197"/>
-      <c r="Q7" s="197"/>
-      <c r="R7" s="197"/>
-      <c r="S7" s="197"/>
-      <c r="T7" s="197"/>
-      <c r="U7" s="197"/>
-      <c r="V7" s="197"/>
-      <c r="W7" s="197"/>
-      <c r="X7" s="197"/>
-      <c r="Y7" s="197"/>
-      <c r="Z7" s="197"/>
-      <c r="AA7" s="197"/>
-      <c r="AB7" s="197"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="198"/>
+      <c r="K7" s="198"/>
+      <c r="L7" s="198"/>
+      <c r="M7" s="198"/>
+      <c r="N7" s="198"/>
+      <c r="O7" s="198"/>
+      <c r="P7" s="198"/>
+      <c r="Q7" s="198"/>
+      <c r="R7" s="198"/>
+      <c r="S7" s="198"/>
+      <c r="T7" s="198"/>
+      <c r="U7" s="198"/>
+      <c r="V7" s="198"/>
+      <c r="W7" s="198"/>
+      <c r="X7" s="198"/>
+      <c r="Y7" s="198"/>
+      <c r="Z7" s="198"/>
+      <c r="AA7" s="198"/>
+      <c r="AB7" s="198"/>
     </row>
     <row r="8" ht="7.5" customHeight="1">
-      <c r="A8" s="198"/>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="200"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="197"/>
-      <c r="K8" s="198"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="198"/>
-      <c r="N8" s="198"/>
-      <c r="O8" s="198"/>
-      <c r="P8" s="198"/>
-      <c r="Q8" s="198"/>
-      <c r="R8" s="198"/>
-      <c r="S8" s="198"/>
-      <c r="T8" s="198"/>
-      <c r="U8" s="198"/>
-      <c r="V8" s="198"/>
-      <c r="W8" s="198"/>
-      <c r="X8" s="198"/>
-      <c r="Y8" s="198"/>
-      <c r="Z8" s="198"/>
-      <c r="AA8" s="197"/>
-      <c r="AB8" s="197"/>
+      <c r="A8" s="199"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="199"/>
+      <c r="H8" s="201"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="198"/>
+      <c r="K8" s="199"/>
+      <c r="L8" s="199"/>
+      <c r="M8" s="199"/>
+      <c r="N8" s="199"/>
+      <c r="O8" s="199"/>
+      <c r="P8" s="199"/>
+      <c r="Q8" s="199"/>
+      <c r="R8" s="199"/>
+      <c r="S8" s="199"/>
+      <c r="T8" s="199"/>
+      <c r="U8" s="199"/>
+      <c r="V8" s="199"/>
+      <c r="W8" s="199"/>
+      <c r="X8" s="199"/>
+      <c r="Y8" s="199"/>
+      <c r="Z8" s="199"/>
+      <c r="AA8" s="198"/>
+      <c r="AB8" s="198"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="198"/>
-      <c r="B9" s="201"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="206"/>
-      <c r="H9" s="207"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="197"/>
-      <c r="M9" s="197"/>
-      <c r="N9" s="197"/>
-      <c r="O9" s="197"/>
-      <c r="P9" s="197"/>
-      <c r="Q9" s="197"/>
-      <c r="R9" s="197"/>
-      <c r="S9" s="197"/>
-      <c r="T9" s="197"/>
-      <c r="U9" s="197"/>
-      <c r="V9" s="197"/>
-      <c r="W9" s="197"/>
-      <c r="X9" s="197"/>
-      <c r="Y9" s="197"/>
-      <c r="Z9" s="197"/>
-      <c r="AA9" s="197"/>
-      <c r="AB9" s="197"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="202"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="205"/>
+      <c r="F9" s="206"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="208"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="198"/>
+      <c r="N9" s="198"/>
+      <c r="O9" s="198"/>
+      <c r="P9" s="198"/>
+      <c r="Q9" s="198"/>
+      <c r="R9" s="198"/>
+      <c r="S9" s="198"/>
+      <c r="T9" s="198"/>
+      <c r="U9" s="198"/>
+      <c r="V9" s="198"/>
+      <c r="W9" s="198"/>
+      <c r="X9" s="198"/>
+      <c r="Y9" s="198"/>
+      <c r="Z9" s="198"/>
+      <c r="AA9" s="198"/>
+      <c r="AB9" s="198"/>
     </row>
     <row r="10">
-      <c r="A10" s="198"/>
-      <c r="B10" s="208" t="s">
-        <v>432</v>
-      </c>
-      <c r="C10" s="209" t="s">
+      <c r="A10" s="199"/>
+      <c r="B10" s="209" t="s">
         <v>433</v>
       </c>
-      <c r="D10" s="210"/>
-      <c r="E10" s="112" t="s">
+      <c r="C10" s="210" t="s">
         <v>434</v>
       </c>
-      <c r="F10" s="164" t="s">
+      <c r="D10" s="211"/>
+      <c r="E10" s="113" t="s">
         <v>435</v>
       </c>
-      <c r="G10" s="211" t="s">
+      <c r="F10" s="165" t="s">
         <v>436</v>
       </c>
-      <c r="H10" s="212"/>
-      <c r="I10" s="197"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="197"/>
-      <c r="L10" s="197"/>
-      <c r="M10" s="197"/>
-      <c r="N10" s="197"/>
-      <c r="O10" s="197"/>
-      <c r="P10" s="197"/>
-      <c r="Q10" s="197"/>
-      <c r="R10" s="197"/>
-      <c r="S10" s="197"/>
-      <c r="T10" s="197"/>
-      <c r="U10" s="197"/>
-      <c r="V10" s="197"/>
-      <c r="W10" s="197"/>
-      <c r="X10" s="197"/>
-      <c r="Y10" s="197"/>
-      <c r="Z10" s="197"/>
-      <c r="AA10" s="197"/>
-      <c r="AB10" s="197"/>
+      <c r="G10" s="212" t="s">
+        <v>437</v>
+      </c>
+      <c r="H10" s="213"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="198"/>
+      <c r="M10" s="198"/>
+      <c r="N10" s="198"/>
+      <c r="O10" s="198"/>
+      <c r="P10" s="198"/>
+      <c r="Q10" s="198"/>
+      <c r="R10" s="198"/>
+      <c r="S10" s="198"/>
+      <c r="T10" s="198"/>
+      <c r="U10" s="198"/>
+      <c r="V10" s="198"/>
+      <c r="W10" s="198"/>
+      <c r="X10" s="198"/>
+      <c r="Y10" s="198"/>
+      <c r="Z10" s="198"/>
+      <c r="AA10" s="198"/>
+      <c r="AB10" s="198"/>
     </row>
     <row r="11">
-      <c r="A11" s="198"/>
-      <c r="B11" s="208" t="s">
-        <v>437</v>
-      </c>
-      <c r="C11" s="209" t="s">
-        <v>433</v>
-      </c>
-      <c r="D11" s="210"/>
-      <c r="E11" s="112" t="s">
-        <v>284</v>
-      </c>
-      <c r="F11" s="164" t="s">
+      <c r="A11" s="199"/>
+      <c r="B11" s="209" t="s">
         <v>438</v>
       </c>
-      <c r="G11" s="211" t="s">
-        <v>435</v>
-      </c>
-      <c r="H11" s="213"/>
-      <c r="I11" s="197"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="197"/>
-      <c r="L11" s="197"/>
-      <c r="M11" s="197"/>
-      <c r="N11" s="197"/>
-      <c r="O11" s="197"/>
-      <c r="P11" s="197"/>
-      <c r="Q11" s="197"/>
-      <c r="R11" s="197"/>
-      <c r="S11" s="197"/>
-      <c r="T11" s="197"/>
-      <c r="U11" s="197"/>
-      <c r="V11" s="197"/>
-      <c r="W11" s="197"/>
-      <c r="X11" s="197"/>
-      <c r="Y11" s="197"/>
-      <c r="Z11" s="197"/>
-      <c r="AA11" s="197"/>
-      <c r="AB11" s="197"/>
+      <c r="C11" s="210" t="s">
+        <v>434</v>
+      </c>
+      <c r="D11" s="211"/>
+      <c r="E11" s="113" t="s">
+        <v>285</v>
+      </c>
+      <c r="F11" s="165" t="s">
+        <v>439</v>
+      </c>
+      <c r="G11" s="212" t="s">
+        <v>436</v>
+      </c>
+      <c r="H11" s="214"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="198"/>
+      <c r="L11" s="198"/>
+      <c r="M11" s="198"/>
+      <c r="N11" s="198"/>
+      <c r="O11" s="198"/>
+      <c r="P11" s="198"/>
+      <c r="Q11" s="198"/>
+      <c r="R11" s="198"/>
+      <c r="S11" s="198"/>
+      <c r="T11" s="198"/>
+      <c r="U11" s="198"/>
+      <c r="V11" s="198"/>
+      <c r="W11" s="198"/>
+      <c r="X11" s="198"/>
+      <c r="Y11" s="198"/>
+      <c r="Z11" s="198"/>
+      <c r="AA11" s="198"/>
+      <c r="AB11" s="198"/>
     </row>
     <row r="12">
-      <c r="A12" s="198"/>
-      <c r="B12" s="208" t="s">
+      <c r="A12" s="199"/>
+      <c r="B12" s="209" t="s">
+        <v>440</v>
+      </c>
+      <c r="C12" s="210" t="s">
+        <v>434</v>
+      </c>
+      <c r="D12" s="211"/>
+      <c r="E12" s="113" t="s">
+        <v>285</v>
+      </c>
+      <c r="F12" s="165" t="s">
+        <v>280</v>
+      </c>
+      <c r="G12" s="212" t="s">
+        <v>441</v>
+      </c>
+      <c r="H12" s="214"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="198"/>
+      <c r="L12" s="198"/>
+      <c r="M12" s="198"/>
+      <c r="N12" s="198"/>
+      <c r="O12" s="198"/>
+      <c r="P12" s="198"/>
+      <c r="Q12" s="198"/>
+      <c r="R12" s="198"/>
+      <c r="S12" s="198"/>
+      <c r="T12" s="198"/>
+      <c r="U12" s="198"/>
+      <c r="V12" s="198"/>
+      <c r="W12" s="198"/>
+      <c r="X12" s="198"/>
+      <c r="Y12" s="198"/>
+      <c r="Z12" s="198"/>
+      <c r="AA12" s="198"/>
+      <c r="AB12" s="198"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="199"/>
+      <c r="B13" s="215" t="s">
+        <v>442</v>
+      </c>
+      <c r="C13" s="210" t="s">
+        <v>434</v>
+      </c>
+      <c r="D13" s="211"/>
+      <c r="E13" s="113" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="165" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="165" t="s">
         <v>439</v>
       </c>
-      <c r="C12" s="209" t="s">
-        <v>433</v>
-      </c>
-      <c r="D12" s="210"/>
-      <c r="E12" s="112" t="s">
-        <v>284</v>
-      </c>
-      <c r="F12" s="164" t="s">
-        <v>279</v>
-      </c>
-      <c r="G12" s="211" t="s">
-        <v>440</v>
-      </c>
-      <c r="H12" s="213"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="197"/>
-      <c r="L12" s="197"/>
-      <c r="M12" s="197"/>
-      <c r="N12" s="197"/>
-      <c r="O12" s="197"/>
-      <c r="P12" s="197"/>
-      <c r="Q12" s="197"/>
-      <c r="R12" s="197"/>
-      <c r="S12" s="197"/>
-      <c r="T12" s="197"/>
-      <c r="U12" s="197"/>
-      <c r="V12" s="197"/>
-      <c r="W12" s="197"/>
-      <c r="X12" s="197"/>
-      <c r="Y12" s="197"/>
-      <c r="Z12" s="197"/>
-      <c r="AA12" s="197"/>
-      <c r="AB12" s="197"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="198"/>
-      <c r="B13" s="214" t="s">
+      <c r="H13" s="214"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="198"/>
+      <c r="L13" s="198"/>
+      <c r="M13" s="198"/>
+      <c r="N13" s="198"/>
+      <c r="O13" s="198"/>
+      <c r="P13" s="198"/>
+      <c r="Q13" s="198"/>
+      <c r="R13" s="198"/>
+      <c r="S13" s="198"/>
+      <c r="T13" s="198"/>
+      <c r="U13" s="198"/>
+      <c r="V13" s="198"/>
+      <c r="W13" s="198"/>
+      <c r="X13" s="198"/>
+      <c r="Y13" s="198"/>
+      <c r="Z13" s="198"/>
+      <c r="AA13" s="198"/>
+      <c r="AB13" s="198"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="199"/>
+      <c r="B14" s="209" t="s">
+        <v>443</v>
+      </c>
+      <c r="C14" s="210" t="s">
+        <v>434</v>
+      </c>
+      <c r="D14" s="211"/>
+      <c r="E14" s="113" t="s">
+        <v>444</v>
+      </c>
+      <c r="F14" s="165" t="s">
+        <v>445</v>
+      </c>
+      <c r="G14" s="212" t="s">
+        <v>446</v>
+      </c>
+      <c r="H14" s="214"/>
+      <c r="I14" s="198"/>
+      <c r="J14" s="198"/>
+      <c r="K14" s="198"/>
+      <c r="L14" s="198"/>
+      <c r="M14" s="198"/>
+      <c r="N14" s="198"/>
+      <c r="O14" s="198"/>
+      <c r="P14" s="198"/>
+      <c r="Q14" s="198"/>
+      <c r="R14" s="198"/>
+      <c r="S14" s="198"/>
+      <c r="T14" s="198"/>
+      <c r="U14" s="198"/>
+      <c r="V14" s="198"/>
+      <c r="W14" s="198"/>
+      <c r="X14" s="198"/>
+      <c r="Y14" s="198"/>
+      <c r="Z14" s="198"/>
+      <c r="AA14" s="198"/>
+      <c r="AB14" s="198"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="199"/>
+      <c r="B15" s="209" t="s">
+        <v>447</v>
+      </c>
+      <c r="C15" s="210" t="s">
+        <v>434</v>
+      </c>
+      <c r="D15" s="211"/>
+      <c r="E15" s="113" t="s">
+        <v>444</v>
+      </c>
+      <c r="F15" s="165" t="s">
+        <v>439</v>
+      </c>
+      <c r="G15" s="212" t="s">
+        <v>448</v>
+      </c>
+      <c r="H15" s="214"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="198"/>
+      <c r="N15" s="198"/>
+      <c r="O15" s="198"/>
+      <c r="P15" s="198"/>
+      <c r="Q15" s="198"/>
+      <c r="R15" s="198"/>
+      <c r="S15" s="198"/>
+      <c r="T15" s="198"/>
+      <c r="U15" s="198"/>
+      <c r="V15" s="198"/>
+      <c r="W15" s="198"/>
+      <c r="X15" s="198"/>
+      <c r="Y15" s="198"/>
+      <c r="Z15" s="198"/>
+      <c r="AA15" s="198"/>
+      <c r="AB15" s="198"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="199"/>
+      <c r="B16" s="209" t="s">
+        <v>449</v>
+      </c>
+      <c r="C16" s="216" t="s">
+        <v>450</v>
+      </c>
+      <c r="D16" s="211"/>
+      <c r="E16" s="113" t="s">
+        <v>451</v>
+      </c>
+      <c r="F16" s="165" t="s">
+        <v>452</v>
+      </c>
+      <c r="G16" s="212" t="s">
+        <v>439</v>
+      </c>
+      <c r="H16" s="214"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="198"/>
+      <c r="K16" s="198"/>
+      <c r="L16" s="198"/>
+      <c r="M16" s="198"/>
+      <c r="N16" s="198"/>
+      <c r="O16" s="198"/>
+      <c r="P16" s="198"/>
+      <c r="Q16" s="198"/>
+      <c r="R16" s="198"/>
+      <c r="S16" s="198"/>
+      <c r="T16" s="198"/>
+      <c r="U16" s="198"/>
+      <c r="V16" s="198"/>
+      <c r="W16" s="198"/>
+      <c r="X16" s="198"/>
+      <c r="Y16" s="198"/>
+      <c r="Z16" s="198"/>
+      <c r="AA16" s="198"/>
+      <c r="AB16" s="198"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="199"/>
+      <c r="B17" s="209" t="s">
+        <v>453</v>
+      </c>
+      <c r="C17" s="216" t="s">
+        <v>450</v>
+      </c>
+      <c r="D17" s="211"/>
+      <c r="E17" s="113" t="s">
+        <v>280</v>
+      </c>
+      <c r="F17" s="165" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" s="212" t="s">
         <v>441</v>
       </c>
-      <c r="C13" s="209" t="s">
-        <v>433</v>
-      </c>
-      <c r="D13" s="210"/>
-      <c r="E13" s="112" t="s">
-        <v>284</v>
-      </c>
-      <c r="F13" s="164" t="s">
-        <v>279</v>
-      </c>
-      <c r="G13" s="164" t="s">
-        <v>438</v>
-      </c>
-      <c r="H13" s="213"/>
-      <c r="I13" s="197"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="197"/>
-      <c r="L13" s="197"/>
-      <c r="M13" s="197"/>
-      <c r="N13" s="197"/>
-      <c r="O13" s="197"/>
-      <c r="P13" s="197"/>
-      <c r="Q13" s="197"/>
-      <c r="R13" s="197"/>
-      <c r="S13" s="197"/>
-      <c r="T13" s="197"/>
-      <c r="U13" s="197"/>
-      <c r="V13" s="197"/>
-      <c r="W13" s="197"/>
-      <c r="X13" s="197"/>
-      <c r="Y13" s="197"/>
-      <c r="Z13" s="197"/>
-      <c r="AA13" s="197"/>
-      <c r="AB13" s="197"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="198"/>
-      <c r="B14" s="208" t="s">
-        <v>442</v>
-      </c>
-      <c r="C14" s="209" t="s">
-        <v>433</v>
-      </c>
-      <c r="D14" s="210"/>
-      <c r="E14" s="112" t="s">
-        <v>443</v>
-      </c>
-      <c r="F14" s="164" t="s">
+      <c r="H17" s="214"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="198"/>
+      <c r="L17" s="198"/>
+      <c r="M17" s="198"/>
+      <c r="N17" s="198"/>
+      <c r="O17" s="198"/>
+      <c r="P17" s="198"/>
+      <c r="Q17" s="198"/>
+      <c r="R17" s="198"/>
+      <c r="S17" s="198"/>
+      <c r="T17" s="198"/>
+      <c r="U17" s="198"/>
+      <c r="V17" s="198"/>
+      <c r="W17" s="198"/>
+      <c r="X17" s="198"/>
+      <c r="Y17" s="198"/>
+      <c r="Z17" s="198"/>
+      <c r="AA17" s="198"/>
+      <c r="AB17" s="198"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="199"/>
+      <c r="B18" s="209" t="s">
+        <v>454</v>
+      </c>
+      <c r="C18" s="216" t="s">
+        <v>450</v>
+      </c>
+      <c r="D18" s="211"/>
+      <c r="E18" s="113" t="s">
+        <v>280</v>
+      </c>
+      <c r="F18" s="165" t="s">
+        <v>441</v>
+      </c>
+      <c r="G18" s="212" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="214"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="198"/>
+      <c r="K18" s="198"/>
+      <c r="L18" s="198"/>
+      <c r="M18" s="198"/>
+      <c r="N18" s="198"/>
+      <c r="O18" s="198"/>
+      <c r="P18" s="198"/>
+      <c r="Q18" s="198"/>
+      <c r="R18" s="198"/>
+      <c r="S18" s="198"/>
+      <c r="T18" s="198"/>
+      <c r="U18" s="198"/>
+      <c r="V18" s="198"/>
+      <c r="W18" s="198"/>
+      <c r="X18" s="198"/>
+      <c r="Y18" s="198"/>
+      <c r="Z18" s="198"/>
+      <c r="AA18" s="198"/>
+      <c r="AB18" s="198"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="199"/>
+      <c r="B19" s="209" t="s">
+        <v>455</v>
+      </c>
+      <c r="C19" s="216" t="s">
+        <v>450</v>
+      </c>
+      <c r="D19" s="211"/>
+      <c r="E19" s="113" t="s">
+        <v>445</v>
+      </c>
+      <c r="F19" s="165" t="s">
+        <v>446</v>
+      </c>
+      <c r="G19" s="212" t="s">
+        <v>456</v>
+      </c>
+      <c r="H19" s="214"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="198"/>
+      <c r="K19" s="198"/>
+      <c r="L19" s="198"/>
+      <c r="M19" s="198"/>
+      <c r="N19" s="198"/>
+      <c r="O19" s="198"/>
+      <c r="P19" s="198"/>
+      <c r="Q19" s="198"/>
+      <c r="R19" s="198"/>
+      <c r="S19" s="198"/>
+      <c r="T19" s="198"/>
+      <c r="U19" s="198"/>
+      <c r="V19" s="198"/>
+      <c r="W19" s="198"/>
+      <c r="X19" s="198"/>
+      <c r="Y19" s="198"/>
+      <c r="Z19" s="198"/>
+      <c r="AA19" s="198"/>
+      <c r="AB19" s="198"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="199"/>
+      <c r="B20" s="209" t="s">
+        <v>457</v>
+      </c>
+      <c r="C20" s="216" t="s">
+        <v>450</v>
+      </c>
+      <c r="D20" s="211"/>
+      <c r="E20" s="113" t="s">
+        <v>280</v>
+      </c>
+      <c r="F20" s="165" t="s">
+        <v>452</v>
+      </c>
+      <c r="G20" s="212" t="s">
+        <v>285</v>
+      </c>
+      <c r="H20" s="214"/>
+      <c r="I20" s="198"/>
+      <c r="J20" s="198"/>
+      <c r="K20" s="198"/>
+      <c r="L20" s="198"/>
+      <c r="M20" s="198"/>
+      <c r="N20" s="198"/>
+      <c r="O20" s="198"/>
+      <c r="P20" s="198"/>
+      <c r="Q20" s="198"/>
+      <c r="R20" s="198"/>
+      <c r="S20" s="198"/>
+      <c r="T20" s="198"/>
+      <c r="U20" s="198"/>
+      <c r="V20" s="198"/>
+      <c r="W20" s="198"/>
+      <c r="X20" s="198"/>
+      <c r="Y20" s="198"/>
+      <c r="Z20" s="198"/>
+      <c r="AA20" s="198"/>
+      <c r="AB20" s="198"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="199"/>
+      <c r="B21" s="209" t="s">
+        <v>458</v>
+      </c>
+      <c r="C21" s="216" t="s">
+        <v>450</v>
+      </c>
+      <c r="D21" s="211"/>
+      <c r="E21" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="165" t="s">
+        <v>459</v>
+      </c>
+      <c r="G21" s="212" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="214"/>
+      <c r="I21" s="198"/>
+      <c r="J21" s="198"/>
+      <c r="K21" s="198"/>
+      <c r="L21" s="198"/>
+      <c r="M21" s="198"/>
+      <c r="N21" s="198"/>
+      <c r="O21" s="198"/>
+      <c r="P21" s="198"/>
+      <c r="Q21" s="198"/>
+      <c r="R21" s="198"/>
+      <c r="S21" s="198"/>
+      <c r="T21" s="198"/>
+      <c r="U21" s="198"/>
+      <c r="V21" s="198"/>
+      <c r="W21" s="198"/>
+      <c r="X21" s="198"/>
+      <c r="Y21" s="198"/>
+      <c r="Z21" s="198"/>
+      <c r="AA21" s="198"/>
+      <c r="AB21" s="198"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="199"/>
+      <c r="B22" s="209" t="s">
+        <v>460</v>
+      </c>
+      <c r="C22" s="216" t="s">
+        <v>450</v>
+      </c>
+      <c r="D22" s="211"/>
+      <c r="E22" s="113" t="s">
+        <v>461</v>
+      </c>
+      <c r="F22" s="217" t="s">
+        <v>462</v>
+      </c>
+      <c r="G22" s="212" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="214"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="198"/>
+      <c r="K22" s="198"/>
+      <c r="L22" s="198"/>
+      <c r="M22" s="198"/>
+      <c r="N22" s="198"/>
+      <c r="O22" s="198"/>
+      <c r="P22" s="198"/>
+      <c r="Q22" s="198"/>
+      <c r="R22" s="198"/>
+      <c r="S22" s="198"/>
+      <c r="T22" s="198"/>
+      <c r="U22" s="198"/>
+      <c r="V22" s="198"/>
+      <c r="W22" s="198"/>
+      <c r="X22" s="198"/>
+      <c r="Y22" s="198"/>
+      <c r="Z22" s="198"/>
+      <c r="AA22" s="198"/>
+      <c r="AB22" s="198"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="199"/>
+      <c r="B23" s="209" t="s">
+        <v>463</v>
+      </c>
+      <c r="C23" s="216" t="s">
+        <v>450</v>
+      </c>
+      <c r="D23" s="211"/>
+      <c r="E23" s="113" t="s">
+        <v>451</v>
+      </c>
+      <c r="F23" s="165" t="s">
+        <v>452</v>
+      </c>
+      <c r="G23" s="212" t="s">
+        <v>428</v>
+      </c>
+      <c r="H23" s="214"/>
+      <c r="I23" s="198"/>
+      <c r="J23" s="198"/>
+      <c r="K23" s="198"/>
+      <c r="L23" s="198"/>
+      <c r="M23" s="198"/>
+      <c r="N23" s="198"/>
+      <c r="O23" s="198"/>
+      <c r="P23" s="198"/>
+      <c r="Q23" s="198"/>
+      <c r="R23" s="198"/>
+      <c r="S23" s="198"/>
+      <c r="T23" s="198"/>
+      <c r="U23" s="198"/>
+      <c r="V23" s="198"/>
+      <c r="W23" s="198"/>
+      <c r="X23" s="198"/>
+      <c r="Y23" s="198"/>
+      <c r="Z23" s="198"/>
+      <c r="AA23" s="198"/>
+      <c r="AB23" s="198"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="199"/>
+      <c r="B24" s="209" t="s">
+        <v>464</v>
+      </c>
+      <c r="C24" s="216" t="s">
+        <v>450</v>
+      </c>
+      <c r="D24" s="211"/>
+      <c r="E24" s="113" t="s">
+        <v>428</v>
+      </c>
+      <c r="F24" s="165" t="s">
         <v>444</v>
       </c>
-      <c r="G14" s="211" t="s">
+      <c r="G24" s="212" t="s">
+        <v>452</v>
+      </c>
+      <c r="H24" s="214"/>
+      <c r="I24" s="198"/>
+      <c r="J24" s="198"/>
+      <c r="K24" s="198"/>
+      <c r="L24" s="198"/>
+      <c r="M24" s="198"/>
+      <c r="N24" s="198"/>
+      <c r="O24" s="198"/>
+      <c r="P24" s="198"/>
+      <c r="Q24" s="198"/>
+      <c r="R24" s="198"/>
+      <c r="S24" s="198"/>
+      <c r="T24" s="198"/>
+      <c r="U24" s="198"/>
+      <c r="V24" s="198"/>
+      <c r="W24" s="198"/>
+      <c r="X24" s="198"/>
+      <c r="Y24" s="198"/>
+      <c r="Z24" s="198"/>
+      <c r="AA24" s="198"/>
+      <c r="AB24" s="198"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="199"/>
+      <c r="B25" s="209" t="s">
+        <v>465</v>
+      </c>
+      <c r="C25" s="216" t="s">
+        <v>450</v>
+      </c>
+      <c r="D25" s="211"/>
+      <c r="E25" s="113" t="s">
         <v>445</v>
       </c>
-      <c r="H14" s="213"/>
-      <c r="I14" s="197"/>
-      <c r="J14" s="197"/>
-      <c r="K14" s="197"/>
-      <c r="L14" s="197"/>
-      <c r="M14" s="197"/>
-      <c r="N14" s="197"/>
-      <c r="O14" s="197"/>
-      <c r="P14" s="197"/>
-      <c r="Q14" s="197"/>
-      <c r="R14" s="197"/>
-      <c r="S14" s="197"/>
-      <c r="T14" s="197"/>
-      <c r="U14" s="197"/>
-      <c r="V14" s="197"/>
-      <c r="W14" s="197"/>
-      <c r="X14" s="197"/>
-      <c r="Y14" s="197"/>
-      <c r="Z14" s="197"/>
-      <c r="AA14" s="197"/>
-      <c r="AB14" s="197"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="198"/>
-      <c r="B15" s="208" t="s">
+      <c r="F25" s="165" t="s">
         <v>446</v>
       </c>
-      <c r="C15" s="209" t="s">
-        <v>433</v>
-      </c>
-      <c r="D15" s="210"/>
-      <c r="E15" s="112" t="s">
-        <v>443</v>
-      </c>
-      <c r="F15" s="164" t="s">
-        <v>438</v>
-      </c>
-      <c r="G15" s="211" t="s">
-        <v>447</v>
-      </c>
-      <c r="H15" s="213"/>
-      <c r="I15" s="197"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="197"/>
-      <c r="L15" s="197"/>
-      <c r="M15" s="197"/>
-      <c r="N15" s="197"/>
-      <c r="O15" s="197"/>
-      <c r="P15" s="197"/>
-      <c r="Q15" s="197"/>
-      <c r="R15" s="197"/>
-      <c r="S15" s="197"/>
-      <c r="T15" s="197"/>
-      <c r="U15" s="197"/>
-      <c r="V15" s="197"/>
-      <c r="W15" s="197"/>
-      <c r="X15" s="197"/>
-      <c r="Y15" s="197"/>
-      <c r="Z15" s="197"/>
-      <c r="AA15" s="197"/>
-      <c r="AB15" s="197"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="198"/>
-      <c r="B16" s="208" t="s">
+      <c r="G25" s="212" t="s">
+        <v>444</v>
+      </c>
+      <c r="H25" s="214"/>
+      <c r="I25" s="198"/>
+      <c r="J25" s="198"/>
+      <c r="K25" s="198"/>
+      <c r="L25" s="198"/>
+      <c r="M25" s="198"/>
+      <c r="N25" s="198"/>
+      <c r="O25" s="198"/>
+      <c r="P25" s="198"/>
+      <c r="Q25" s="198"/>
+      <c r="R25" s="198"/>
+      <c r="S25" s="198"/>
+      <c r="T25" s="198"/>
+      <c r="U25" s="198"/>
+      <c r="V25" s="198"/>
+      <c r="W25" s="198"/>
+      <c r="X25" s="198"/>
+      <c r="Y25" s="198"/>
+      <c r="Z25" s="198"/>
+      <c r="AA25" s="198"/>
+      <c r="AB25" s="198"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="199"/>
+      <c r="B26" s="209" t="s">
+        <v>466</v>
+      </c>
+      <c r="C26" s="216" t="s">
+        <v>450</v>
+      </c>
+      <c r="D26" s="211"/>
+      <c r="E26" s="113" t="s">
+        <v>285</v>
+      </c>
+      <c r="F26" s="165" t="s">
+        <v>280</v>
+      </c>
+      <c r="G26" s="212" t="s">
+        <v>428</v>
+      </c>
+      <c r="H26" s="214"/>
+      <c r="I26" s="198"/>
+      <c r="J26" s="198"/>
+      <c r="K26" s="198"/>
+      <c r="L26" s="198"/>
+      <c r="M26" s="198"/>
+      <c r="N26" s="198"/>
+      <c r="O26" s="198"/>
+      <c r="P26" s="198"/>
+      <c r="Q26" s="198"/>
+      <c r="R26" s="198"/>
+      <c r="S26" s="198"/>
+      <c r="T26" s="198"/>
+      <c r="U26" s="198"/>
+      <c r="V26" s="198"/>
+      <c r="W26" s="198"/>
+      <c r="X26" s="198"/>
+      <c r="Y26" s="198"/>
+      <c r="Z26" s="198"/>
+      <c r="AA26" s="198"/>
+      <c r="AB26" s="198"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="199"/>
+      <c r="B27" s="209" t="s">
+        <v>467</v>
+      </c>
+      <c r="C27" s="216" t="s">
+        <v>450</v>
+      </c>
+      <c r="D27" s="211"/>
+      <c r="E27" s="113" t="s">
+        <v>285</v>
+      </c>
+      <c r="F27" s="165" t="s">
+        <v>439</v>
+      </c>
+      <c r="G27" s="212" t="s">
+        <v>444</v>
+      </c>
+      <c r="H27" s="214"/>
+      <c r="I27" s="198"/>
+      <c r="J27" s="198"/>
+      <c r="K27" s="198"/>
+      <c r="L27" s="198"/>
+      <c r="M27" s="198"/>
+      <c r="N27" s="198"/>
+      <c r="O27" s="198"/>
+      <c r="P27" s="198"/>
+      <c r="Q27" s="198"/>
+      <c r="R27" s="198"/>
+      <c r="S27" s="198"/>
+      <c r="T27" s="198"/>
+      <c r="U27" s="198"/>
+      <c r="V27" s="198"/>
+      <c r="W27" s="198"/>
+      <c r="X27" s="198"/>
+      <c r="Y27" s="198"/>
+      <c r="Z27" s="198"/>
+      <c r="AA27" s="198"/>
+      <c r="AB27" s="198"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="199"/>
+      <c r="B28" s="218" t="s">
+        <v>468</v>
+      </c>
+      <c r="C28" s="216" t="s">
+        <v>450</v>
+      </c>
+      <c r="D28" s="211"/>
+      <c r="E28" s="152" t="s">
+        <v>444</v>
+      </c>
+      <c r="F28" s="152" t="s">
         <v>448</v>
       </c>
-      <c r="C16" s="215" t="s">
-        <v>449</v>
-      </c>
-      <c r="D16" s="210"/>
-      <c r="E16" s="112" t="s">
-        <v>450</v>
-      </c>
-      <c r="F16" s="164" t="s">
-        <v>451</v>
-      </c>
-      <c r="G16" s="211" t="s">
-        <v>438</v>
-      </c>
-      <c r="H16" s="213"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="197"/>
-      <c r="N16" s="197"/>
-      <c r="O16" s="197"/>
-      <c r="P16" s="197"/>
-      <c r="Q16" s="197"/>
-      <c r="R16" s="197"/>
-      <c r="S16" s="197"/>
-      <c r="T16" s="197"/>
-      <c r="U16" s="197"/>
-      <c r="V16" s="197"/>
-      <c r="W16" s="197"/>
-      <c r="X16" s="197"/>
-      <c r="Y16" s="197"/>
-      <c r="Z16" s="197"/>
-      <c r="AA16" s="197"/>
-      <c r="AB16" s="197"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="198"/>
-      <c r="B17" s="208" t="s">
-        <v>452</v>
-      </c>
-      <c r="C17" s="215" t="s">
-        <v>449</v>
-      </c>
-      <c r="D17" s="210"/>
-      <c r="E17" s="112" t="s">
-        <v>279</v>
-      </c>
-      <c r="F17" s="164" t="s">
-        <v>284</v>
-      </c>
-      <c r="G17" s="211" t="s">
-        <v>440</v>
-      </c>
-      <c r="H17" s="213"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="197"/>
-      <c r="L17" s="197"/>
-      <c r="M17" s="197"/>
-      <c r="N17" s="197"/>
-      <c r="O17" s="197"/>
-      <c r="P17" s="197"/>
-      <c r="Q17" s="197"/>
-      <c r="R17" s="197"/>
-      <c r="S17" s="197"/>
-      <c r="T17" s="197"/>
-      <c r="U17" s="197"/>
-      <c r="V17" s="197"/>
-      <c r="W17" s="197"/>
-      <c r="X17" s="197"/>
-      <c r="Y17" s="197"/>
-      <c r="Z17" s="197"/>
-      <c r="AA17" s="197"/>
-      <c r="AB17" s="197"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="198"/>
-      <c r="B18" s="208" t="s">
-        <v>453</v>
-      </c>
-      <c r="C18" s="215" t="s">
-        <v>449</v>
-      </c>
-      <c r="D18" s="210"/>
-      <c r="E18" s="112" t="s">
-        <v>279</v>
-      </c>
-      <c r="F18" s="164" t="s">
-        <v>440</v>
-      </c>
-      <c r="G18" s="211" t="s">
+      <c r="G28" s="152" t="s">
+        <v>439</v>
+      </c>
+      <c r="H28" s="214"/>
+      <c r="I28" s="198"/>
+      <c r="J28" s="198"/>
+      <c r="K28" s="198"/>
+      <c r="L28" s="198"/>
+      <c r="M28" s="198"/>
+      <c r="N28" s="198"/>
+      <c r="O28" s="198"/>
+      <c r="P28" s="198"/>
+      <c r="Q28" s="198"/>
+      <c r="R28" s="198"/>
+      <c r="S28" s="198"/>
+      <c r="T28" s="198"/>
+      <c r="U28" s="198"/>
+      <c r="V28" s="198"/>
+      <c r="W28" s="198"/>
+      <c r="X28" s="198"/>
+      <c r="Y28" s="198"/>
+      <c r="Z28" s="198"/>
+      <c r="AA28" s="198"/>
+      <c r="AB28" s="198"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="199"/>
+      <c r="B29" s="218" t="s">
+        <v>469</v>
+      </c>
+      <c r="C29" s="219" t="s">
+        <v>470</v>
+      </c>
+      <c r="D29" s="211"/>
+      <c r="E29" s="152" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="152" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="152" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="213"/>
+      <c r="I29" s="198"/>
+      <c r="J29" s="198"/>
+      <c r="K29" s="198"/>
+      <c r="L29" s="198"/>
+      <c r="M29" s="198"/>
+      <c r="N29" s="198"/>
+      <c r="O29" s="198"/>
+      <c r="P29" s="198"/>
+      <c r="Q29" s="198"/>
+      <c r="R29" s="198"/>
+      <c r="S29" s="198"/>
+      <c r="T29" s="198"/>
+      <c r="U29" s="198"/>
+      <c r="V29" s="198"/>
+      <c r="W29" s="198"/>
+      <c r="X29" s="198"/>
+      <c r="Y29" s="198"/>
+      <c r="Z29" s="198"/>
+      <c r="AA29" s="198"/>
+      <c r="AB29" s="198"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="199"/>
+      <c r="B30" s="218" t="s">
+        <v>471</v>
+      </c>
+      <c r="C30" s="219" t="s">
+        <v>470</v>
+      </c>
+      <c r="D30" s="211"/>
+      <c r="E30" s="152" t="s">
+        <v>285</v>
+      </c>
+      <c r="F30" s="152" t="s">
+        <v>280</v>
+      </c>
+      <c r="G30" s="152" t="s">
+        <v>472</v>
+      </c>
+      <c r="H30" s="213"/>
+      <c r="I30" s="198"/>
+      <c r="J30" s="198"/>
+      <c r="K30" s="198"/>
+      <c r="L30" s="198"/>
+      <c r="M30" s="198"/>
+      <c r="N30" s="198"/>
+      <c r="O30" s="198"/>
+      <c r="P30" s="198"/>
+      <c r="Q30" s="198"/>
+      <c r="R30" s="198"/>
+      <c r="S30" s="198"/>
+      <c r="T30" s="198"/>
+      <c r="U30" s="198"/>
+      <c r="V30" s="198"/>
+      <c r="W30" s="198"/>
+      <c r="X30" s="198"/>
+      <c r="Y30" s="198"/>
+      <c r="Z30" s="198"/>
+      <c r="AA30" s="198"/>
+      <c r="AB30" s="198"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="199"/>
+      <c r="B31" s="218" t="s">
+        <v>473</v>
+      </c>
+      <c r="C31" s="219" t="s">
+        <v>470</v>
+      </c>
+      <c r="D31" s="211"/>
+      <c r="E31" s="152" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="152" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" s="152" t="s">
+        <v>474</v>
+      </c>
+      <c r="H31" s="213"/>
+      <c r="I31" s="198"/>
+      <c r="J31" s="198"/>
+      <c r="K31" s="198"/>
+      <c r="L31" s="198"/>
+      <c r="M31" s="198"/>
+      <c r="N31" s="198"/>
+      <c r="O31" s="198"/>
+      <c r="P31" s="198"/>
+      <c r="Q31" s="198"/>
+      <c r="R31" s="198"/>
+      <c r="S31" s="198"/>
+      <c r="T31" s="198"/>
+      <c r="U31" s="198"/>
+      <c r="V31" s="198"/>
+      <c r="W31" s="198"/>
+      <c r="X31" s="198"/>
+      <c r="Y31" s="198"/>
+      <c r="Z31" s="198"/>
+      <c r="AA31" s="198"/>
+      <c r="AB31" s="198"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="199"/>
+      <c r="B32" s="218" t="s">
+        <v>475</v>
+      </c>
+      <c r="C32" s="219" t="s">
+        <v>470</v>
+      </c>
+      <c r="D32" s="211"/>
+      <c r="E32" s="152" t="s">
+        <v>476</v>
+      </c>
+      <c r="F32" s="152" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="152" t="s">
+        <v>280</v>
+      </c>
+      <c r="H32" s="213"/>
+      <c r="I32" s="198"/>
+      <c r="J32" s="198"/>
+      <c r="K32" s="198"/>
+      <c r="L32" s="198"/>
+      <c r="M32" s="198"/>
+      <c r="N32" s="198"/>
+      <c r="O32" s="198"/>
+      <c r="P32" s="198"/>
+      <c r="Q32" s="198"/>
+      <c r="R32" s="198"/>
+      <c r="S32" s="198"/>
+      <c r="T32" s="198"/>
+      <c r="U32" s="198"/>
+      <c r="V32" s="198"/>
+      <c r="W32" s="198"/>
+      <c r="X32" s="198"/>
+      <c r="Y32" s="198"/>
+      <c r="Z32" s="198"/>
+      <c r="AA32" s="198"/>
+      <c r="AB32" s="198"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="199"/>
+      <c r="B33" s="218" t="s">
+        <v>477</v>
+      </c>
+      <c r="C33" s="219" t="s">
+        <v>470</v>
+      </c>
+      <c r="D33" s="211"/>
+      <c r="E33" s="152" t="s">
+        <v>285</v>
+      </c>
+      <c r="F33" s="152" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" s="152" t="s">
+        <v>478</v>
+      </c>
+      <c r="H33" s="213"/>
+      <c r="I33" s="198"/>
+      <c r="J33" s="198"/>
+      <c r="K33" s="198"/>
+      <c r="L33" s="198"/>
+      <c r="M33" s="198"/>
+      <c r="N33" s="198"/>
+      <c r="O33" s="198"/>
+      <c r="P33" s="198"/>
+      <c r="Q33" s="198"/>
+      <c r="R33" s="198"/>
+      <c r="S33" s="198"/>
+      <c r="T33" s="198"/>
+      <c r="U33" s="198"/>
+      <c r="V33" s="198"/>
+      <c r="W33" s="198"/>
+      <c r="X33" s="198"/>
+      <c r="Y33" s="198"/>
+      <c r="Z33" s="198"/>
+      <c r="AA33" s="198"/>
+      <c r="AB33" s="198"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="199"/>
+      <c r="B34" s="218" t="s">
+        <v>479</v>
+      </c>
+      <c r="C34" s="219" t="s">
+        <v>470</v>
+      </c>
+      <c r="D34" s="211"/>
+      <c r="E34" s="152" t="s">
+        <v>280</v>
+      </c>
+      <c r="F34" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="152" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="213"/>
+      <c r="I34" s="198"/>
+      <c r="J34" s="198"/>
+      <c r="K34" s="198"/>
+      <c r="L34" s="198"/>
+      <c r="M34" s="198"/>
+      <c r="N34" s="198"/>
+      <c r="O34" s="198"/>
+      <c r="P34" s="198"/>
+      <c r="Q34" s="198"/>
+      <c r="R34" s="198"/>
+      <c r="S34" s="198"/>
+      <c r="T34" s="198"/>
+      <c r="U34" s="198"/>
+      <c r="V34" s="198"/>
+      <c r="W34" s="198"/>
+      <c r="X34" s="198"/>
+      <c r="Y34" s="198"/>
+      <c r="Z34" s="198"/>
+      <c r="AA34" s="198"/>
+      <c r="AB34" s="198"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="199"/>
+      <c r="B35" s="218" t="s">
+        <v>480</v>
+      </c>
+      <c r="C35" s="219" t="s">
+        <v>470</v>
+      </c>
+      <c r="D35" s="211"/>
+      <c r="E35" s="152" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="152" t="s">
+        <v>280</v>
+      </c>
+      <c r="G35" s="152" t="s">
+        <v>481</v>
+      </c>
+      <c r="H35" s="213"/>
+      <c r="I35" s="198"/>
+      <c r="J35" s="198"/>
+      <c r="K35" s="198"/>
+      <c r="L35" s="198"/>
+      <c r="M35" s="198"/>
+      <c r="N35" s="198"/>
+      <c r="O35" s="198"/>
+      <c r="P35" s="198"/>
+      <c r="Q35" s="198"/>
+      <c r="R35" s="198"/>
+      <c r="S35" s="198"/>
+      <c r="T35" s="198"/>
+      <c r="U35" s="198"/>
+      <c r="V35" s="198"/>
+      <c r="W35" s="198"/>
+      <c r="X35" s="198"/>
+      <c r="Y35" s="198"/>
+      <c r="Z35" s="198"/>
+      <c r="AA35" s="198"/>
+      <c r="AB35" s="198"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="199"/>
+      <c r="B36" s="218" t="s">
+        <v>482</v>
+      </c>
+      <c r="C36" s="219" t="s">
+        <v>470</v>
+      </c>
+      <c r="D36" s="211"/>
+      <c r="E36" s="152" t="s">
+        <v>280</v>
+      </c>
+      <c r="F36" s="152" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="152" t="s">
+        <v>476</v>
+      </c>
+      <c r="H36" s="213"/>
+      <c r="I36" s="198"/>
+      <c r="J36" s="198"/>
+      <c r="K36" s="198"/>
+      <c r="L36" s="198"/>
+      <c r="M36" s="198"/>
+      <c r="N36" s="198"/>
+      <c r="O36" s="198"/>
+      <c r="P36" s="198"/>
+      <c r="Q36" s="198"/>
+      <c r="R36" s="198"/>
+      <c r="S36" s="198"/>
+      <c r="T36" s="198"/>
+      <c r="U36" s="198"/>
+      <c r="V36" s="198"/>
+      <c r="W36" s="198"/>
+      <c r="X36" s="198"/>
+      <c r="Y36" s="198"/>
+      <c r="Z36" s="198"/>
+      <c r="AA36" s="198"/>
+      <c r="AB36" s="198"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="199"/>
+      <c r="B37" s="218" t="s">
+        <v>483</v>
+      </c>
+      <c r="C37" s="219" t="s">
+        <v>470</v>
+      </c>
+      <c r="D37" s="211"/>
+      <c r="E37" s="152" t="s">
+        <v>280</v>
+      </c>
+      <c r="F37" s="152" t="s">
+        <v>285</v>
+      </c>
+      <c r="G37" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37" s="213"/>
+      <c r="I37" s="198"/>
+      <c r="J37" s="198"/>
+      <c r="K37" s="198"/>
+      <c r="L37" s="198"/>
+      <c r="M37" s="198"/>
+      <c r="N37" s="198"/>
+      <c r="O37" s="198"/>
+      <c r="P37" s="198"/>
+      <c r="Q37" s="198"/>
+      <c r="R37" s="198"/>
+      <c r="S37" s="198"/>
+      <c r="T37" s="198"/>
+      <c r="U37" s="198"/>
+      <c r="V37" s="198"/>
+      <c r="W37" s="198"/>
+      <c r="X37" s="198"/>
+      <c r="Y37" s="198"/>
+      <c r="Z37" s="198"/>
+      <c r="AA37" s="198"/>
+      <c r="AB37" s="198"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="199"/>
+      <c r="B38" s="218" t="s">
+        <v>484</v>
+      </c>
+      <c r="C38" s="219" t="s">
+        <v>470</v>
+      </c>
+      <c r="D38" s="211"/>
+      <c r="E38" s="152" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="152" t="s">
+        <v>280</v>
+      </c>
+      <c r="G38" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="213"/>
-      <c r="I18" s="197"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="197"/>
-      <c r="L18" s="197"/>
-      <c r="M18" s="197"/>
-      <c r="N18" s="197"/>
-      <c r="O18" s="197"/>
-      <c r="P18" s="197"/>
-      <c r="Q18" s="197"/>
-      <c r="R18" s="197"/>
-      <c r="S18" s="197"/>
-      <c r="T18" s="197"/>
-      <c r="U18" s="197"/>
-      <c r="V18" s="197"/>
-      <c r="W18" s="197"/>
-      <c r="X18" s="197"/>
-      <c r="Y18" s="197"/>
-      <c r="Z18" s="197"/>
-      <c r="AA18" s="197"/>
-      <c r="AB18" s="197"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="198"/>
-      <c r="B19" s="208" t="s">
-        <v>454</v>
-      </c>
-      <c r="C19" s="215" t="s">
-        <v>449</v>
-      </c>
-      <c r="D19" s="210"/>
-      <c r="E19" s="112" t="s">
-        <v>444</v>
-      </c>
-      <c r="F19" s="164" t="s">
-        <v>445</v>
-      </c>
-      <c r="G19" s="211" t="s">
-        <v>455</v>
-      </c>
-      <c r="H19" s="213"/>
-      <c r="I19" s="197"/>
-      <c r="J19" s="197"/>
-      <c r="K19" s="197"/>
-      <c r="L19" s="197"/>
-      <c r="M19" s="197"/>
-      <c r="N19" s="197"/>
-      <c r="O19" s="197"/>
-      <c r="P19" s="197"/>
-      <c r="Q19" s="197"/>
-      <c r="R19" s="197"/>
-      <c r="S19" s="197"/>
-      <c r="T19" s="197"/>
-      <c r="U19" s="197"/>
-      <c r="V19" s="197"/>
-      <c r="W19" s="197"/>
-      <c r="X19" s="197"/>
-      <c r="Y19" s="197"/>
-      <c r="Z19" s="197"/>
-      <c r="AA19" s="197"/>
-      <c r="AB19" s="197"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="198"/>
-      <c r="B20" s="208" t="s">
-        <v>456</v>
-      </c>
-      <c r="C20" s="215" t="s">
-        <v>449</v>
-      </c>
-      <c r="D20" s="210"/>
-      <c r="E20" s="112" t="s">
-        <v>279</v>
-      </c>
-      <c r="F20" s="164" t="s">
-        <v>451</v>
-      </c>
-      <c r="G20" s="211" t="s">
-        <v>284</v>
-      </c>
-      <c r="H20" s="213"/>
-      <c r="I20" s="197"/>
-      <c r="J20" s="197"/>
-      <c r="K20" s="197"/>
-      <c r="L20" s="197"/>
-      <c r="M20" s="197"/>
-      <c r="N20" s="197"/>
-      <c r="O20" s="197"/>
-      <c r="P20" s="197"/>
-      <c r="Q20" s="197"/>
-      <c r="R20" s="197"/>
-      <c r="S20" s="197"/>
-      <c r="T20" s="197"/>
-      <c r="U20" s="197"/>
-      <c r="V20" s="197"/>
-      <c r="W20" s="197"/>
-      <c r="X20" s="197"/>
-      <c r="Y20" s="197"/>
-      <c r="Z20" s="197"/>
-      <c r="AA20" s="197"/>
-      <c r="AB20" s="197"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="198"/>
-      <c r="B21" s="208" t="s">
-        <v>457</v>
-      </c>
-      <c r="C21" s="215" t="s">
-        <v>449</v>
-      </c>
-      <c r="D21" s="210"/>
-      <c r="E21" s="112" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" s="164" t="s">
-        <v>458</v>
-      </c>
-      <c r="G21" s="211" t="s">
-        <v>129</v>
-      </c>
-      <c r="H21" s="213"/>
-      <c r="I21" s="197"/>
-      <c r="J21" s="197"/>
-      <c r="K21" s="197"/>
-      <c r="L21" s="197"/>
-      <c r="M21" s="197"/>
-      <c r="N21" s="197"/>
-      <c r="O21" s="197"/>
-      <c r="P21" s="197"/>
-      <c r="Q21" s="197"/>
-      <c r="R21" s="197"/>
-      <c r="S21" s="197"/>
-      <c r="T21" s="197"/>
-      <c r="U21" s="197"/>
-      <c r="V21" s="197"/>
-      <c r="W21" s="197"/>
-      <c r="X21" s="197"/>
-      <c r="Y21" s="197"/>
-      <c r="Z21" s="197"/>
-      <c r="AA21" s="197"/>
-      <c r="AB21" s="197"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="198"/>
-      <c r="B22" s="208" t="s">
-        <v>459</v>
-      </c>
-      <c r="C22" s="215" t="s">
-        <v>449</v>
-      </c>
-      <c r="D22" s="210"/>
-      <c r="E22" s="112" t="s">
-        <v>460</v>
-      </c>
-      <c r="F22" s="216" t="s">
-        <v>461</v>
-      </c>
-      <c r="G22" s="211" t="s">
+      <c r="H38" s="213"/>
+      <c r="I38" s="198"/>
+      <c r="J38" s="198"/>
+      <c r="K38" s="198"/>
+      <c r="L38" s="198"/>
+      <c r="M38" s="198"/>
+      <c r="N38" s="198"/>
+      <c r="O38" s="198"/>
+      <c r="P38" s="198"/>
+      <c r="Q38" s="198"/>
+      <c r="R38" s="198"/>
+      <c r="S38" s="198"/>
+      <c r="T38" s="198"/>
+      <c r="U38" s="198"/>
+      <c r="V38" s="198"/>
+      <c r="W38" s="198"/>
+      <c r="X38" s="198"/>
+      <c r="Y38" s="198"/>
+      <c r="Z38" s="198"/>
+      <c r="AA38" s="198"/>
+      <c r="AB38" s="198"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="199"/>
+      <c r="B39" s="218" t="s">
+        <v>485</v>
+      </c>
+      <c r="C39" s="219" t="s">
+        <v>470</v>
+      </c>
+      <c r="D39" s="211"/>
+      <c r="E39" s="152" t="s">
+        <v>285</v>
+      </c>
+      <c r="F39" s="152" t="s">
+        <v>206</v>
+      </c>
+      <c r="G39" s="152" t="s">
+        <v>439</v>
+      </c>
+      <c r="H39" s="213"/>
+      <c r="I39" s="198"/>
+      <c r="J39" s="198"/>
+      <c r="K39" s="198"/>
+      <c r="L39" s="198"/>
+      <c r="M39" s="198"/>
+      <c r="N39" s="198"/>
+      <c r="O39" s="198"/>
+      <c r="P39" s="198"/>
+      <c r="Q39" s="198"/>
+      <c r="R39" s="198"/>
+      <c r="S39" s="198"/>
+      <c r="T39" s="198"/>
+      <c r="U39" s="198"/>
+      <c r="V39" s="198"/>
+      <c r="W39" s="198"/>
+      <c r="X39" s="198"/>
+      <c r="Y39" s="198"/>
+      <c r="Z39" s="198"/>
+      <c r="AA39" s="198"/>
+      <c r="AB39" s="198"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="199"/>
+      <c r="B40" s="218" t="s">
+        <v>486</v>
+      </c>
+      <c r="C40" s="219" t="s">
+        <v>470</v>
+      </c>
+      <c r="D40" s="211"/>
+      <c r="E40" s="152" t="s">
+        <v>285</v>
+      </c>
+      <c r="F40" s="152" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="152" t="s">
+        <v>487</v>
+      </c>
+      <c r="H40" s="213"/>
+      <c r="I40" s="198"/>
+      <c r="J40" s="198"/>
+      <c r="K40" s="198"/>
+      <c r="L40" s="198"/>
+      <c r="M40" s="198"/>
+      <c r="N40" s="198"/>
+      <c r="O40" s="198"/>
+      <c r="P40" s="198"/>
+      <c r="Q40" s="198"/>
+      <c r="R40" s="198"/>
+      <c r="S40" s="198"/>
+      <c r="T40" s="198"/>
+      <c r="U40" s="198"/>
+      <c r="V40" s="198"/>
+      <c r="W40" s="198"/>
+      <c r="X40" s="198"/>
+      <c r="Y40" s="198"/>
+      <c r="Z40" s="198"/>
+      <c r="AA40" s="198"/>
+      <c r="AB40" s="198"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="199"/>
+      <c r="B41" s="218" t="s">
+        <v>488</v>
+      </c>
+      <c r="C41" s="219" t="s">
+        <v>470</v>
+      </c>
+      <c r="D41" s="211"/>
+      <c r="E41" s="152" t="s">
+        <v>285</v>
+      </c>
+      <c r="F41" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="213"/>
-      <c r="I22" s="197"/>
-      <c r="J22" s="197"/>
-      <c r="K22" s="197"/>
-      <c r="L22" s="197"/>
-      <c r="M22" s="197"/>
-      <c r="N22" s="197"/>
-      <c r="O22" s="197"/>
-      <c r="P22" s="197"/>
-      <c r="Q22" s="197"/>
-      <c r="R22" s="197"/>
-      <c r="S22" s="197"/>
-      <c r="T22" s="197"/>
-      <c r="U22" s="197"/>
-      <c r="V22" s="197"/>
-      <c r="W22" s="197"/>
-      <c r="X22" s="197"/>
-      <c r="Y22" s="197"/>
-      <c r="Z22" s="197"/>
-      <c r="AA22" s="197"/>
-      <c r="AB22" s="197"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="198"/>
-      <c r="B23" s="208" t="s">
-        <v>462</v>
-      </c>
-      <c r="C23" s="215" t="s">
-        <v>449</v>
-      </c>
-      <c r="D23" s="210"/>
-      <c r="E23" s="112" t="s">
-        <v>450</v>
-      </c>
-      <c r="F23" s="164" t="s">
-        <v>451</v>
-      </c>
-      <c r="G23" s="211" t="s">
-        <v>427</v>
-      </c>
-      <c r="H23" s="213"/>
-      <c r="I23" s="197"/>
-      <c r="J23" s="197"/>
-      <c r="K23" s="197"/>
-      <c r="L23" s="197"/>
-      <c r="M23" s="197"/>
-      <c r="N23" s="197"/>
-      <c r="O23" s="197"/>
-      <c r="P23" s="197"/>
-      <c r="Q23" s="197"/>
-      <c r="R23" s="197"/>
-      <c r="S23" s="197"/>
-      <c r="T23" s="197"/>
-      <c r="U23" s="197"/>
-      <c r="V23" s="197"/>
-      <c r="W23" s="197"/>
-      <c r="X23" s="197"/>
-      <c r="Y23" s="197"/>
-      <c r="Z23" s="197"/>
-      <c r="AA23" s="197"/>
-      <c r="AB23" s="197"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="198"/>
-      <c r="B24" s="208" t="s">
-        <v>463</v>
-      </c>
-      <c r="C24" s="215" t="s">
-        <v>449</v>
-      </c>
-      <c r="D24" s="210"/>
-      <c r="E24" s="112" t="s">
-        <v>427</v>
-      </c>
-      <c r="F24" s="164" t="s">
-        <v>443</v>
-      </c>
-      <c r="G24" s="211" t="s">
-        <v>451</v>
-      </c>
-      <c r="H24" s="213"/>
-      <c r="I24" s="197"/>
-      <c r="J24" s="197"/>
-      <c r="K24" s="197"/>
-      <c r="L24" s="197"/>
-      <c r="M24" s="197"/>
-      <c r="N24" s="197"/>
-      <c r="O24" s="197"/>
-      <c r="P24" s="197"/>
-      <c r="Q24" s="197"/>
-      <c r="R24" s="197"/>
-      <c r="S24" s="197"/>
-      <c r="T24" s="197"/>
-      <c r="U24" s="197"/>
-      <c r="V24" s="197"/>
-      <c r="W24" s="197"/>
-      <c r="X24" s="197"/>
-      <c r="Y24" s="197"/>
-      <c r="Z24" s="197"/>
-      <c r="AA24" s="197"/>
-      <c r="AB24" s="197"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="198"/>
-      <c r="B25" s="208" t="s">
-        <v>464</v>
-      </c>
-      <c r="C25" s="215" t="s">
-        <v>449</v>
-      </c>
-      <c r="D25" s="210"/>
-      <c r="E25" s="112" t="s">
-        <v>444</v>
-      </c>
-      <c r="F25" s="164" t="s">
-        <v>445</v>
-      </c>
-      <c r="G25" s="211" t="s">
-        <v>443</v>
-      </c>
-      <c r="H25" s="213"/>
-      <c r="I25" s="197"/>
-      <c r="J25" s="197"/>
-      <c r="K25" s="197"/>
-      <c r="L25" s="197"/>
-      <c r="M25" s="197"/>
-      <c r="N25" s="197"/>
-      <c r="O25" s="197"/>
-      <c r="P25" s="197"/>
-      <c r="Q25" s="197"/>
-      <c r="R25" s="197"/>
-      <c r="S25" s="197"/>
-      <c r="T25" s="197"/>
-      <c r="U25" s="197"/>
-      <c r="V25" s="197"/>
-      <c r="W25" s="197"/>
-      <c r="X25" s="197"/>
-      <c r="Y25" s="197"/>
-      <c r="Z25" s="197"/>
-      <c r="AA25" s="197"/>
-      <c r="AB25" s="197"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="198"/>
-      <c r="B26" s="208" t="s">
-        <v>465</v>
-      </c>
-      <c r="C26" s="215" t="s">
-        <v>449</v>
-      </c>
-      <c r="D26" s="210"/>
-      <c r="E26" s="112" t="s">
-        <v>284</v>
-      </c>
-      <c r="F26" s="164" t="s">
-        <v>279</v>
-      </c>
-      <c r="G26" s="211" t="s">
-        <v>427</v>
-      </c>
-      <c r="H26" s="213"/>
-      <c r="I26" s="197"/>
-      <c r="J26" s="197"/>
-      <c r="K26" s="197"/>
-      <c r="L26" s="197"/>
-      <c r="M26" s="197"/>
-      <c r="N26" s="197"/>
-      <c r="O26" s="197"/>
-      <c r="P26" s="197"/>
-      <c r="Q26" s="197"/>
-      <c r="R26" s="197"/>
-      <c r="S26" s="197"/>
-      <c r="T26" s="197"/>
-      <c r="U26" s="197"/>
-      <c r="V26" s="197"/>
-      <c r="W26" s="197"/>
-      <c r="X26" s="197"/>
-      <c r="Y26" s="197"/>
-      <c r="Z26" s="197"/>
-      <c r="AA26" s="197"/>
-      <c r="AB26" s="197"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="198"/>
-      <c r="B27" s="208" t="s">
-        <v>466</v>
-      </c>
-      <c r="C27" s="215" t="s">
-        <v>449</v>
-      </c>
-      <c r="D27" s="210"/>
-      <c r="E27" s="112" t="s">
-        <v>284</v>
-      </c>
-      <c r="F27" s="164" t="s">
-        <v>438</v>
-      </c>
-      <c r="G27" s="211" t="s">
-        <v>443</v>
-      </c>
-      <c r="H27" s="213"/>
-      <c r="I27" s="197"/>
-      <c r="J27" s="197"/>
-      <c r="K27" s="197"/>
-      <c r="L27" s="197"/>
-      <c r="M27" s="197"/>
-      <c r="N27" s="197"/>
-      <c r="O27" s="197"/>
-      <c r="P27" s="197"/>
-      <c r="Q27" s="197"/>
-      <c r="R27" s="197"/>
-      <c r="S27" s="197"/>
-      <c r="T27" s="197"/>
-      <c r="U27" s="197"/>
-      <c r="V27" s="197"/>
-      <c r="W27" s="197"/>
-      <c r="X27" s="197"/>
-      <c r="Y27" s="197"/>
-      <c r="Z27" s="197"/>
-      <c r="AA27" s="197"/>
-      <c r="AB27" s="197"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="198"/>
-      <c r="B28" s="217" t="s">
-        <v>467</v>
-      </c>
-      <c r="C28" s="215" t="s">
-        <v>449</v>
-      </c>
-      <c r="D28" s="210"/>
-      <c r="E28" s="151" t="s">
-        <v>443</v>
-      </c>
-      <c r="F28" s="151" t="s">
-        <v>447</v>
-      </c>
-      <c r="G28" s="151" t="s">
-        <v>438</v>
-      </c>
-      <c r="H28" s="213"/>
-      <c r="I28" s="197"/>
-      <c r="J28" s="197"/>
-      <c r="K28" s="197"/>
-      <c r="L28" s="197"/>
-      <c r="M28" s="197"/>
-      <c r="N28" s="197"/>
-      <c r="O28" s="197"/>
-      <c r="P28" s="197"/>
-      <c r="Q28" s="197"/>
-      <c r="R28" s="197"/>
-      <c r="S28" s="197"/>
-      <c r="T28" s="197"/>
-      <c r="U28" s="197"/>
-      <c r="V28" s="197"/>
-      <c r="W28" s="197"/>
-      <c r="X28" s="197"/>
-      <c r="Y28" s="197"/>
-      <c r="Z28" s="197"/>
-      <c r="AA28" s="197"/>
-      <c r="AB28" s="197"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="198"/>
-      <c r="B29" s="217" t="s">
-        <v>468</v>
-      </c>
-      <c r="C29" s="218" t="s">
-        <v>469</v>
-      </c>
-      <c r="D29" s="210"/>
-      <c r="E29" s="151" t="s">
+      <c r="G41" s="152" t="s">
+        <v>489</v>
+      </c>
+      <c r="H41" s="213"/>
+      <c r="I41" s="198"/>
+      <c r="J41" s="198"/>
+      <c r="K41" s="198"/>
+      <c r="L41" s="198"/>
+      <c r="M41" s="198"/>
+      <c r="N41" s="198"/>
+      <c r="O41" s="198"/>
+      <c r="P41" s="198"/>
+      <c r="Q41" s="198"/>
+      <c r="R41" s="198"/>
+      <c r="S41" s="198"/>
+      <c r="T41" s="198"/>
+      <c r="U41" s="198"/>
+      <c r="V41" s="198"/>
+      <c r="W41" s="198"/>
+      <c r="X41" s="198"/>
+      <c r="Y41" s="198"/>
+      <c r="Z41" s="198"/>
+      <c r="AA41" s="198"/>
+      <c r="AB41" s="198"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="199"/>
+      <c r="B42" s="218" t="s">
+        <v>490</v>
+      </c>
+      <c r="C42" s="220"/>
+      <c r="D42" s="211"/>
+      <c r="E42" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="151" t="s">
+      <c r="F42" s="152" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="151" t="s">
+      <c r="G42" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="212"/>
-      <c r="I29" s="197"/>
-      <c r="J29" s="197"/>
-      <c r="K29" s="197"/>
-      <c r="L29" s="197"/>
-      <c r="M29" s="197"/>
-      <c r="N29" s="197"/>
-      <c r="O29" s="197"/>
-      <c r="P29" s="197"/>
-      <c r="Q29" s="197"/>
-      <c r="R29" s="197"/>
-      <c r="S29" s="197"/>
-      <c r="T29" s="197"/>
-      <c r="U29" s="197"/>
-      <c r="V29" s="197"/>
-      <c r="W29" s="197"/>
-      <c r="X29" s="197"/>
-      <c r="Y29" s="197"/>
-      <c r="Z29" s="197"/>
-      <c r="AA29" s="197"/>
-      <c r="AB29" s="197"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="198"/>
-      <c r="B30" s="217" t="s">
-        <v>470</v>
-      </c>
-      <c r="C30" s="218" t="s">
-        <v>469</v>
-      </c>
-      <c r="D30" s="210"/>
-      <c r="E30" s="151" t="s">
-        <v>284</v>
-      </c>
-      <c r="F30" s="151" t="s">
-        <v>279</v>
-      </c>
-      <c r="G30" s="151" t="s">
-        <v>471</v>
-      </c>
-      <c r="H30" s="212"/>
-      <c r="I30" s="197"/>
-      <c r="J30" s="197"/>
-      <c r="K30" s="197"/>
-      <c r="L30" s="197"/>
-      <c r="M30" s="197"/>
-      <c r="N30" s="197"/>
-      <c r="O30" s="197"/>
-      <c r="P30" s="197"/>
-      <c r="Q30" s="197"/>
-      <c r="R30" s="197"/>
-      <c r="S30" s="197"/>
-      <c r="T30" s="197"/>
-      <c r="U30" s="197"/>
-      <c r="V30" s="197"/>
-      <c r="W30" s="197"/>
-      <c r="X30" s="197"/>
-      <c r="Y30" s="197"/>
-      <c r="Z30" s="197"/>
-      <c r="AA30" s="197"/>
-      <c r="AB30" s="197"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="198"/>
-      <c r="B31" s="217" t="s">
-        <v>472</v>
-      </c>
-      <c r="C31" s="218" t="s">
-        <v>469</v>
-      </c>
-      <c r="D31" s="210"/>
-      <c r="E31" s="151" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="151" t="s">
-        <v>279</v>
-      </c>
-      <c r="G31" s="151" t="s">
-        <v>473</v>
-      </c>
-      <c r="H31" s="212"/>
-      <c r="I31" s="197"/>
-      <c r="J31" s="197"/>
-      <c r="K31" s="197"/>
-      <c r="L31" s="197"/>
-      <c r="M31" s="197"/>
-      <c r="N31" s="197"/>
-      <c r="O31" s="197"/>
-      <c r="P31" s="197"/>
-      <c r="Q31" s="197"/>
-      <c r="R31" s="197"/>
-      <c r="S31" s="197"/>
-      <c r="T31" s="197"/>
-      <c r="U31" s="197"/>
-      <c r="V31" s="197"/>
-      <c r="W31" s="197"/>
-      <c r="X31" s="197"/>
-      <c r="Y31" s="197"/>
-      <c r="Z31" s="197"/>
-      <c r="AA31" s="197"/>
-      <c r="AB31" s="197"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="198"/>
-      <c r="B32" s="217" t="s">
-        <v>474</v>
-      </c>
-      <c r="C32" s="218" t="s">
-        <v>469</v>
-      </c>
-      <c r="D32" s="210"/>
-      <c r="E32" s="151" t="s">
-        <v>475</v>
-      </c>
-      <c r="F32" s="151" t="s">
-        <v>128</v>
-      </c>
-      <c r="G32" s="151" t="s">
-        <v>279</v>
-      </c>
-      <c r="H32" s="212"/>
-      <c r="I32" s="197"/>
-      <c r="J32" s="197"/>
-      <c r="K32" s="197"/>
-      <c r="L32" s="197"/>
-      <c r="M32" s="197"/>
-      <c r="N32" s="197"/>
-      <c r="O32" s="197"/>
-      <c r="P32" s="197"/>
-      <c r="Q32" s="197"/>
-      <c r="R32" s="197"/>
-      <c r="S32" s="197"/>
-      <c r="T32" s="197"/>
-      <c r="U32" s="197"/>
-      <c r="V32" s="197"/>
-      <c r="W32" s="197"/>
-      <c r="X32" s="197"/>
-      <c r="Y32" s="197"/>
-      <c r="Z32" s="197"/>
-      <c r="AA32" s="197"/>
-      <c r="AB32" s="197"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="198"/>
-      <c r="B33" s="217" t="s">
-        <v>476</v>
-      </c>
-      <c r="C33" s="218" t="s">
-        <v>469</v>
-      </c>
-      <c r="D33" s="210"/>
-      <c r="E33" s="151" t="s">
-        <v>284</v>
-      </c>
-      <c r="F33" s="151" t="s">
-        <v>206</v>
-      </c>
-      <c r="G33" s="151" t="s">
-        <v>477</v>
-      </c>
-      <c r="H33" s="212"/>
-      <c r="I33" s="197"/>
-      <c r="J33" s="197"/>
-      <c r="K33" s="197"/>
-      <c r="L33" s="197"/>
-      <c r="M33" s="197"/>
-      <c r="N33" s="197"/>
-      <c r="O33" s="197"/>
-      <c r="P33" s="197"/>
-      <c r="Q33" s="197"/>
-      <c r="R33" s="197"/>
-      <c r="S33" s="197"/>
-      <c r="T33" s="197"/>
-      <c r="U33" s="197"/>
-      <c r="V33" s="197"/>
-      <c r="W33" s="197"/>
-      <c r="X33" s="197"/>
-      <c r="Y33" s="197"/>
-      <c r="Z33" s="197"/>
-      <c r="AA33" s="197"/>
-      <c r="AB33" s="197"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="198"/>
-      <c r="B34" s="217" t="s">
-        <v>478</v>
-      </c>
-      <c r="C34" s="218" t="s">
-        <v>469</v>
-      </c>
-      <c r="D34" s="210"/>
-      <c r="E34" s="151" t="s">
-        <v>279</v>
-      </c>
-      <c r="F34" s="151" t="s">
-        <v>129</v>
-      </c>
-      <c r="G34" s="151" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="212"/>
-      <c r="I34" s="197"/>
-      <c r="J34" s="197"/>
-      <c r="K34" s="197"/>
-      <c r="L34" s="197"/>
-      <c r="M34" s="197"/>
-      <c r="N34" s="197"/>
-      <c r="O34" s="197"/>
-      <c r="P34" s="197"/>
-      <c r="Q34" s="197"/>
-      <c r="R34" s="197"/>
-      <c r="S34" s="197"/>
-      <c r="T34" s="197"/>
-      <c r="U34" s="197"/>
-      <c r="V34" s="197"/>
-      <c r="W34" s="197"/>
-      <c r="X34" s="197"/>
-      <c r="Y34" s="197"/>
-      <c r="Z34" s="197"/>
-      <c r="AA34" s="197"/>
-      <c r="AB34" s="197"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="198"/>
-      <c r="B35" s="217" t="s">
-        <v>479</v>
-      </c>
-      <c r="C35" s="218" t="s">
-        <v>469</v>
-      </c>
-      <c r="D35" s="210"/>
-      <c r="E35" s="151" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="151" t="s">
-        <v>279</v>
-      </c>
-      <c r="G35" s="151" t="s">
-        <v>480</v>
-      </c>
-      <c r="H35" s="212"/>
-      <c r="I35" s="197"/>
-      <c r="J35" s="197"/>
-      <c r="K35" s="197"/>
-      <c r="L35" s="197"/>
-      <c r="M35" s="197"/>
-      <c r="N35" s="197"/>
-      <c r="O35" s="197"/>
-      <c r="P35" s="197"/>
-      <c r="Q35" s="197"/>
-      <c r="R35" s="197"/>
-      <c r="S35" s="197"/>
-      <c r="T35" s="197"/>
-      <c r="U35" s="197"/>
-      <c r="V35" s="197"/>
-      <c r="W35" s="197"/>
-      <c r="X35" s="197"/>
-      <c r="Y35" s="197"/>
-      <c r="Z35" s="197"/>
-      <c r="AA35" s="197"/>
-      <c r="AB35" s="197"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="198"/>
-      <c r="B36" s="217" t="s">
-        <v>481</v>
-      </c>
-      <c r="C36" s="218" t="s">
-        <v>469</v>
-      </c>
-      <c r="D36" s="210"/>
-      <c r="E36" s="151" t="s">
-        <v>279</v>
-      </c>
-      <c r="F36" s="151" t="s">
-        <v>128</v>
-      </c>
-      <c r="G36" s="151" t="s">
-        <v>475</v>
-      </c>
-      <c r="H36" s="212"/>
-      <c r="I36" s="197"/>
-      <c r="J36" s="197"/>
-      <c r="K36" s="197"/>
-      <c r="L36" s="197"/>
-      <c r="M36" s="197"/>
-      <c r="N36" s="197"/>
-      <c r="O36" s="197"/>
-      <c r="P36" s="197"/>
-      <c r="Q36" s="197"/>
-      <c r="R36" s="197"/>
-      <c r="S36" s="197"/>
-      <c r="T36" s="197"/>
-      <c r="U36" s="197"/>
-      <c r="V36" s="197"/>
-      <c r="W36" s="197"/>
-      <c r="X36" s="197"/>
-      <c r="Y36" s="197"/>
-      <c r="Z36" s="197"/>
-      <c r="AA36" s="197"/>
-      <c r="AB36" s="197"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="198"/>
-      <c r="B37" s="217" t="s">
-        <v>482</v>
-      </c>
-      <c r="C37" s="218" t="s">
-        <v>469</v>
-      </c>
-      <c r="D37" s="210"/>
-      <c r="E37" s="151" t="s">
-        <v>279</v>
-      </c>
-      <c r="F37" s="151" t="s">
-        <v>284</v>
-      </c>
-      <c r="G37" s="151" t="s">
-        <v>129</v>
-      </c>
-      <c r="H37" s="212"/>
-      <c r="I37" s="197"/>
-      <c r="J37" s="197"/>
-      <c r="K37" s="197"/>
-      <c r="L37" s="197"/>
-      <c r="M37" s="197"/>
-      <c r="N37" s="197"/>
-      <c r="O37" s="197"/>
-      <c r="P37" s="197"/>
-      <c r="Q37" s="197"/>
-      <c r="R37" s="197"/>
-      <c r="S37" s="197"/>
-      <c r="T37" s="197"/>
-      <c r="U37" s="197"/>
-      <c r="V37" s="197"/>
-      <c r="W37" s="197"/>
-      <c r="X37" s="197"/>
-      <c r="Y37" s="197"/>
-      <c r="Z37" s="197"/>
-      <c r="AA37" s="197"/>
-      <c r="AB37" s="197"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="198"/>
-      <c r="B38" s="217" t="s">
-        <v>483</v>
-      </c>
-      <c r="C38" s="218" t="s">
-        <v>469</v>
-      </c>
-      <c r="D38" s="210"/>
-      <c r="E38" s="151" t="s">
-        <v>128</v>
-      </c>
-      <c r="F38" s="151" t="s">
-        <v>279</v>
-      </c>
-      <c r="G38" s="151" t="s">
-        <v>132</v>
-      </c>
-      <c r="H38" s="212"/>
-      <c r="I38" s="197"/>
-      <c r="J38" s="197"/>
-      <c r="K38" s="197"/>
-      <c r="L38" s="197"/>
-      <c r="M38" s="197"/>
-      <c r="N38" s="197"/>
-      <c r="O38" s="197"/>
-      <c r="P38" s="197"/>
-      <c r="Q38" s="197"/>
-      <c r="R38" s="197"/>
-      <c r="S38" s="197"/>
-      <c r="T38" s="197"/>
-      <c r="U38" s="197"/>
-      <c r="V38" s="197"/>
-      <c r="W38" s="197"/>
-      <c r="X38" s="197"/>
-      <c r="Y38" s="197"/>
-      <c r="Z38" s="197"/>
-      <c r="AA38" s="197"/>
-      <c r="AB38" s="197"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="198"/>
-      <c r="B39" s="217" t="s">
-        <v>484</v>
-      </c>
-      <c r="C39" s="218" t="s">
-        <v>469</v>
-      </c>
-      <c r="D39" s="210"/>
-      <c r="E39" s="151" t="s">
-        <v>284</v>
-      </c>
-      <c r="F39" s="151" t="s">
-        <v>206</v>
-      </c>
-      <c r="G39" s="151" t="s">
-        <v>438</v>
-      </c>
-      <c r="H39" s="212"/>
-      <c r="I39" s="197"/>
-      <c r="J39" s="197"/>
-      <c r="K39" s="197"/>
-      <c r="L39" s="197"/>
-      <c r="M39" s="197"/>
-      <c r="N39" s="197"/>
-      <c r="O39" s="197"/>
-      <c r="P39" s="197"/>
-      <c r="Q39" s="197"/>
-      <c r="R39" s="197"/>
-      <c r="S39" s="197"/>
-      <c r="T39" s="197"/>
-      <c r="U39" s="197"/>
-      <c r="V39" s="197"/>
-      <c r="W39" s="197"/>
-      <c r="X39" s="197"/>
-      <c r="Y39" s="197"/>
-      <c r="Z39" s="197"/>
-      <c r="AA39" s="197"/>
-      <c r="AB39" s="197"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="198"/>
-      <c r="B40" s="217" t="s">
-        <v>485</v>
-      </c>
-      <c r="C40" s="218" t="s">
-        <v>469</v>
-      </c>
-      <c r="D40" s="210"/>
-      <c r="E40" s="151" t="s">
-        <v>284</v>
-      </c>
-      <c r="F40" s="151" t="s">
+      <c r="H42" s="221"/>
+      <c r="I42" s="198"/>
+      <c r="J42" s="198"/>
+      <c r="K42" s="198"/>
+      <c r="L42" s="198"/>
+      <c r="M42" s="198"/>
+      <c r="N42" s="198"/>
+      <c r="O42" s="198"/>
+      <c r="P42" s="198"/>
+      <c r="Q42" s="198"/>
+      <c r="R42" s="198"/>
+      <c r="S42" s="198"/>
+      <c r="T42" s="198"/>
+      <c r="U42" s="198"/>
+      <c r="V42" s="198"/>
+      <c r="W42" s="198"/>
+      <c r="X42" s="198"/>
+      <c r="Y42" s="198"/>
+      <c r="Z42" s="198"/>
+      <c r="AA42" s="198"/>
+      <c r="AB42" s="198"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="199"/>
+      <c r="B43" s="222" t="s">
+        <v>491</v>
+      </c>
+      <c r="C43" s="223"/>
+      <c r="D43" s="224"/>
+      <c r="E43" s="152" t="s">
+        <v>285</v>
+      </c>
+      <c r="F43" s="152" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="151" t="s">
-        <v>486</v>
-      </c>
-      <c r="H40" s="212"/>
-      <c r="I40" s="197"/>
-      <c r="J40" s="197"/>
-      <c r="K40" s="197"/>
-      <c r="L40" s="197"/>
-      <c r="M40" s="197"/>
-      <c r="N40" s="197"/>
-      <c r="O40" s="197"/>
-      <c r="P40" s="197"/>
-      <c r="Q40" s="197"/>
-      <c r="R40" s="197"/>
-      <c r="S40" s="197"/>
-      <c r="T40" s="197"/>
-      <c r="U40" s="197"/>
-      <c r="V40" s="197"/>
-      <c r="W40" s="197"/>
-      <c r="X40" s="197"/>
-      <c r="Y40" s="197"/>
-      <c r="Z40" s="197"/>
-      <c r="AA40" s="197"/>
-      <c r="AB40" s="197"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="198"/>
-      <c r="B41" s="217" t="s">
-        <v>487</v>
-      </c>
-      <c r="C41" s="218" t="s">
-        <v>469</v>
-      </c>
-      <c r="D41" s="210"/>
-      <c r="E41" s="151" t="s">
-        <v>284</v>
-      </c>
-      <c r="F41" s="151" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="151" t="s">
-        <v>488</v>
-      </c>
-      <c r="H41" s="212"/>
-      <c r="I41" s="197"/>
-      <c r="J41" s="197"/>
-      <c r="K41" s="197"/>
-      <c r="L41" s="197"/>
-      <c r="M41" s="197"/>
-      <c r="N41" s="197"/>
-      <c r="O41" s="197"/>
-      <c r="P41" s="197"/>
-      <c r="Q41" s="197"/>
-      <c r="R41" s="197"/>
-      <c r="S41" s="197"/>
-      <c r="T41" s="197"/>
-      <c r="U41" s="197"/>
-      <c r="V41" s="197"/>
-      <c r="W41" s="197"/>
-      <c r="X41" s="197"/>
-      <c r="Y41" s="197"/>
-      <c r="Z41" s="197"/>
-      <c r="AA41" s="197"/>
-      <c r="AB41" s="197"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="198"/>
-      <c r="B42" s="217" t="s">
-        <v>489</v>
-      </c>
-      <c r="C42" s="219"/>
-      <c r="D42" s="210"/>
-      <c r="E42" s="151" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="151" t="s">
-        <v>94</v>
-      </c>
-      <c r="G42" s="151" t="s">
+      <c r="G43" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="H42" s="220"/>
-      <c r="I42" s="197"/>
-      <c r="J42" s="197"/>
-      <c r="K42" s="197"/>
-      <c r="L42" s="197"/>
-      <c r="M42" s="197"/>
-      <c r="N42" s="197"/>
-      <c r="O42" s="197"/>
-      <c r="P42" s="197"/>
-      <c r="Q42" s="197"/>
-      <c r="R42" s="197"/>
-      <c r="S42" s="197"/>
-      <c r="T42" s="197"/>
-      <c r="U42" s="197"/>
-      <c r="V42" s="197"/>
-      <c r="W42" s="197"/>
-      <c r="X42" s="197"/>
-      <c r="Y42" s="197"/>
-      <c r="Z42" s="197"/>
-      <c r="AA42" s="197"/>
-      <c r="AB42" s="197"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="198"/>
-      <c r="B43" s="221" t="s">
-        <v>490</v>
-      </c>
-      <c r="C43" s="222"/>
-      <c r="D43" s="223"/>
-      <c r="E43" s="151" t="s">
-        <v>284</v>
-      </c>
-      <c r="F43" s="151" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" s="151" t="s">
-        <v>34</v>
-      </c>
-      <c r="H43" s="224"/>
-      <c r="I43" s="197"/>
-      <c r="J43" s="197"/>
-      <c r="K43" s="197"/>
-      <c r="L43" s="197"/>
-      <c r="M43" s="197"/>
-      <c r="N43" s="197"/>
-      <c r="O43" s="197"/>
-      <c r="P43" s="197"/>
-      <c r="Q43" s="197"/>
-      <c r="R43" s="197"/>
-      <c r="S43" s="197"/>
-      <c r="T43" s="197"/>
-      <c r="U43" s="197"/>
-      <c r="V43" s="197"/>
-      <c r="W43" s="197"/>
-      <c r="X43" s="197"/>
-      <c r="Y43" s="197"/>
-      <c r="Z43" s="197"/>
-      <c r="AA43" s="197"/>
-      <c r="AB43" s="197"/>
+      <c r="H43" s="225"/>
+      <c r="I43" s="198"/>
+      <c r="J43" s="198"/>
+      <c r="K43" s="198"/>
+      <c r="L43" s="198"/>
+      <c r="M43" s="198"/>
+      <c r="N43" s="198"/>
+      <c r="O43" s="198"/>
+      <c r="P43" s="198"/>
+      <c r="Q43" s="198"/>
+      <c r="R43" s="198"/>
+      <c r="S43" s="198"/>
+      <c r="T43" s="198"/>
+      <c r="U43" s="198"/>
+      <c r="V43" s="198"/>
+      <c r="W43" s="198"/>
+      <c r="X43" s="198"/>
+      <c r="Y43" s="198"/>
+      <c r="Z43" s="198"/>
+      <c r="AA43" s="198"/>
+      <c r="AB43" s="198"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="198"/>
-      <c r="B44" s="197"/>
-      <c r="C44" s="197"/>
-      <c r="D44" s="197"/>
-      <c r="E44" s="197"/>
-      <c r="F44" s="197"/>
-      <c r="G44" s="197"/>
-      <c r="H44" s="225"/>
-      <c r="I44" s="197"/>
-      <c r="J44" s="197"/>
-      <c r="K44" s="197"/>
-      <c r="L44" s="197"/>
-      <c r="M44" s="197"/>
-      <c r="N44" s="197"/>
-      <c r="O44" s="197"/>
-      <c r="P44" s="197"/>
-      <c r="Q44" s="197"/>
-      <c r="R44" s="197"/>
-      <c r="S44" s="197"/>
-      <c r="T44" s="197"/>
-      <c r="U44" s="197"/>
-      <c r="V44" s="197"/>
-      <c r="W44" s="197"/>
-      <c r="X44" s="197"/>
-      <c r="Y44" s="197"/>
-      <c r="Z44" s="197"/>
-      <c r="AA44" s="197"/>
-      <c r="AB44" s="197"/>
+      <c r="A44" s="199"/>
+      <c r="B44" s="198"/>
+      <c r="C44" s="198"/>
+      <c r="D44" s="198"/>
+      <c r="E44" s="198"/>
+      <c r="F44" s="198"/>
+      <c r="G44" s="198"/>
+      <c r="H44" s="226"/>
+      <c r="I44" s="198"/>
+      <c r="J44" s="198"/>
+      <c r="K44" s="198"/>
+      <c r="L44" s="198"/>
+      <c r="M44" s="198"/>
+      <c r="N44" s="198"/>
+      <c r="O44" s="198"/>
+      <c r="P44" s="198"/>
+      <c r="Q44" s="198"/>
+      <c r="R44" s="198"/>
+      <c r="S44" s="198"/>
+      <c r="T44" s="198"/>
+      <c r="U44" s="198"/>
+      <c r="V44" s="198"/>
+      <c r="W44" s="198"/>
+      <c r="X44" s="198"/>
+      <c r="Y44" s="198"/>
+      <c r="Z44" s="198"/>
+      <c r="AA44" s="198"/>
+      <c r="AB44" s="198"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="198"/>
-      <c r="B45" s="197"/>
-      <c r="C45" s="197"/>
-      <c r="D45" s="197"/>
-      <c r="E45" s="226"/>
-      <c r="F45" s="197"/>
-      <c r="G45" s="197"/>
-      <c r="H45" s="225"/>
-      <c r="I45" s="197"/>
-      <c r="J45" s="197"/>
-      <c r="K45" s="197"/>
-      <c r="L45" s="197"/>
-      <c r="M45" s="197"/>
-      <c r="N45" s="197"/>
-      <c r="O45" s="197"/>
-      <c r="P45" s="197"/>
-      <c r="Q45" s="197"/>
-      <c r="R45" s="197"/>
-      <c r="S45" s="197"/>
-      <c r="T45" s="197"/>
-      <c r="U45" s="197"/>
-      <c r="V45" s="197"/>
-      <c r="W45" s="197"/>
-      <c r="X45" s="197"/>
-      <c r="Y45" s="197"/>
-      <c r="Z45" s="197"/>
-      <c r="AA45" s="197"/>
-      <c r="AB45" s="197"/>
+      <c r="A45" s="199"/>
+      <c r="B45" s="198"/>
+      <c r="C45" s="198"/>
+      <c r="D45" s="198"/>
+      <c r="E45" s="227"/>
+      <c r="F45" s="198"/>
+      <c r="G45" s="198"/>
+      <c r="H45" s="226"/>
+      <c r="I45" s="198"/>
+      <c r="J45" s="198"/>
+      <c r="K45" s="198"/>
+      <c r="L45" s="198"/>
+      <c r="M45" s="198"/>
+      <c r="N45" s="198"/>
+      <c r="O45" s="198"/>
+      <c r="P45" s="198"/>
+      <c r="Q45" s="198"/>
+      <c r="R45" s="198"/>
+      <c r="S45" s="198"/>
+      <c r="T45" s="198"/>
+      <c r="U45" s="198"/>
+      <c r="V45" s="198"/>
+      <c r="W45" s="198"/>
+      <c r="X45" s="198"/>
+      <c r="Y45" s="198"/>
+      <c r="Z45" s="198"/>
+      <c r="AA45" s="198"/>
+      <c r="AB45" s="198"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="198"/>
-      <c r="B46" s="197"/>
-      <c r="C46" s="197"/>
-      <c r="D46" s="197"/>
-      <c r="E46" s="226"/>
-      <c r="F46" s="197"/>
-      <c r="G46" s="197"/>
-      <c r="H46" s="225"/>
-      <c r="I46" s="197"/>
-      <c r="J46" s="197"/>
-      <c r="K46" s="197"/>
-      <c r="L46" s="197"/>
-      <c r="M46" s="197"/>
-      <c r="N46" s="197"/>
-      <c r="O46" s="197"/>
-      <c r="P46" s="197"/>
-      <c r="Q46" s="197"/>
-      <c r="R46" s="197"/>
-      <c r="S46" s="197"/>
-      <c r="T46" s="197"/>
-      <c r="U46" s="197"/>
-      <c r="V46" s="197"/>
-      <c r="W46" s="197"/>
-      <c r="X46" s="197"/>
-      <c r="Y46" s="197"/>
-      <c r="Z46" s="197"/>
-      <c r="AA46" s="197"/>
-      <c r="AB46" s="197"/>
+      <c r="A46" s="199"/>
+      <c r="B46" s="198"/>
+      <c r="C46" s="198"/>
+      <c r="D46" s="198"/>
+      <c r="E46" s="227"/>
+      <c r="F46" s="198"/>
+      <c r="G46" s="198"/>
+      <c r="H46" s="226"/>
+      <c r="I46" s="198"/>
+      <c r="J46" s="198"/>
+      <c r="K46" s="198"/>
+      <c r="L46" s="198"/>
+      <c r="M46" s="198"/>
+      <c r="N46" s="198"/>
+      <c r="O46" s="198"/>
+      <c r="P46" s="198"/>
+      <c r="Q46" s="198"/>
+      <c r="R46" s="198"/>
+      <c r="S46" s="198"/>
+      <c r="T46" s="198"/>
+      <c r="U46" s="198"/>
+      <c r="V46" s="198"/>
+      <c r="W46" s="198"/>
+      <c r="X46" s="198"/>
+      <c r="Y46" s="198"/>
+      <c r="Z46" s="198"/>
+      <c r="AA46" s="198"/>
+      <c r="AB46" s="198"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="198"/>
-      <c r="B47" s="197"/>
-      <c r="C47" s="197"/>
-      <c r="D47" s="197"/>
-      <c r="E47" s="226"/>
-      <c r="F47" s="197"/>
-      <c r="G47" s="197"/>
-      <c r="H47" s="225"/>
-      <c r="I47" s="197"/>
-      <c r="J47" s="197"/>
-      <c r="K47" s="197"/>
-      <c r="L47" s="197"/>
-      <c r="M47" s="197"/>
-      <c r="N47" s="197"/>
-      <c r="O47" s="197"/>
-      <c r="P47" s="197"/>
-      <c r="Q47" s="197"/>
-      <c r="R47" s="197"/>
-      <c r="S47" s="197"/>
-      <c r="T47" s="197"/>
-      <c r="U47" s="197"/>
-      <c r="V47" s="197"/>
-      <c r="W47" s="197"/>
-      <c r="X47" s="197"/>
-      <c r="Y47" s="197"/>
-      <c r="Z47" s="197"/>
-      <c r="AA47" s="197"/>
-      <c r="AB47" s="197"/>
+      <c r="A47" s="199"/>
+      <c r="B47" s="198"/>
+      <c r="C47" s="198"/>
+      <c r="D47" s="198"/>
+      <c r="E47" s="227"/>
+      <c r="F47" s="198"/>
+      <c r="G47" s="198"/>
+      <c r="H47" s="226"/>
+      <c r="I47" s="198"/>
+      <c r="J47" s="198"/>
+      <c r="K47" s="198"/>
+      <c r="L47" s="198"/>
+      <c r="M47" s="198"/>
+      <c r="N47" s="198"/>
+      <c r="O47" s="198"/>
+      <c r="P47" s="198"/>
+      <c r="Q47" s="198"/>
+      <c r="R47" s="198"/>
+      <c r="S47" s="198"/>
+      <c r="T47" s="198"/>
+      <c r="U47" s="198"/>
+      <c r="V47" s="198"/>
+      <c r="W47" s="198"/>
+      <c r="X47" s="198"/>
+      <c r="Y47" s="198"/>
+      <c r="Z47" s="198"/>
+      <c r="AA47" s="198"/>
+      <c r="AB47" s="198"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="198"/>
-      <c r="B48" s="197"/>
-      <c r="C48" s="197"/>
-      <c r="D48" s="197"/>
-      <c r="E48" s="226"/>
-      <c r="F48" s="197"/>
-      <c r="G48" s="197"/>
-      <c r="H48" s="225"/>
-      <c r="I48" s="197"/>
-      <c r="J48" s="197"/>
-      <c r="K48" s="197"/>
-      <c r="L48" s="197"/>
-      <c r="M48" s="197"/>
-      <c r="N48" s="197"/>
-      <c r="O48" s="197"/>
-      <c r="P48" s="197"/>
-      <c r="Q48" s="197"/>
-      <c r="R48" s="197"/>
-      <c r="S48" s="197"/>
-      <c r="T48" s="197"/>
-      <c r="U48" s="197"/>
-      <c r="V48" s="197"/>
-      <c r="W48" s="197"/>
-      <c r="X48" s="197"/>
-      <c r="Y48" s="197"/>
-      <c r="Z48" s="197"/>
-      <c r="AA48" s="197"/>
-      <c r="AB48" s="197"/>
+      <c r="A48" s="199"/>
+      <c r="B48" s="198"/>
+      <c r="C48" s="198"/>
+      <c r="D48" s="198"/>
+      <c r="E48" s="227"/>
+      <c r="F48" s="198"/>
+      <c r="G48" s="198"/>
+      <c r="H48" s="226"/>
+      <c r="I48" s="198"/>
+      <c r="J48" s="198"/>
+      <c r="K48" s="198"/>
+      <c r="L48" s="198"/>
+      <c r="M48" s="198"/>
+      <c r="N48" s="198"/>
+      <c r="O48" s="198"/>
+      <c r="P48" s="198"/>
+      <c r="Q48" s="198"/>
+      <c r="R48" s="198"/>
+      <c r="S48" s="198"/>
+      <c r="T48" s="198"/>
+      <c r="U48" s="198"/>
+      <c r="V48" s="198"/>
+      <c r="W48" s="198"/>
+      <c r="X48" s="198"/>
+      <c r="Y48" s="198"/>
+      <c r="Z48" s="198"/>
+      <c r="AA48" s="198"/>
+      <c r="AB48" s="198"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="198"/>
-      <c r="B49" s="197"/>
-      <c r="C49" s="197"/>
-      <c r="D49" s="197"/>
-      <c r="E49" s="226"/>
-      <c r="F49" s="197"/>
-      <c r="G49" s="197"/>
-      <c r="H49" s="225"/>
-      <c r="I49" s="197"/>
-      <c r="J49" s="197"/>
-      <c r="K49" s="197"/>
-      <c r="L49" s="197"/>
-      <c r="M49" s="197"/>
-      <c r="N49" s="197"/>
-      <c r="O49" s="197"/>
-      <c r="P49" s="197"/>
-      <c r="Q49" s="197"/>
-      <c r="R49" s="197"/>
-      <c r="S49" s="197"/>
-      <c r="T49" s="197"/>
-      <c r="U49" s="197"/>
-      <c r="V49" s="197"/>
-      <c r="W49" s="197"/>
-      <c r="X49" s="197"/>
-      <c r="Y49" s="197"/>
-      <c r="Z49" s="197"/>
-      <c r="AA49" s="197"/>
-      <c r="AB49" s="197"/>
+      <c r="A49" s="199"/>
+      <c r="B49" s="198"/>
+      <c r="C49" s="198"/>
+      <c r="D49" s="198"/>
+      <c r="E49" s="227"/>
+      <c r="F49" s="198"/>
+      <c r="G49" s="198"/>
+      <c r="H49" s="226"/>
+      <c r="I49" s="198"/>
+      <c r="J49" s="198"/>
+      <c r="K49" s="198"/>
+      <c r="L49" s="198"/>
+      <c r="M49" s="198"/>
+      <c r="N49" s="198"/>
+      <c r="O49" s="198"/>
+      <c r="P49" s="198"/>
+      <c r="Q49" s="198"/>
+      <c r="R49" s="198"/>
+      <c r="S49" s="198"/>
+      <c r="T49" s="198"/>
+      <c r="U49" s="198"/>
+      <c r="V49" s="198"/>
+      <c r="W49" s="198"/>
+      <c r="X49" s="198"/>
+      <c r="Y49" s="198"/>
+      <c r="Z49" s="198"/>
+      <c r="AA49" s="198"/>
+      <c r="AB49" s="198"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="198"/>
-      <c r="B50" s="197"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="197"/>
-      <c r="E50" s="226"/>
-      <c r="F50" s="197"/>
-      <c r="G50" s="197"/>
-      <c r="H50" s="225"/>
-      <c r="I50" s="197"/>
-      <c r="J50" s="197"/>
-      <c r="K50" s="197"/>
-      <c r="L50" s="197"/>
-      <c r="M50" s="197"/>
-      <c r="N50" s="197"/>
-      <c r="O50" s="197"/>
-      <c r="P50" s="197"/>
-      <c r="Q50" s="197"/>
-      <c r="R50" s="197"/>
-      <c r="S50" s="197"/>
-      <c r="T50" s="197"/>
-      <c r="U50" s="197"/>
-      <c r="V50" s="197"/>
-      <c r="W50" s="197"/>
-      <c r="X50" s="197"/>
-      <c r="Y50" s="197"/>
-      <c r="Z50" s="197"/>
-      <c r="AA50" s="197"/>
-      <c r="AB50" s="197"/>
+      <c r="A50" s="199"/>
+      <c r="B50" s="198"/>
+      <c r="C50" s="198"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="227"/>
+      <c r="F50" s="198"/>
+      <c r="G50" s="198"/>
+      <c r="H50" s="226"/>
+      <c r="I50" s="198"/>
+      <c r="J50" s="198"/>
+      <c r="K50" s="198"/>
+      <c r="L50" s="198"/>
+      <c r="M50" s="198"/>
+      <c r="N50" s="198"/>
+      <c r="O50" s="198"/>
+      <c r="P50" s="198"/>
+      <c r="Q50" s="198"/>
+      <c r="R50" s="198"/>
+      <c r="S50" s="198"/>
+      <c r="T50" s="198"/>
+      <c r="U50" s="198"/>
+      <c r="V50" s="198"/>
+      <c r="W50" s="198"/>
+      <c r="X50" s="198"/>
+      <c r="Y50" s="198"/>
+      <c r="Z50" s="198"/>
+      <c r="AA50" s="198"/>
+      <c r="AB50" s="198"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="198"/>
-      <c r="B51" s="197"/>
-      <c r="C51" s="197"/>
-      <c r="D51" s="197"/>
-      <c r="E51" s="226"/>
-      <c r="F51" s="197"/>
-      <c r="G51" s="197"/>
-      <c r="H51" s="225"/>
-      <c r="I51" s="197"/>
-      <c r="J51" s="197"/>
-      <c r="K51" s="197"/>
-      <c r="L51" s="197"/>
-      <c r="M51" s="197"/>
-      <c r="N51" s="197"/>
-      <c r="O51" s="197"/>
-      <c r="P51" s="197"/>
-      <c r="Q51" s="197"/>
-      <c r="R51" s="197"/>
-      <c r="S51" s="197"/>
-      <c r="T51" s="197"/>
-      <c r="U51" s="197"/>
-      <c r="V51" s="197"/>
-      <c r="W51" s="197"/>
-      <c r="X51" s="197"/>
-      <c r="Y51" s="197"/>
-      <c r="Z51" s="197"/>
-      <c r="AA51" s="197"/>
-      <c r="AB51" s="197"/>
+      <c r="A51" s="199"/>
+      <c r="B51" s="198"/>
+      <c r="C51" s="198"/>
+      <c r="D51" s="198"/>
+      <c r="E51" s="227"/>
+      <c r="F51" s="198"/>
+      <c r="G51" s="198"/>
+      <c r="H51" s="226"/>
+      <c r="I51" s="198"/>
+      <c r="J51" s="198"/>
+      <c r="K51" s="198"/>
+      <c r="L51" s="198"/>
+      <c r="M51" s="198"/>
+      <c r="N51" s="198"/>
+      <c r="O51" s="198"/>
+      <c r="P51" s="198"/>
+      <c r="Q51" s="198"/>
+      <c r="R51" s="198"/>
+      <c r="S51" s="198"/>
+      <c r="T51" s="198"/>
+      <c r="U51" s="198"/>
+      <c r="V51" s="198"/>
+      <c r="W51" s="198"/>
+      <c r="X51" s="198"/>
+      <c r="Y51" s="198"/>
+      <c r="Z51" s="198"/>
+      <c r="AA51" s="198"/>
+      <c r="AB51" s="198"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="198"/>
-      <c r="B52" s="197"/>
-      <c r="C52" s="197"/>
-      <c r="D52" s="197"/>
-      <c r="E52" s="226"/>
-      <c r="F52" s="197"/>
-      <c r="G52" s="197"/>
-      <c r="H52" s="225"/>
-      <c r="I52" s="197"/>
-      <c r="J52" s="197"/>
-      <c r="K52" s="197"/>
-      <c r="L52" s="197"/>
-      <c r="M52" s="197"/>
-      <c r="N52" s="197"/>
-      <c r="O52" s="197"/>
-      <c r="P52" s="197"/>
-      <c r="Q52" s="197"/>
-      <c r="R52" s="197"/>
-      <c r="S52" s="197"/>
-      <c r="T52" s="197"/>
-      <c r="U52" s="197"/>
-      <c r="V52" s="197"/>
-      <c r="W52" s="197"/>
-      <c r="X52" s="197"/>
-      <c r="Y52" s="197"/>
-      <c r="Z52" s="197"/>
-      <c r="AA52" s="197"/>
-      <c r="AB52" s="197"/>
+      <c r="A52" s="199"/>
+      <c r="B52" s="198"/>
+      <c r="C52" s="198"/>
+      <c r="D52" s="198"/>
+      <c r="E52" s="227"/>
+      <c r="F52" s="198"/>
+      <c r="G52" s="198"/>
+      <c r="H52" s="226"/>
+      <c r="I52" s="198"/>
+      <c r="J52" s="198"/>
+      <c r="K52" s="198"/>
+      <c r="L52" s="198"/>
+      <c r="M52" s="198"/>
+      <c r="N52" s="198"/>
+      <c r="O52" s="198"/>
+      <c r="P52" s="198"/>
+      <c r="Q52" s="198"/>
+      <c r="R52" s="198"/>
+      <c r="S52" s="198"/>
+      <c r="T52" s="198"/>
+      <c r="U52" s="198"/>
+      <c r="V52" s="198"/>
+      <c r="W52" s="198"/>
+      <c r="X52" s="198"/>
+      <c r="Y52" s="198"/>
+      <c r="Z52" s="198"/>
+      <c r="AA52" s="198"/>
+      <c r="AB52" s="198"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="198"/>
-      <c r="B53" s="197"/>
-      <c r="C53" s="197"/>
-      <c r="D53" s="197"/>
-      <c r="E53" s="226"/>
-      <c r="F53" s="197"/>
-      <c r="G53" s="197"/>
-      <c r="H53" s="225"/>
-      <c r="I53" s="197"/>
-      <c r="J53" s="197"/>
-      <c r="K53" s="197"/>
-      <c r="L53" s="197"/>
-      <c r="M53" s="197"/>
-      <c r="N53" s="197"/>
-      <c r="O53" s="197"/>
-      <c r="P53" s="197"/>
-      <c r="Q53" s="197"/>
-      <c r="R53" s="197"/>
-      <c r="S53" s="197"/>
-      <c r="T53" s="197"/>
-      <c r="U53" s="197"/>
-      <c r="V53" s="197"/>
-      <c r="W53" s="197"/>
-      <c r="X53" s="197"/>
-      <c r="Y53" s="197"/>
-      <c r="Z53" s="197"/>
-      <c r="AA53" s="197"/>
-      <c r="AB53" s="197"/>
+      <c r="A53" s="199"/>
+      <c r="B53" s="198"/>
+      <c r="C53" s="198"/>
+      <c r="D53" s="198"/>
+      <c r="E53" s="227"/>
+      <c r="F53" s="198"/>
+      <c r="G53" s="198"/>
+      <c r="H53" s="226"/>
+      <c r="I53" s="198"/>
+      <c r="J53" s="198"/>
+      <c r="K53" s="198"/>
+      <c r="L53" s="198"/>
+      <c r="M53" s="198"/>
+      <c r="N53" s="198"/>
+      <c r="O53" s="198"/>
+      <c r="P53" s="198"/>
+      <c r="Q53" s="198"/>
+      <c r="R53" s="198"/>
+      <c r="S53" s="198"/>
+      <c r="T53" s="198"/>
+      <c r="U53" s="198"/>
+      <c r="V53" s="198"/>
+      <c r="W53" s="198"/>
+      <c r="X53" s="198"/>
+      <c r="Y53" s="198"/>
+      <c r="Z53" s="198"/>
+      <c r="AA53" s="198"/>
+      <c r="AB53" s="198"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="198"/>
-      <c r="B54" s="197"/>
-      <c r="C54" s="197"/>
-      <c r="D54" s="197"/>
-      <c r="E54" s="226"/>
-      <c r="F54" s="197"/>
-      <c r="G54" s="197"/>
-      <c r="H54" s="225"/>
-      <c r="I54" s="197"/>
-      <c r="J54" s="197"/>
-      <c r="K54" s="197"/>
-      <c r="L54" s="197"/>
-      <c r="M54" s="197"/>
-      <c r="N54" s="197"/>
-      <c r="O54" s="197"/>
-      <c r="P54" s="197"/>
-      <c r="Q54" s="197"/>
-      <c r="R54" s="197"/>
-      <c r="S54" s="197"/>
-      <c r="T54" s="197"/>
-      <c r="U54" s="197"/>
-      <c r="V54" s="197"/>
-      <c r="W54" s="197"/>
-      <c r="X54" s="197"/>
-      <c r="Y54" s="197"/>
-      <c r="Z54" s="197"/>
-      <c r="AA54" s="197"/>
-      <c r="AB54" s="197"/>
+      <c r="A54" s="199"/>
+      <c r="B54" s="198"/>
+      <c r="C54" s="198"/>
+      <c r="D54" s="198"/>
+      <c r="E54" s="227"/>
+      <c r="F54" s="198"/>
+      <c r="G54" s="198"/>
+      <c r="H54" s="226"/>
+      <c r="I54" s="198"/>
+      <c r="J54" s="198"/>
+      <c r="K54" s="198"/>
+      <c r="L54" s="198"/>
+      <c r="M54" s="198"/>
+      <c r="N54" s="198"/>
+      <c r="O54" s="198"/>
+      <c r="P54" s="198"/>
+      <c r="Q54" s="198"/>
+      <c r="R54" s="198"/>
+      <c r="S54" s="198"/>
+      <c r="T54" s="198"/>
+      <c r="U54" s="198"/>
+      <c r="V54" s="198"/>
+      <c r="W54" s="198"/>
+      <c r="X54" s="198"/>
+      <c r="Y54" s="198"/>
+      <c r="Z54" s="198"/>
+      <c r="AA54" s="198"/>
+      <c r="AB54" s="198"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="198"/>
-      <c r="B55" s="197"/>
-      <c r="C55" s="197"/>
-      <c r="D55" s="197"/>
-      <c r="E55" s="226"/>
-      <c r="F55" s="197"/>
-      <c r="G55" s="197"/>
-      <c r="H55" s="225"/>
-      <c r="I55" s="197"/>
-      <c r="J55" s="197"/>
-      <c r="K55" s="197"/>
-      <c r="L55" s="197"/>
-      <c r="M55" s="197"/>
-      <c r="N55" s="197"/>
-      <c r="O55" s="197"/>
-      <c r="P55" s="197"/>
-      <c r="Q55" s="197"/>
-      <c r="R55" s="197"/>
-      <c r="S55" s="197"/>
-      <c r="T55" s="197"/>
-      <c r="U55" s="197"/>
-      <c r="V55" s="197"/>
-      <c r="W55" s="197"/>
-      <c r="X55" s="197"/>
-      <c r="Y55" s="197"/>
-      <c r="Z55" s="197"/>
-      <c r="AA55" s="197"/>
-      <c r="AB55" s="197"/>
+      <c r="A55" s="199"/>
+      <c r="B55" s="198"/>
+      <c r="C55" s="198"/>
+      <c r="D55" s="198"/>
+      <c r="E55" s="227"/>
+      <c r="F55" s="198"/>
+      <c r="G55" s="198"/>
+      <c r="H55" s="226"/>
+      <c r="I55" s="198"/>
+      <c r="J55" s="198"/>
+      <c r="K55" s="198"/>
+      <c r="L55" s="198"/>
+      <c r="M55" s="198"/>
+      <c r="N55" s="198"/>
+      <c r="O55" s="198"/>
+      <c r="P55" s="198"/>
+      <c r="Q55" s="198"/>
+      <c r="R55" s="198"/>
+      <c r="S55" s="198"/>
+      <c r="T55" s="198"/>
+      <c r="U55" s="198"/>
+      <c r="V55" s="198"/>
+      <c r="W55" s="198"/>
+      <c r="X55" s="198"/>
+      <c r="Y55" s="198"/>
+      <c r="Z55" s="198"/>
+      <c r="AA55" s="198"/>
+      <c r="AB55" s="198"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="198"/>
-      <c r="B56" s="197"/>
-      <c r="C56" s="197"/>
-      <c r="D56" s="197"/>
-      <c r="E56" s="226"/>
-      <c r="F56" s="197"/>
-      <c r="G56" s="197"/>
-      <c r="H56" s="225"/>
-      <c r="I56" s="197"/>
-      <c r="J56" s="197"/>
-      <c r="K56" s="197"/>
-      <c r="L56" s="197"/>
-      <c r="M56" s="197"/>
-      <c r="N56" s="197"/>
-      <c r="O56" s="197"/>
-      <c r="P56" s="197"/>
-      <c r="Q56" s="197"/>
-      <c r="R56" s="197"/>
-      <c r="S56" s="197"/>
-      <c r="T56" s="197"/>
-      <c r="U56" s="197"/>
-      <c r="V56" s="197"/>
-      <c r="W56" s="197"/>
-      <c r="X56" s="197"/>
-      <c r="Y56" s="197"/>
-      <c r="Z56" s="197"/>
-      <c r="AA56" s="197"/>
-      <c r="AB56" s="197"/>
+      <c r="A56" s="199"/>
+      <c r="B56" s="198"/>
+      <c r="C56" s="198"/>
+      <c r="D56" s="198"/>
+      <c r="E56" s="227"/>
+      <c r="F56" s="198"/>
+      <c r="G56" s="198"/>
+      <c r="H56" s="226"/>
+      <c r="I56" s="198"/>
+      <c r="J56" s="198"/>
+      <c r="K56" s="198"/>
+      <c r="L56" s="198"/>
+      <c r="M56" s="198"/>
+      <c r="N56" s="198"/>
+      <c r="O56" s="198"/>
+      <c r="P56" s="198"/>
+      <c r="Q56" s="198"/>
+      <c r="R56" s="198"/>
+      <c r="S56" s="198"/>
+      <c r="T56" s="198"/>
+      <c r="U56" s="198"/>
+      <c r="V56" s="198"/>
+      <c r="W56" s="198"/>
+      <c r="X56" s="198"/>
+      <c r="Y56" s="198"/>
+      <c r="Z56" s="198"/>
+      <c r="AA56" s="198"/>
+      <c r="AB56" s="198"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="5"/>
-      <c r="B57" s="227"/>
-      <c r="C57" s="227"/>
+      <c r="B57" s="228"/>
+      <c r="C57" s="228"/>
       <c r="E57" s="46"/>
-      <c r="H57" s="228"/>
+      <c r="H57" s="229"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="5"/>
-      <c r="B58" s="227"/>
-      <c r="C58" s="227"/>
+      <c r="B58" s="228"/>
+      <c r="C58" s="228"/>
       <c r="E58" s="46"/>
-      <c r="H58" s="228"/>
+      <c r="H58" s="229"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="5"/>
-      <c r="B59" s="227"/>
-      <c r="C59" s="227"/>
+      <c r="B59" s="228"/>
+      <c r="C59" s="228"/>
       <c r="E59" s="46"/>
-      <c r="H59" s="228"/>
+      <c r="H59" s="229"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="5"/>
-      <c r="B60" s="227"/>
-      <c r="C60" s="227"/>
+      <c r="B60" s="228"/>
+      <c r="C60" s="228"/>
       <c r="E60" s="46"/>
-      <c r="H60" s="228"/>
+      <c r="H60" s="229"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="5"/>
-      <c r="B61" s="227"/>
-      <c r="C61" s="227"/>
+      <c r="B61" s="228"/>
+      <c r="C61" s="228"/>
       <c r="E61" s="46"/>
-      <c r="H61" s="228"/>
+      <c r="H61" s="229"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="5"/>
-      <c r="B62" s="227"/>
-      <c r="C62" s="227"/>
+      <c r="B62" s="228"/>
+      <c r="C62" s="228"/>
       <c r="E62" s="46"/>
-      <c r="H62" s="228"/>
+      <c r="H62" s="229"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="5"/>
-      <c r="B63" s="227"/>
-      <c r="C63" s="227"/>
+      <c r="B63" s="228"/>
+      <c r="C63" s="228"/>
       <c r="E63" s="46"/>
-      <c r="H63" s="228"/>
+      <c r="H63" s="229"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="5"/>
-      <c r="B64" s="227"/>
-      <c r="C64" s="227"/>
+      <c r="B64" s="228"/>
+      <c r="C64" s="228"/>
       <c r="E64" s="46"/>
-      <c r="H64" s="228"/>
+      <c r="H64" s="229"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="5"/>
-      <c r="B65" s="227"/>
-      <c r="C65" s="227"/>
+      <c r="B65" s="228"/>
+      <c r="C65" s="228"/>
       <c r="E65" s="46"/>
-      <c r="H65" s="228"/>
+      <c r="H65" s="229"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="5"/>
-      <c r="B66" s="227"/>
-      <c r="C66" s="227"/>
+      <c r="B66" s="228"/>
+      <c r="C66" s="228"/>
       <c r="E66" s="59"/>
-      <c r="H66" s="228"/>
+      <c r="H66" s="229"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="229"/>
+      <c r="C67" s="230"/>
       <c r="D67" s="46"/>
-      <c r="H67" s="228"/>
+      <c r="H67" s="229"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
-      <c r="C68" s="229"/>
+      <c r="C68" s="230"/>
       <c r="D68" s="46"/>
       <c r="H68" s="13"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="229"/>
+      <c r="C69" s="230"/>
       <c r="D69" s="46"/>
       <c r="H69" s="13"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
-      <c r="C70" s="229"/>
+      <c r="C70" s="230"/>
       <c r="D70" s="46"/>
       <c r="H70" s="13"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="229"/>
+      <c r="C71" s="230"/>
       <c r="D71" s="46"/>
       <c r="H71" s="13"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="229"/>
+      <c r="C72" s="230"/>
       <c r="D72" s="46"/>
       <c r="H72" s="13"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="229"/>
+      <c r="C73" s="230"/>
       <c r="D73" s="46"/>
       <c r="H73" s="13"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="229"/>
+      <c r="C74" s="230"/>
       <c r="D74" s="46"/>
       <c r="H74" s="13"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
-      <c r="C75" s="229"/>
+      <c r="C75" s="230"/>
       <c r="D75" s="46"/>
       <c r="G75" s="5"/>
       <c r="H75" s="13"/>
@@ -27138,1176 +27144,1176 @@
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
-      <c r="C76" s="229"/>
+      <c r="C76" s="230"/>
       <c r="D76" s="46"/>
       <c r="H76" s="13"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
-      <c r="C77" s="229"/>
+      <c r="C77" s="230"/>
       <c r="D77" s="46"/>
       <c r="H77" s="13"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
-      <c r="C78" s="229"/>
+      <c r="C78" s="230"/>
       <c r="D78" s="46"/>
       <c r="H78" s="13"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="229"/>
+      <c r="C79" s="230"/>
       <c r="D79" s="46"/>
       <c r="H79" s="13"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
-      <c r="C80" s="229"/>
+      <c r="C80" s="230"/>
       <c r="D80" s="46"/>
       <c r="H80" s="13"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
-      <c r="C81" s="229"/>
+      <c r="C81" s="230"/>
       <c r="D81" s="46"/>
       <c r="H81" s="13"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
-      <c r="C82" s="229"/>
+      <c r="C82" s="230"/>
       <c r="D82" s="46"/>
       <c r="H82" s="13"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
-      <c r="C83" s="229"/>
+      <c r="C83" s="230"/>
       <c r="D83" s="46"/>
       <c r="H83" s="13"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
-      <c r="C84" s="229"/>
+      <c r="C84" s="230"/>
       <c r="D84" s="46"/>
       <c r="H84" s="13"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
-      <c r="C85" s="229"/>
+      <c r="C85" s="230"/>
       <c r="D85" s="46"/>
       <c r="H85" s="13"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
-      <c r="C86" s="229"/>
+      <c r="C86" s="230"/>
       <c r="D86" s="46"/>
       <c r="H86" s="13"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
-      <c r="C87" s="229"/>
+      <c r="C87" s="230"/>
       <c r="D87" s="46"/>
       <c r="H87" s="13"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
-      <c r="C88" s="229"/>
+      <c r="C88" s="230"/>
       <c r="D88" s="46"/>
       <c r="H88" s="13"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
-      <c r="C89" s="229"/>
+      <c r="C89" s="230"/>
       <c r="D89" s="46"/>
       <c r="H89" s="13"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
-      <c r="C90" s="229"/>
+      <c r="C90" s="230"/>
       <c r="D90" s="46"/>
       <c r="H90" s="13"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
-      <c r="C91" s="229"/>
+      <c r="C91" s="230"/>
       <c r="D91" s="46"/>
       <c r="H91" s="13"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
-      <c r="C92" s="229"/>
+      <c r="C92" s="230"/>
       <c r="D92" s="46"/>
       <c r="H92" s="13"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
-      <c r="C93" s="229"/>
+      <c r="C93" s="230"/>
       <c r="D93" s="46"/>
       <c r="H93" s="13"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
-      <c r="C94" s="229"/>
+      <c r="C94" s="230"/>
       <c r="D94" s="46"/>
       <c r="H94" s="13"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
-      <c r="C95" s="229"/>
+      <c r="C95" s="230"/>
       <c r="D95" s="46"/>
       <c r="H95" s="13"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
-      <c r="C96" s="229"/>
+      <c r="C96" s="230"/>
       <c r="D96" s="46"/>
       <c r="H96" s="13"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
-      <c r="C97" s="229"/>
+      <c r="C97" s="230"/>
       <c r="D97" s="46"/>
       <c r="H97" s="13"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
-      <c r="C98" s="229"/>
+      <c r="C98" s="230"/>
       <c r="D98" s="46"/>
       <c r="H98" s="13"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
-      <c r="C99" s="229"/>
+      <c r="C99" s="230"/>
       <c r="D99" s="46"/>
       <c r="H99" s="13"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
-      <c r="C100" s="229"/>
+      <c r="C100" s="230"/>
       <c r="D100" s="46"/>
       <c r="H100" s="13"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
-      <c r="C101" s="229"/>
+      <c r="C101" s="230"/>
       <c r="D101" s="46"/>
       <c r="H101" s="13"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
-      <c r="C102" s="229"/>
+      <c r="C102" s="230"/>
       <c r="D102" s="46"/>
       <c r="H102" s="13"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
-      <c r="C103" s="229"/>
+      <c r="C103" s="230"/>
       <c r="D103" s="46"/>
       <c r="H103" s="13"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
-      <c r="C104" s="229"/>
+      <c r="C104" s="230"/>
       <c r="D104" s="46"/>
       <c r="H104" s="13"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
-      <c r="C105" s="229"/>
+      <c r="C105" s="230"/>
       <c r="D105" s="46"/>
       <c r="H105" s="13"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
-      <c r="C106" s="229"/>
+      <c r="C106" s="230"/>
       <c r="D106" s="46"/>
       <c r="H106" s="13"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
-      <c r="C107" s="229"/>
+      <c r="C107" s="230"/>
       <c r="D107" s="46"/>
       <c r="H107" s="13"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
-      <c r="C108" s="229"/>
+      <c r="C108" s="230"/>
       <c r="D108" s="46"/>
       <c r="H108" s="13"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
-      <c r="C109" s="229"/>
+      <c r="C109" s="230"/>
       <c r="D109" s="46"/>
       <c r="H109" s="13"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
-      <c r="C110" s="229"/>
+      <c r="C110" s="230"/>
       <c r="D110" s="46"/>
       <c r="H110" s="13"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
-      <c r="C111" s="229"/>
+      <c r="C111" s="230"/>
       <c r="D111" s="46"/>
       <c r="H111" s="13"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
-      <c r="C112" s="229"/>
+      <c r="C112" s="230"/>
       <c r="D112" s="46"/>
       <c r="H112" s="13"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
-      <c r="C113" s="229"/>
+      <c r="C113" s="230"/>
       <c r="D113" s="46"/>
       <c r="H113" s="13"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
-      <c r="C114" s="229"/>
+      <c r="C114" s="230"/>
       <c r="D114" s="46"/>
       <c r="H114" s="13"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
-      <c r="C115" s="229"/>
+      <c r="C115" s="230"/>
       <c r="D115" s="46"/>
       <c r="H115" s="13"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
-      <c r="C116" s="229"/>
+      <c r="C116" s="230"/>
       <c r="D116" s="46"/>
       <c r="H116" s="13"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
-      <c r="C117" s="229"/>
+      <c r="C117" s="230"/>
       <c r="D117" s="46"/>
       <c r="H117" s="13"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
-      <c r="C118" s="229"/>
+      <c r="C118" s="230"/>
       <c r="D118" s="46"/>
       <c r="H118" s="13"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
-      <c r="C119" s="229"/>
+      <c r="C119" s="230"/>
       <c r="D119" s="46"/>
       <c r="H119" s="13"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
-      <c r="C120" s="229"/>
+      <c r="C120" s="230"/>
       <c r="D120" s="46"/>
       <c r="H120" s="13"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
-      <c r="C121" s="229"/>
+      <c r="C121" s="230"/>
       <c r="D121" s="46"/>
       <c r="H121" s="13"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
-      <c r="C122" s="229"/>
+      <c r="C122" s="230"/>
       <c r="D122" s="46"/>
       <c r="H122" s="13"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
-      <c r="C123" s="229"/>
+      <c r="C123" s="230"/>
       <c r="D123" s="46"/>
       <c r="H123" s="13"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
-      <c r="C124" s="229"/>
+      <c r="C124" s="230"/>
       <c r="D124" s="46"/>
       <c r="H124" s="13"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
-      <c r="C125" s="229"/>
+      <c r="C125" s="230"/>
       <c r="D125" s="46"/>
       <c r="H125" s="13"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
-      <c r="C126" s="229"/>
+      <c r="C126" s="230"/>
       <c r="D126" s="46"/>
       <c r="H126" s="13"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
-      <c r="C127" s="229"/>
+      <c r="C127" s="230"/>
       <c r="D127" s="46"/>
       <c r="H127" s="13"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
-      <c r="C128" s="229"/>
+      <c r="C128" s="230"/>
       <c r="D128" s="46"/>
       <c r="H128" s="13"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
-      <c r="C129" s="229"/>
+      <c r="C129" s="230"/>
       <c r="D129" s="46"/>
       <c r="H129" s="13"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
-      <c r="C130" s="229"/>
+      <c r="C130" s="230"/>
       <c r="D130" s="46"/>
       <c r="H130" s="13"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
-      <c r="C131" s="229"/>
+      <c r="C131" s="230"/>
       <c r="D131" s="46"/>
       <c r="H131" s="13"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
-      <c r="C132" s="229"/>
+      <c r="C132" s="230"/>
       <c r="D132" s="46"/>
       <c r="H132" s="13"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
-      <c r="C133" s="229"/>
+      <c r="C133" s="230"/>
       <c r="D133" s="46"/>
       <c r="H133" s="13"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
-      <c r="C134" s="229"/>
+      <c r="C134" s="230"/>
       <c r="D134" s="46"/>
       <c r="H134" s="13"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
-      <c r="C135" s="229"/>
+      <c r="C135" s="230"/>
       <c r="D135" s="46"/>
       <c r="H135" s="13"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
-      <c r="C136" s="229"/>
+      <c r="C136" s="230"/>
       <c r="D136" s="46"/>
       <c r="H136" s="13"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
-      <c r="C137" s="229"/>
+      <c r="C137" s="230"/>
       <c r="D137" s="46"/>
       <c r="H137" s="13"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
-      <c r="C138" s="229"/>
+      <c r="C138" s="230"/>
       <c r="D138" s="46"/>
       <c r="H138" s="13"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
-      <c r="C139" s="229"/>
+      <c r="C139" s="230"/>
       <c r="D139" s="46"/>
       <c r="H139" s="13"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
-      <c r="C140" s="229"/>
+      <c r="C140" s="230"/>
       <c r="D140" s="46"/>
       <c r="H140" s="13"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
-      <c r="C141" s="229"/>
+      <c r="C141" s="230"/>
       <c r="D141" s="46"/>
       <c r="H141" s="13"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
-      <c r="C142" s="229"/>
+      <c r="C142" s="230"/>
       <c r="D142" s="46"/>
       <c r="H142" s="13"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
-      <c r="C143" s="229"/>
+      <c r="C143" s="230"/>
       <c r="D143" s="46"/>
       <c r="H143" s="13"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
-      <c r="C144" s="229"/>
+      <c r="C144" s="230"/>
       <c r="D144" s="46"/>
       <c r="H144" s="13"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
-      <c r="C145" s="229"/>
+      <c r="C145" s="230"/>
       <c r="D145" s="46"/>
       <c r="H145" s="13"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
-      <c r="C146" s="229"/>
+      <c r="C146" s="230"/>
       <c r="D146" s="46"/>
       <c r="H146" s="13"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
-      <c r="C147" s="229"/>
+      <c r="C147" s="230"/>
       <c r="D147" s="46"/>
       <c r="H147" s="13"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
-      <c r="C148" s="229"/>
+      <c r="C148" s="230"/>
       <c r="D148" s="46"/>
       <c r="H148" s="13"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
-      <c r="C149" s="229"/>
+      <c r="C149" s="230"/>
       <c r="D149" s="46"/>
       <c r="H149" s="13"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
-      <c r="C150" s="229"/>
+      <c r="C150" s="230"/>
       <c r="D150" s="46"/>
       <c r="H150" s="13"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
-      <c r="C151" s="229"/>
+      <c r="C151" s="230"/>
       <c r="D151" s="46"/>
       <c r="H151" s="13"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
-      <c r="C152" s="229"/>
+      <c r="C152" s="230"/>
       <c r="D152" s="46"/>
       <c r="H152" s="13"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
-      <c r="C153" s="229"/>
+      <c r="C153" s="230"/>
       <c r="D153" s="46"/>
       <c r="H153" s="13"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
-      <c r="C154" s="229"/>
+      <c r="C154" s="230"/>
       <c r="D154" s="46"/>
       <c r="H154" s="13"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
-      <c r="C155" s="229"/>
+      <c r="C155" s="230"/>
       <c r="D155" s="46"/>
       <c r="H155" s="13"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
-      <c r="C156" s="229"/>
+      <c r="C156" s="230"/>
       <c r="D156" s="46"/>
       <c r="H156" s="13"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
-      <c r="C157" s="229"/>
+      <c r="C157" s="230"/>
       <c r="D157" s="46"/>
       <c r="H157" s="13"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
-      <c r="C158" s="229"/>
+      <c r="C158" s="230"/>
       <c r="D158" s="46"/>
       <c r="H158" s="13"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
-      <c r="C159" s="229"/>
+      <c r="C159" s="230"/>
       <c r="D159" s="46"/>
       <c r="H159" s="13"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
-      <c r="C160" s="229"/>
+      <c r="C160" s="230"/>
       <c r="D160" s="46"/>
       <c r="H160" s="13"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
-      <c r="C161" s="229"/>
+      <c r="C161" s="230"/>
       <c r="D161" s="46"/>
       <c r="H161" s="13"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
-      <c r="C162" s="229"/>
+      <c r="C162" s="230"/>
       <c r="D162" s="46"/>
       <c r="H162" s="13"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
-      <c r="C163" s="229"/>
+      <c r="C163" s="230"/>
       <c r="D163" s="46"/>
       <c r="H163" s="13"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
-      <c r="C164" s="229"/>
+      <c r="C164" s="230"/>
       <c r="D164" s="46"/>
       <c r="H164" s="13"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
-      <c r="C165" s="229"/>
+      <c r="C165" s="230"/>
       <c r="D165" s="46"/>
       <c r="H165" s="13"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
-      <c r="C166" s="229"/>
+      <c r="C166" s="230"/>
       <c r="D166" s="46"/>
       <c r="H166" s="13"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
-      <c r="C167" s="229"/>
+      <c r="C167" s="230"/>
       <c r="D167" s="46"/>
       <c r="H167" s="13"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
-      <c r="C168" s="229"/>
+      <c r="C168" s="230"/>
       <c r="D168" s="46"/>
       <c r="H168" s="13"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
-      <c r="C169" s="229"/>
+      <c r="C169" s="230"/>
       <c r="D169" s="46"/>
       <c r="H169" s="13"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
-      <c r="C170" s="229"/>
+      <c r="C170" s="230"/>
       <c r="D170" s="46"/>
       <c r="H170" s="13"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
-      <c r="C171" s="229"/>
+      <c r="C171" s="230"/>
       <c r="D171" s="46"/>
       <c r="H171" s="13"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
-      <c r="C172" s="229"/>
+      <c r="C172" s="230"/>
       <c r="D172" s="46"/>
       <c r="H172" s="13"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
-      <c r="C173" s="229"/>
+      <c r="C173" s="230"/>
       <c r="D173" s="46"/>
       <c r="H173" s="13"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
-      <c r="C174" s="229"/>
+      <c r="C174" s="230"/>
       <c r="D174" s="46"/>
       <c r="H174" s="13"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
-      <c r="C175" s="229"/>
+      <c r="C175" s="230"/>
       <c r="D175" s="46"/>
       <c r="H175" s="13"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
-      <c r="C176" s="229"/>
+      <c r="C176" s="230"/>
       <c r="D176" s="46"/>
       <c r="H176" s="13"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
-      <c r="C177" s="229"/>
+      <c r="C177" s="230"/>
       <c r="D177" s="46"/>
       <c r="H177" s="13"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
-      <c r="C178" s="229"/>
+      <c r="C178" s="230"/>
       <c r="D178" s="46"/>
       <c r="H178" s="13"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
-      <c r="C179" s="229"/>
+      <c r="C179" s="230"/>
       <c r="D179" s="46"/>
       <c r="H179" s="13"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
-      <c r="C180" s="229"/>
+      <c r="C180" s="230"/>
       <c r="D180" s="46"/>
       <c r="H180" s="13"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
-      <c r="C181" s="229"/>
+      <c r="C181" s="230"/>
       <c r="D181" s="46"/>
       <c r="H181" s="13"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
-      <c r="C182" s="229"/>
+      <c r="C182" s="230"/>
       <c r="D182" s="46"/>
       <c r="H182" s="13"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
-      <c r="C183" s="229"/>
+      <c r="C183" s="230"/>
       <c r="D183" s="46"/>
       <c r="H183" s="13"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
-      <c r="C184" s="229"/>
+      <c r="C184" s="230"/>
       <c r="D184" s="46"/>
       <c r="H184" s="13"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
-      <c r="C185" s="229"/>
+      <c r="C185" s="230"/>
       <c r="D185" s="46"/>
       <c r="H185" s="13"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
-      <c r="C186" s="229"/>
+      <c r="C186" s="230"/>
       <c r="D186" s="46"/>
       <c r="H186" s="13"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
-      <c r="C187" s="229"/>
+      <c r="C187" s="230"/>
       <c r="D187" s="46"/>
       <c r="H187" s="13"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
-      <c r="C188" s="229"/>
+      <c r="C188" s="230"/>
       <c r="D188" s="46"/>
       <c r="H188" s="13"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
-      <c r="C189" s="229"/>
+      <c r="C189" s="230"/>
       <c r="D189" s="46"/>
       <c r="H189" s="13"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
-      <c r="C190" s="229"/>
+      <c r="C190" s="230"/>
       <c r="D190" s="46"/>
       <c r="H190" s="13"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
-      <c r="C191" s="229"/>
+      <c r="C191" s="230"/>
       <c r="D191" s="46"/>
       <c r="H191" s="13"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
-      <c r="C192" s="229"/>
+      <c r="C192" s="230"/>
       <c r="D192" s="46"/>
       <c r="H192" s="13"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
-      <c r="C193" s="229"/>
+      <c r="C193" s="230"/>
       <c r="D193" s="46"/>
       <c r="H193" s="13"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
-      <c r="C194" s="229"/>
+      <c r="C194" s="230"/>
       <c r="D194" s="46"/>
       <c r="H194" s="13"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
-      <c r="C195" s="229"/>
+      <c r="C195" s="230"/>
       <c r="D195" s="46"/>
       <c r="H195" s="13"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
-      <c r="C196" s="229"/>
+      <c r="C196" s="230"/>
       <c r="D196" s="46"/>
       <c r="H196" s="13"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
-      <c r="C197" s="229"/>
+      <c r="C197" s="230"/>
       <c r="D197" s="46"/>
       <c r="H197" s="13"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
-      <c r="C198" s="229"/>
+      <c r="C198" s="230"/>
       <c r="D198" s="46"/>
       <c r="H198" s="13"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
-      <c r="C199" s="229"/>
+      <c r="C199" s="230"/>
       <c r="D199" s="46"/>
       <c r="H199" s="13"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
-      <c r="C200" s="229"/>
+      <c r="C200" s="230"/>
       <c r="D200" s="46"/>
       <c r="H200" s="13"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
-      <c r="C201" s="229"/>
+      <c r="C201" s="230"/>
       <c r="D201" s="46"/>
       <c r="H201" s="13"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
-      <c r="C202" s="229"/>
+      <c r="C202" s="230"/>
       <c r="D202" s="46"/>
       <c r="H202" s="13"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
-      <c r="C203" s="229"/>
+      <c r="C203" s="230"/>
       <c r="D203" s="46"/>
       <c r="H203" s="13"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
-      <c r="C204" s="229"/>
+      <c r="C204" s="230"/>
       <c r="D204" s="46"/>
       <c r="H204" s="13"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
-      <c r="C205" s="229"/>
+      <c r="C205" s="230"/>
       <c r="D205" s="46"/>
       <c r="H205" s="13"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
-      <c r="C206" s="229"/>
+      <c r="C206" s="230"/>
       <c r="D206" s="46"/>
       <c r="H206" s="13"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
-      <c r="C207" s="229"/>
+      <c r="C207" s="230"/>
       <c r="D207" s="46"/>
       <c r="H207" s="13"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
-      <c r="C208" s="229"/>
+      <c r="C208" s="230"/>
       <c r="D208" s="46"/>
       <c r="H208" s="13"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
-      <c r="C209" s="229"/>
+      <c r="C209" s="230"/>
       <c r="D209" s="46"/>
       <c r="H209" s="13"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
-      <c r="C210" s="229"/>
+      <c r="C210" s="230"/>
       <c r="D210" s="46"/>
       <c r="H210" s="13"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
-      <c r="C211" s="229"/>
+      <c r="C211" s="230"/>
       <c r="D211" s="46"/>
       <c r="H211" s="13"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
-      <c r="C212" s="229"/>
+      <c r="C212" s="230"/>
       <c r="D212" s="46"/>
       <c r="H212" s="13"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
-      <c r="C213" s="229"/>
+      <c r="C213" s="230"/>
       <c r="D213" s="46"/>
       <c r="H213" s="13"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
-      <c r="C214" s="229"/>
+      <c r="C214" s="230"/>
       <c r="D214" s="46"/>
       <c r="H214" s="13"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
-      <c r="C215" s="229"/>
+      <c r="C215" s="230"/>
       <c r="D215" s="46"/>
       <c r="H215" s="13"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
-      <c r="C216" s="229"/>
+      <c r="C216" s="230"/>
       <c r="D216" s="46"/>
       <c r="H216" s="13"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
-      <c r="C217" s="229"/>
+      <c r="C217" s="230"/>
       <c r="D217" s="46"/>
       <c r="H217" s="13"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
-      <c r="C218" s="229"/>
+      <c r="C218" s="230"/>
       <c r="D218" s="46"/>
       <c r="H218" s="13"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
-      <c r="C219" s="229"/>
+      <c r="C219" s="230"/>
       <c r="D219" s="46"/>
       <c r="H219" s="13"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
-      <c r="C220" s="229"/>
+      <c r="C220" s="230"/>
       <c r="D220" s="46"/>
       <c r="H220" s="13"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
-      <c r="C221" s="229"/>
+      <c r="C221" s="230"/>
       <c r="D221" s="46"/>
       <c r="H221" s="13"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
-      <c r="C222" s="229"/>
+      <c r="C222" s="230"/>
       <c r="D222" s="46"/>
       <c r="H222" s="13"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
-      <c r="C223" s="229"/>
+      <c r="C223" s="230"/>
       <c r="D223" s="46"/>
       <c r="H223" s="13"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
-      <c r="C224" s="229"/>
+      <c r="C224" s="230"/>
       <c r="D224" s="46"/>
       <c r="H224" s="13"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
-      <c r="C225" s="229"/>
+      <c r="C225" s="230"/>
       <c r="D225" s="46"/>
       <c r="H225" s="13"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
-      <c r="C226" s="229"/>
+      <c r="C226" s="230"/>
       <c r="D226" s="46"/>
       <c r="H226" s="13"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
-      <c r="C227" s="229"/>
+      <c r="C227" s="230"/>
       <c r="D227" s="46"/>
       <c r="H227" s="13"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
-      <c r="C228" s="229"/>
+      <c r="C228" s="230"/>
       <c r="D228" s="46"/>
       <c r="H228" s="13"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
-      <c r="C229" s="229"/>
+      <c r="C229" s="230"/>
       <c r="D229" s="46"/>
       <c r="H229" s="13"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
-      <c r="C230" s="229"/>
+      <c r="C230" s="230"/>
       <c r="D230" s="46"/>
       <c r="H230" s="13"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
-      <c r="C231" s="229"/>
+      <c r="C231" s="230"/>
       <c r="D231" s="46"/>
       <c r="H231" s="13"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
-      <c r="C232" s="229"/>
+      <c r="C232" s="230"/>
       <c r="D232" s="46"/>
       <c r="H232" s="13"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
-      <c r="C233" s="229"/>
+      <c r="C233" s="230"/>
       <c r="D233" s="46"/>
       <c r="H233" s="13"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
-      <c r="C234" s="229"/>
+      <c r="C234" s="230"/>
       <c r="D234" s="46"/>
       <c r="H234" s="13"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
-      <c r="C235" s="229"/>
+      <c r="C235" s="230"/>
       <c r="D235" s="46"/>
       <c r="H235" s="13"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
-      <c r="C236" s="229"/>
+      <c r="C236" s="230"/>
       <c r="D236" s="46"/>
       <c r="H236" s="13"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
-      <c r="C237" s="229"/>
+      <c r="C237" s="230"/>
       <c r="D237" s="46"/>
       <c r="H237" s="13"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
-      <c r="C238" s="229"/>
+      <c r="C238" s="230"/>
       <c r="D238" s="46"/>
       <c r="H238" s="13"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
-      <c r="C239" s="229"/>
+      <c r="C239" s="230"/>
       <c r="D239" s="46"/>
       <c r="H239" s="13"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
-      <c r="C240" s="229"/>
+      <c r="C240" s="230"/>
       <c r="D240" s="46"/>
       <c r="H240" s="13"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
-      <c r="C241" s="229"/>
+      <c r="C241" s="230"/>
       <c r="D241" s="46"/>
       <c r="H241" s="13"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
-      <c r="C242" s="229"/>
+      <c r="C242" s="230"/>
       <c r="D242" s="46"/>
       <c r="H242" s="13"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
-      <c r="C243" s="229"/>
+      <c r="C243" s="230"/>
       <c r="D243" s="46"/>
       <c r="H243" s="13"/>
     </row>
@@ -29132,8 +29138,8 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="230" t="s">
-        <v>491</v>
+      <c r="B2" s="231" t="s">
+        <v>492</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -29162,34 +29168,34 @@
       <c r="Z3" s="5"/>
     </row>
     <row r="4" ht="40.5" customHeight="1">
-      <c r="A4" s="192"/>
-      <c r="B4" s="231" t="s">
-        <v>492</v>
+      <c r="A4" s="193"/>
+      <c r="B4" s="232" t="s">
+        <v>493</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="194"/>
-      <c r="K4" s="194"/>
-      <c r="L4" s="194"/>
-      <c r="M4" s="194"/>
-      <c r="N4" s="194"/>
-      <c r="O4" s="194"/>
-      <c r="P4" s="194"/>
-      <c r="Q4" s="194"/>
-      <c r="R4" s="194"/>
-      <c r="S4" s="194"/>
-      <c r="T4" s="194"/>
-      <c r="U4" s="194"/>
-      <c r="V4" s="194"/>
-      <c r="W4" s="194"/>
-      <c r="X4" s="194"/>
-      <c r="Y4" s="194"/>
-      <c r="Z4" s="194"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="195"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
+      <c r="P4" s="195"/>
+      <c r="Q4" s="195"/>
+      <c r="R4" s="195"/>
+      <c r="S4" s="195"/>
+      <c r="T4" s="195"/>
+      <c r="U4" s="195"/>
+      <c r="V4" s="195"/>
+      <c r="W4" s="195"/>
+      <c r="X4" s="195"/>
+      <c r="Y4" s="195"/>
+      <c r="Z4" s="195"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
@@ -29247,20 +29253,20 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="232" t="s">
-        <v>493</v>
-      </c>
-      <c r="C7" s="232" t="s">
-        <v>493</v>
-      </c>
-      <c r="D7" s="232" t="s">
-        <v>493</v>
-      </c>
-      <c r="E7" s="232" t="s">
-        <v>493</v>
-      </c>
-      <c r="F7" s="233" t="s">
-        <v>493</v>
+      <c r="B7" s="233" t="s">
+        <v>494</v>
+      </c>
+      <c r="C7" s="233" t="s">
+        <v>494</v>
+      </c>
+      <c r="D7" s="233" t="s">
+        <v>494</v>
+      </c>
+      <c r="E7" s="233" t="s">
+        <v>494</v>
+      </c>
+      <c r="F7" s="234" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="8" ht="7.5" customHeight="1">
@@ -29289,16 +29295,16 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="234" t="s">
-        <v>494</v>
-      </c>
-      <c r="C9" s="234" t="s">
-        <v>279</v>
-      </c>
-      <c r="D9" s="234" t="s">
+      <c r="B9" s="235" t="s">
+        <v>495</v>
+      </c>
+      <c r="C9" s="235" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="234" t="s">
+      <c r="E9" s="235" t="s">
         <v>128</v>
       </c>
       <c r="F9" s="29" t="s">
@@ -29307,194 +29313,194 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="227"/>
-      <c r="C10" s="227"/>
-      <c r="D10" s="227"/>
-      <c r="E10" s="227"/>
+      <c r="B10" s="228"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="228"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="227"/>
-      <c r="C11" s="227"/>
-      <c r="D11" s="227"/>
-      <c r="E11" s="227"/>
+      <c r="B11" s="228"/>
+      <c r="C11" s="228"/>
+      <c r="D11" s="228"/>
+      <c r="E11" s="228"/>
       <c r="F11" s="13"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="227"/>
-      <c r="C12" s="227"/>
-      <c r="D12" s="227"/>
-      <c r="E12" s="227"/>
+      <c r="B12" s="228"/>
+      <c r="C12" s="228"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="228"/>
       <c r="F12" s="13"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="227"/>
-      <c r="C13" s="227"/>
-      <c r="D13" s="227"/>
-      <c r="E13" s="227"/>
+      <c r="B13" s="228"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="228"/>
+      <c r="E13" s="228"/>
       <c r="F13" s="13"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="227"/>
-      <c r="C14" s="227"/>
-      <c r="D14" s="227"/>
-      <c r="E14" s="227"/>
+      <c r="B14" s="228"/>
+      <c r="C14" s="228"/>
+      <c r="D14" s="228"/>
+      <c r="E14" s="228"/>
       <c r="F14" s="13"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="227"/>
-      <c r="C15" s="227"/>
-      <c r="D15" s="227"/>
-      <c r="E15" s="227"/>
+      <c r="B15" s="228"/>
+      <c r="C15" s="228"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="228"/>
       <c r="F15" s="13"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="227"/>
-      <c r="C16" s="227"/>
-      <c r="F16" s="228"/>
+      <c r="B16" s="228"/>
+      <c r="C16" s="228"/>
+      <c r="F16" s="229"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="227"/>
+      <c r="B17" s="228"/>
       <c r="C17" s="46"/>
-      <c r="F17" s="228"/>
+      <c r="F17" s="229"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="227"/>
+      <c r="B18" s="228"/>
       <c r="C18" s="46"/>
-      <c r="F18" s="228"/>
+      <c r="F18" s="229"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="227"/>
+      <c r="B19" s="228"/>
       <c r="C19" s="46"/>
-      <c r="F19" s="228"/>
+      <c r="F19" s="229"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="227"/>
+      <c r="B20" s="228"/>
       <c r="C20" s="46"/>
-      <c r="F20" s="228"/>
+      <c r="F20" s="229"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="5"/>
-      <c r="B21" s="227"/>
+      <c r="B21" s="228"/>
       <c r="C21" s="46"/>
-      <c r="F21" s="228"/>
+      <c r="F21" s="229"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="5"/>
-      <c r="B22" s="227"/>
+      <c r="B22" s="228"/>
       <c r="C22" s="46"/>
-      <c r="F22" s="228"/>
+      <c r="F22" s="229"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="227"/>
+      <c r="B23" s="228"/>
       <c r="C23" s="46"/>
-      <c r="F23" s="228"/>
+      <c r="F23" s="229"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="227"/>
+      <c r="B24" s="228"/>
       <c r="C24" s="46"/>
-      <c r="F24" s="228"/>
+      <c r="F24" s="229"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="227"/>
+      <c r="B25" s="228"/>
       <c r="C25" s="46"/>
-      <c r="F25" s="228"/>
+      <c r="F25" s="229"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="227"/>
+      <c r="B26" s="228"/>
       <c r="C26" s="46"/>
-      <c r="F26" s="228"/>
+      <c r="F26" s="229"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="227"/>
+      <c r="B27" s="228"/>
       <c r="C27" s="46"/>
-      <c r="F27" s="228"/>
+      <c r="F27" s="229"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="227"/>
+      <c r="B28" s="228"/>
       <c r="C28" s="46"/>
-      <c r="F28" s="228"/>
+      <c r="F28" s="229"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="5"/>
-      <c r="B29" s="227"/>
+      <c r="B29" s="228"/>
       <c r="C29" s="46"/>
-      <c r="F29" s="228"/>
+      <c r="F29" s="229"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="5"/>
-      <c r="B30" s="227"/>
+      <c r="B30" s="228"/>
       <c r="C30" s="46"/>
-      <c r="F30" s="228"/>
+      <c r="F30" s="229"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="5"/>
-      <c r="B31" s="227"/>
+      <c r="B31" s="228"/>
       <c r="C31" s="46"/>
-      <c r="F31" s="228"/>
+      <c r="F31" s="229"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="5"/>
-      <c r="B32" s="227"/>
+      <c r="B32" s="228"/>
       <c r="C32" s="46"/>
-      <c r="F32" s="228"/>
+      <c r="F32" s="229"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="5"/>
-      <c r="B33" s="227"/>
+      <c r="B33" s="228"/>
       <c r="C33" s="46"/>
-      <c r="F33" s="228"/>
+      <c r="F33" s="229"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="5"/>
-      <c r="B34" s="227"/>
+      <c r="B34" s="228"/>
       <c r="C34" s="46"/>
-      <c r="F34" s="228"/>
+      <c r="F34" s="229"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="227"/>
+      <c r="B35" s="228"/>
       <c r="C35" s="46"/>
-      <c r="F35" s="228"/>
+      <c r="F35" s="229"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="227"/>
+      <c r="B36" s="228"/>
       <c r="C36" s="46"/>
-      <c r="F36" s="228"/>
+      <c r="F36" s="229"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="5"/>
-      <c r="B37" s="227"/>
+      <c r="B37" s="228"/>
       <c r="C37" s="46"/>
-      <c r="F37" s="228"/>
+      <c r="F37" s="229"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="5"/>
-      <c r="B38" s="227"/>
+      <c r="B38" s="228"/>
       <c r="C38" s="59"/>
-      <c r="F38" s="228"/>
+      <c r="F38" s="229"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
-      <c r="F39" s="228"/>
+      <c r="F39" s="229"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="5"/>
@@ -31262,8 +31268,8 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="235" t="s">
-        <v>495</v>
+      <c r="B2" s="236" t="s">
+        <v>496</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -31314,8 +31320,8 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="130" t="s">
-        <v>496</v>
+      <c r="B4" s="131" t="s">
+        <v>497</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -31323,8 +31329,8 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="236"/>
-      <c r="J4" s="237"/>
+      <c r="I4" s="237"/>
+      <c r="J4" s="238"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -31345,13 +31351,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="238"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="239"/>
-      <c r="H5" s="240"/>
+      <c r="B5" s="239"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="240"/>
+      <c r="F5" s="240"/>
+      <c r="G5" s="240"/>
+      <c r="H5" s="241"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -31375,11 +31381,11 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="241"/>
-      <c r="G6" s="241"/>
-      <c r="H6" s="241"/>
-      <c r="I6" s="241"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="242"/>
+      <c r="G6" s="242"/>
+      <c r="H6" s="242"/>
+      <c r="I6" s="242"/>
       <c r="J6" s="12"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -31401,624 +31407,624 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="242" t="s">
-        <v>493</v>
-      </c>
-      <c r="C7" s="243"/>
-      <c r="D7" s="244" t="s">
-        <v>497</v>
-      </c>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="245" t="s">
+      <c r="B7" s="243" t="s">
+        <v>494</v>
+      </c>
+      <c r="C7" s="244"/>
+      <c r="D7" s="245" t="s">
         <v>498</v>
       </c>
-      <c r="J7" s="228"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="246" t="s">
+        <v>499</v>
+      </c>
+      <c r="J7" s="229"/>
       <c r="K7" s="10"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="246" t="s">
-        <v>499</v>
+      <c r="B8" s="247" t="s">
+        <v>500</v>
       </c>
       <c r="C8" s="15"/>
-      <c r="D8" s="247" t="s">
-        <v>500</v>
+      <c r="D8" s="248" t="s">
+        <v>501</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
-      <c r="G8" s="248" t="s">
-        <v>501</v>
-      </c>
-      <c r="J8" s="228"/>
+      <c r="G8" s="249" t="s">
+        <v>502</v>
+      </c>
+      <c r="J8" s="229"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="249" t="s">
-        <v>284</v>
-      </c>
-      <c r="C9" s="250"/>
-      <c r="D9" s="251" t="s">
-        <v>502</v>
+      <c r="B9" s="250" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="251"/>
+      <c r="D9" s="252" t="s">
+        <v>503</v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
-      <c r="G9" s="248" t="s">
-        <v>503</v>
-      </c>
-      <c r="J9" s="228"/>
+      <c r="G9" s="249" t="s">
+        <v>504</v>
+      </c>
+      <c r="J9" s="229"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="249" t="s">
+      <c r="B10" s="250" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="250"/>
-      <c r="D10" s="252" t="s">
-        <v>504</v>
+      <c r="C10" s="251"/>
+      <c r="D10" s="253" t="s">
+        <v>505</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46"/>
-      <c r="G10" s="248" t="s">
-        <v>505</v>
-      </c>
-      <c r="J10" s="228"/>
+      <c r="G10" s="249" t="s">
+        <v>506</v>
+      </c>
+      <c r="J10" s="229"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="249" t="s">
-        <v>280</v>
-      </c>
-      <c r="C11" s="250"/>
-      <c r="D11" s="252" t="s">
-        <v>506</v>
+      <c r="B11" s="250" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="251"/>
+      <c r="D11" s="253" t="s">
+        <v>507</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
-      <c r="G11" s="248" t="s">
-        <v>507</v>
-      </c>
-      <c r="J11" s="228"/>
+      <c r="G11" s="249" t="s">
+        <v>508</v>
+      </c>
+      <c r="J11" s="229"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="249" t="s">
+      <c r="B12" s="250" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="250"/>
-      <c r="D12" s="252" t="s">
-        <v>508</v>
+      <c r="C12" s="251"/>
+      <c r="D12" s="253" t="s">
+        <v>509</v>
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46"/>
-      <c r="G12" s="248" t="s">
-        <v>509</v>
-      </c>
-      <c r="J12" s="228"/>
+      <c r="G12" s="249" t="s">
+        <v>510</v>
+      </c>
+      <c r="J12" s="229"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="249" t="s">
-        <v>510</v>
-      </c>
-      <c r="C13" s="250"/>
-      <c r="D13" s="252" t="s">
+      <c r="B13" s="250" t="s">
         <v>511</v>
+      </c>
+      <c r="C13" s="251"/>
+      <c r="D13" s="253" t="s">
+        <v>512</v>
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46"/>
-      <c r="G13" s="248" t="s">
-        <v>512</v>
-      </c>
-      <c r="J13" s="228"/>
+      <c r="G13" s="249" t="s">
+        <v>513</v>
+      </c>
+      <c r="J13" s="229"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="249" t="s">
-        <v>513</v>
-      </c>
-      <c r="C14" s="250"/>
-      <c r="D14" s="252" t="s">
+      <c r="B14" s="250" t="s">
         <v>514</v>
+      </c>
+      <c r="C14" s="251"/>
+      <c r="D14" s="253" t="s">
+        <v>515</v>
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
-      <c r="G14" s="248" t="s">
-        <v>515</v>
-      </c>
-      <c r="J14" s="228"/>
+      <c r="G14" s="249" t="s">
+        <v>516</v>
+      </c>
+      <c r="J14" s="229"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="249" t="s">
-        <v>516</v>
-      </c>
-      <c r="C15" s="250"/>
-      <c r="D15" s="252" t="s">
+      <c r="B15" s="250" t="s">
         <v>517</v>
+      </c>
+      <c r="C15" s="251"/>
+      <c r="D15" s="253" t="s">
+        <v>518</v>
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
-      <c r="G15" s="248" t="s">
-        <v>518</v>
-      </c>
-      <c r="J15" s="228"/>
+      <c r="G15" s="249" t="s">
+        <v>519</v>
+      </c>
+      <c r="J15" s="229"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="249" t="s">
-        <v>285</v>
-      </c>
-      <c r="C16" s="250"/>
-      <c r="D16" s="252" t="s">
-        <v>519</v>
+      <c r="B16" s="250" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" s="251"/>
+      <c r="D16" s="253" t="s">
+        <v>520</v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="46"/>
-      <c r="G16" s="248" t="s">
-        <v>520</v>
-      </c>
-      <c r="J16" s="228"/>
+      <c r="G16" s="249" t="s">
+        <v>521</v>
+      </c>
+      <c r="J16" s="229"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="249" t="s">
-        <v>521</v>
-      </c>
-      <c r="C17" s="250"/>
-      <c r="D17" s="252" t="s">
-        <v>514</v>
+      <c r="B17" s="250" t="s">
+        <v>522</v>
+      </c>
+      <c r="C17" s="251"/>
+      <c r="D17" s="253" t="s">
+        <v>515</v>
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="46"/>
-      <c r="G17" s="248" t="s">
-        <v>522</v>
-      </c>
-      <c r="J17" s="228"/>
+      <c r="G17" s="249" t="s">
+        <v>523</v>
+      </c>
+      <c r="J17" s="229"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="249" t="s">
-        <v>523</v>
-      </c>
-      <c r="C18" s="250"/>
-      <c r="D18" s="252" t="s">
+      <c r="B18" s="250" t="s">
         <v>524</v>
+      </c>
+      <c r="C18" s="251"/>
+      <c r="D18" s="253" t="s">
+        <v>525</v>
       </c>
       <c r="E18" s="46"/>
       <c r="F18" s="46"/>
-      <c r="G18" s="248"/>
-      <c r="H18" s="248"/>
-      <c r="J18" s="228"/>
+      <c r="G18" s="249"/>
+      <c r="H18" s="249"/>
+      <c r="J18" s="229"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="249" t="s">
-        <v>525</v>
-      </c>
-      <c r="C19" s="250"/>
-      <c r="D19" s="252" t="s">
-        <v>514</v>
+      <c r="B19" s="250" t="s">
+        <v>526</v>
+      </c>
+      <c r="C19" s="251"/>
+      <c r="D19" s="253" t="s">
+        <v>515</v>
       </c>
       <c r="E19" s="46"/>
       <c r="F19" s="46"/>
-      <c r="H19" s="253"/>
-      <c r="J19" s="228"/>
+      <c r="H19" s="254"/>
+      <c r="J19" s="229"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="249" t="s">
-        <v>526</v>
-      </c>
-      <c r="C20" s="250"/>
-      <c r="D20" s="252" t="s">
+      <c r="B20" s="250" t="s">
         <v>527</v>
+      </c>
+      <c r="C20" s="251"/>
+      <c r="D20" s="253" t="s">
+        <v>528</v>
       </c>
       <c r="E20" s="46"/>
       <c r="F20" s="46"/>
-      <c r="G20" s="245" t="s">
-        <v>528</v>
-      </c>
-      <c r="H20" s="248"/>
-      <c r="J20" s="228"/>
+      <c r="G20" s="246" t="s">
+        <v>529</v>
+      </c>
+      <c r="H20" s="249"/>
+      <c r="J20" s="229"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="5"/>
-      <c r="B21" s="249" t="s">
-        <v>529</v>
-      </c>
-      <c r="C21" s="250"/>
-      <c r="D21" s="252" t="s">
+      <c r="B21" s="250" t="s">
         <v>530</v>
+      </c>
+      <c r="C21" s="251"/>
+      <c r="D21" s="253" t="s">
+        <v>531</v>
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="46"/>
-      <c r="G21" s="248" t="s">
-        <v>531</v>
-      </c>
-      <c r="H21" s="248"/>
-      <c r="J21" s="228"/>
+      <c r="G21" s="249" t="s">
+        <v>532</v>
+      </c>
+      <c r="H21" s="249"/>
+      <c r="J21" s="229"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="5"/>
-      <c r="B22" s="249" t="s">
-        <v>532</v>
-      </c>
-      <c r="C22" s="250"/>
-      <c r="D22" s="252" t="s">
+      <c r="B22" s="250" t="s">
         <v>533</v>
+      </c>
+      <c r="C22" s="251"/>
+      <c r="D22" s="253" t="s">
+        <v>534</v>
       </c>
       <c r="E22" s="46"/>
       <c r="F22" s="46"/>
-      <c r="G22" s="253" t="s">
-        <v>534</v>
-      </c>
-      <c r="H22" s="254"/>
-      <c r="J22" s="228"/>
+      <c r="G22" s="254" t="s">
+        <v>535</v>
+      </c>
+      <c r="H22" s="255"/>
+      <c r="J22" s="229"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="249" t="s">
+      <c r="B23" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="250"/>
-      <c r="D23" s="252" t="s">
-        <v>535</v>
+      <c r="C23" s="251"/>
+      <c r="D23" s="253" t="s">
+        <v>536</v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="46"/>
-      <c r="G23" s="253" t="s">
-        <v>536</v>
-      </c>
-      <c r="H23" s="254"/>
-      <c r="J23" s="228"/>
+      <c r="G23" s="254" t="s">
+        <v>537</v>
+      </c>
+      <c r="H23" s="255"/>
+      <c r="J23" s="229"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="249" t="s">
-        <v>410</v>
-      </c>
-      <c r="C24" s="250"/>
-      <c r="D24" s="252" t="s">
-        <v>537</v>
+      <c r="B24" s="250" t="s">
+        <v>411</v>
+      </c>
+      <c r="C24" s="251"/>
+      <c r="D24" s="253" t="s">
+        <v>538</v>
       </c>
       <c r="E24" s="46"/>
       <c r="F24" s="46"/>
-      <c r="G24" s="255" t="s">
-        <v>538</v>
-      </c>
-      <c r="H24" s="254"/>
-      <c r="J24" s="228"/>
+      <c r="G24" s="256" t="s">
+        <v>539</v>
+      </c>
+      <c r="H24" s="255"/>
+      <c r="J24" s="229"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="256" t="s">
+      <c r="B25" s="257" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="257"/>
-      <c r="D25" s="258" t="s">
-        <v>539</v>
+      <c r="C25" s="258"/>
+      <c r="D25" s="259" t="s">
+        <v>540</v>
       </c>
       <c r="E25" s="46"/>
       <c r="F25" s="46"/>
-      <c r="G25" s="255" t="s">
-        <v>540</v>
-      </c>
-      <c r="H25" s="254"/>
-      <c r="J25" s="228"/>
+      <c r="G25" s="256" t="s">
+        <v>541</v>
+      </c>
+      <c r="H25" s="255"/>
+      <c r="J25" s="229"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="259" t="s">
-        <v>541</v>
-      </c>
-      <c r="C26" s="260"/>
-      <c r="D26" s="258" t="s">
+      <c r="B26" s="260" t="s">
         <v>542</v>
+      </c>
+      <c r="C26" s="261"/>
+      <c r="D26" s="259" t="s">
+        <v>543</v>
       </c>
       <c r="E26" s="46"/>
       <c r="F26" s="46"/>
-      <c r="H26" s="254"/>
-      <c r="J26" s="228"/>
+      <c r="H26" s="255"/>
+      <c r="J26" s="229"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="261" t="s">
-        <v>543</v>
-      </c>
-      <c r="C27" s="260"/>
-      <c r="D27" s="262" t="s">
+      <c r="B27" s="262" t="s">
         <v>544</v>
+      </c>
+      <c r="C27" s="261"/>
+      <c r="D27" s="263" t="s">
+        <v>545</v>
       </c>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="263"/>
-      <c r="J27" s="228"/>
+      <c r="H27" s="264"/>
+      <c r="J27" s="229"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="261" t="s">
-        <v>545</v>
-      </c>
-      <c r="C28" s="260"/>
-      <c r="D28" s="258" t="s">
+      <c r="B28" s="262" t="s">
         <v>546</v>
+      </c>
+      <c r="C28" s="261"/>
+      <c r="D28" s="259" t="s">
+        <v>547</v>
       </c>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
-      <c r="G28" s="253"/>
-      <c r="H28" s="264"/>
-      <c r="J28" s="228"/>
+      <c r="G28" s="254"/>
+      <c r="H28" s="265"/>
+      <c r="J28" s="229"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="5"/>
-      <c r="B29" s="261" t="s">
-        <v>547</v>
-      </c>
-      <c r="C29" s="260"/>
-      <c r="D29" s="262" t="s">
+      <c r="B29" s="262" t="s">
         <v>548</v>
+      </c>
+      <c r="C29" s="261"/>
+      <c r="D29" s="263" t="s">
+        <v>549</v>
       </c>
       <c r="E29" s="46"/>
       <c r="F29" s="46"/>
-      <c r="H29" s="264"/>
-      <c r="J29" s="228"/>
+      <c r="H29" s="265"/>
+      <c r="J29" s="229"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="5"/>
-      <c r="B30" s="261" t="s">
-        <v>340</v>
-      </c>
-      <c r="C30" s="260"/>
-      <c r="D30" s="262" t="s">
-        <v>548</v>
+      <c r="B30" s="262" t="s">
+        <v>341</v>
+      </c>
+      <c r="C30" s="261"/>
+      <c r="D30" s="263" t="s">
+        <v>549</v>
       </c>
       <c r="E30" s="46"/>
       <c r="F30" s="46"/>
-      <c r="G30" s="263"/>
-      <c r="H30" s="264"/>
-      <c r="I30" s="254"/>
-      <c r="J30" s="228"/>
+      <c r="G30" s="264"/>
+      <c r="H30" s="265"/>
+      <c r="I30" s="255"/>
+      <c r="J30" s="229"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="5"/>
-      <c r="B31" s="261" t="s">
-        <v>549</v>
-      </c>
-      <c r="C31" s="260"/>
-      <c r="D31" s="258" t="s">
-        <v>546</v>
+      <c r="B31" s="262" t="s">
+        <v>550</v>
+      </c>
+      <c r="C31" s="261"/>
+      <c r="D31" s="259" t="s">
+        <v>547</v>
       </c>
       <c r="E31" s="46"/>
       <c r="F31" s="46"/>
-      <c r="G31" s="254"/>
-      <c r="H31" s="264"/>
-      <c r="I31" s="265"/>
-      <c r="J31" s="228"/>
+      <c r="G31" s="255"/>
+      <c r="H31" s="265"/>
+      <c r="I31" s="266"/>
+      <c r="J31" s="229"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="5"/>
-      <c r="B32" s="261" t="s">
-        <v>351</v>
-      </c>
-      <c r="C32" s="260"/>
-      <c r="D32" s="262" t="s">
-        <v>548</v>
+      <c r="B32" s="262" t="s">
+        <v>352</v>
+      </c>
+      <c r="C32" s="261"/>
+      <c r="D32" s="263" t="s">
+        <v>549</v>
       </c>
       <c r="E32" s="46"/>
       <c r="F32" s="46"/>
-      <c r="G32" s="254"/>
-      <c r="H32" s="264"/>
-      <c r="I32" s="254"/>
-      <c r="J32" s="228"/>
+      <c r="G32" s="255"/>
+      <c r="H32" s="265"/>
+      <c r="I32" s="255"/>
+      <c r="J32" s="229"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="5"/>
-      <c r="B33" s="261" t="s">
-        <v>550</v>
-      </c>
-      <c r="C33" s="260"/>
-      <c r="D33" s="262" t="s">
+      <c r="B33" s="262" t="s">
         <v>551</v>
+      </c>
+      <c r="C33" s="261"/>
+      <c r="D33" s="263" t="s">
+        <v>552</v>
       </c>
       <c r="E33" s="46"/>
       <c r="F33" s="46"/>
-      <c r="G33" s="264"/>
-      <c r="H33" s="254"/>
-      <c r="I33" s="254"/>
-      <c r="J33" s="228"/>
+      <c r="G33" s="265"/>
+      <c r="H33" s="255"/>
+      <c r="I33" s="255"/>
+      <c r="J33" s="229"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="5"/>
-      <c r="B34" s="261" t="s">
+      <c r="B34" s="262" t="s">
+        <v>553</v>
+      </c>
+      <c r="C34" s="261"/>
+      <c r="D34" s="263" t="s">
         <v>552</v>
-      </c>
-      <c r="C34" s="260"/>
-      <c r="D34" s="262" t="s">
-        <v>551</v>
       </c>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
-      <c r="G34" s="264"/>
-      <c r="H34" s="254"/>
-      <c r="I34" s="254"/>
-      <c r="J34" s="228"/>
+      <c r="G34" s="265"/>
+      <c r="H34" s="255"/>
+      <c r="I34" s="255"/>
+      <c r="J34" s="229"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="261" t="s">
-        <v>553</v>
-      </c>
-      <c r="C35" s="260"/>
-      <c r="D35" s="262" t="s">
-        <v>551</v>
+      <c r="B35" s="262" t="s">
+        <v>554</v>
+      </c>
+      <c r="C35" s="261"/>
+      <c r="D35" s="263" t="s">
+        <v>552</v>
       </c>
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
-      <c r="G35" s="264"/>
-      <c r="H35" s="254"/>
-      <c r="I35" s="254"/>
-      <c r="J35" s="228"/>
+      <c r="G35" s="265"/>
+      <c r="H35" s="255"/>
+      <c r="I35" s="255"/>
+      <c r="J35" s="229"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="261" t="s">
-        <v>423</v>
-      </c>
-      <c r="C36" s="260"/>
-      <c r="D36" s="262" t="s">
-        <v>551</v>
+      <c r="B36" s="262" t="s">
+        <v>424</v>
+      </c>
+      <c r="C36" s="261"/>
+      <c r="D36" s="263" t="s">
+        <v>552</v>
       </c>
       <c r="E36" s="46"/>
       <c r="F36" s="46"/>
-      <c r="G36" s="254"/>
-      <c r="H36" s="264"/>
-      <c r="I36" s="264"/>
-      <c r="J36" s="228"/>
+      <c r="G36" s="255"/>
+      <c r="H36" s="265"/>
+      <c r="I36" s="265"/>
+      <c r="J36" s="229"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="5"/>
-      <c r="B37" s="261" t="s">
-        <v>554</v>
-      </c>
-      <c r="C37" s="260"/>
-      <c r="D37" s="262" t="s">
+      <c r="B37" s="262" t="s">
         <v>555</v>
+      </c>
+      <c r="C37" s="261"/>
+      <c r="D37" s="263" t="s">
+        <v>556</v>
       </c>
       <c r="E37" s="46"/>
       <c r="F37" s="46"/>
-      <c r="G37" s="254"/>
-      <c r="H37" s="264"/>
-      <c r="I37" s="264"/>
-      <c r="J37" s="228"/>
+      <c r="G37" s="255"/>
+      <c r="H37" s="265"/>
+      <c r="I37" s="265"/>
+      <c r="J37" s="229"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="5"/>
-      <c r="B38" s="261" t="s">
+      <c r="B38" s="262" t="s">
+        <v>557</v>
+      </c>
+      <c r="C38" s="261"/>
+      <c r="D38" s="263" t="s">
         <v>556</v>
-      </c>
-      <c r="C38" s="260"/>
-      <c r="D38" s="262" t="s">
-        <v>555</v>
       </c>
       <c r="E38" s="46"/>
       <c r="F38" s="46"/>
-      <c r="G38" s="264"/>
-      <c r="H38" s="254"/>
-      <c r="I38" s="264"/>
-      <c r="J38" s="228"/>
+      <c r="G38" s="265"/>
+      <c r="H38" s="255"/>
+      <c r="I38" s="265"/>
+      <c r="J38" s="229"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="5"/>
-      <c r="B39" s="261" t="s">
-        <v>557</v>
-      </c>
-      <c r="C39" s="260"/>
-      <c r="D39" s="262" t="s">
-        <v>548</v>
+      <c r="B39" s="262" t="s">
+        <v>558</v>
+      </c>
+      <c r="C39" s="261"/>
+      <c r="D39" s="263" t="s">
+        <v>549</v>
       </c>
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
-      <c r="G39" s="264"/>
-      <c r="H39" s="254"/>
-      <c r="I39" s="264"/>
-      <c r="J39" s="228"/>
+      <c r="G39" s="265"/>
+      <c r="H39" s="255"/>
+      <c r="I39" s="265"/>
+      <c r="J39" s="229"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="5"/>
-      <c r="B40" s="261" t="s">
-        <v>558</v>
-      </c>
-      <c r="C40" s="260"/>
-      <c r="D40" s="262" t="s">
+      <c r="B40" s="262" t="s">
         <v>559</v>
+      </c>
+      <c r="C40" s="261"/>
+      <c r="D40" s="263" t="s">
+        <v>560</v>
       </c>
       <c r="E40" s="46"/>
       <c r="F40" s="46"/>
-      <c r="G40" s="264"/>
-      <c r="H40" s="254"/>
-      <c r="I40" s="264"/>
-      <c r="J40" s="228"/>
+      <c r="G40" s="265"/>
+      <c r="H40" s="255"/>
+      <c r="I40" s="265"/>
+      <c r="J40" s="229"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="5"/>
-      <c r="B41" s="261" t="s">
-        <v>560</v>
-      </c>
-      <c r="C41" s="260"/>
-      <c r="D41" s="262" t="s">
-        <v>507</v>
+      <c r="B41" s="262" t="s">
+        <v>561</v>
+      </c>
+      <c r="C41" s="261"/>
+      <c r="D41" s="263" t="s">
+        <v>508</v>
       </c>
       <c r="E41" s="46"/>
       <c r="F41" s="46"/>
-      <c r="G41" s="264"/>
-      <c r="H41" s="254"/>
-      <c r="I41" s="264"/>
-      <c r="J41" s="228"/>
+      <c r="G41" s="265"/>
+      <c r="H41" s="255"/>
+      <c r="I41" s="265"/>
+      <c r="J41" s="229"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="5"/>
-      <c r="B42" s="261" t="s">
-        <v>561</v>
-      </c>
-      <c r="C42" s="260"/>
-      <c r="D42" s="262" t="s">
+      <c r="B42" s="262" t="s">
         <v>562</v>
+      </c>
+      <c r="C42" s="261"/>
+      <c r="D42" s="263" t="s">
+        <v>563</v>
       </c>
       <c r="E42" s="46"/>
       <c r="F42" s="46"/>
-      <c r="G42" s="264"/>
-      <c r="H42" s="254"/>
-      <c r="I42" s="264"/>
-      <c r="J42" s="228"/>
+      <c r="G42" s="265"/>
+      <c r="H42" s="255"/>
+      <c r="I42" s="265"/>
+      <c r="J42" s="229"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="5"/>
-      <c r="B43" s="266" t="s">
-        <v>473</v>
-      </c>
-      <c r="C43" s="260"/>
-      <c r="D43" s="262" t="s">
-        <v>562</v>
+      <c r="B43" s="267" t="s">
+        <v>474</v>
+      </c>
+      <c r="C43" s="261"/>
+      <c r="D43" s="263" t="s">
+        <v>563</v>
       </c>
       <c r="E43" s="46"/>
       <c r="F43" s="46"/>
-      <c r="G43" s="264"/>
-      <c r="H43" s="254"/>
-      <c r="I43" s="264"/>
-      <c r="J43" s="228"/>
+      <c r="G43" s="265"/>
+      <c r="H43" s="255"/>
+      <c r="I43" s="265"/>
+      <c r="J43" s="229"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="5"/>
-      <c r="B44" s="266" t="s">
-        <v>563</v>
-      </c>
-      <c r="C44" s="260"/>
-      <c r="D44" s="267" t="s">
+      <c r="B44" s="267" t="s">
         <v>564</v>
+      </c>
+      <c r="C44" s="261"/>
+      <c r="D44" s="268" t="s">
+        <v>565</v>
       </c>
       <c r="E44" s="46"/>
       <c r="F44" s="46"/>
-      <c r="G44" s="264"/>
-      <c r="H44" s="254"/>
-      <c r="I44" s="264"/>
-      <c r="J44" s="228"/>
+      <c r="G44" s="265"/>
+      <c r="H44" s="255"/>
+      <c r="I44" s="265"/>
+      <c r="J44" s="229"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="5"/>
-      <c r="B45" s="268" t="s">
+      <c r="B45" s="269" t="s">
+        <v>566</v>
+      </c>
+      <c r="C45" s="270"/>
+      <c r="D45" s="271" t="s">
         <v>565</v>
-      </c>
-      <c r="C45" s="269"/>
-      <c r="D45" s="270" t="s">
-        <v>564</v>
       </c>
       <c r="E45" s="46"/>
       <c r="F45" s="46"/>
-      <c r="G45" s="264"/>
-      <c r="H45" s="254"/>
-      <c r="I45" s="264"/>
-      <c r="J45" s="228"/>
+      <c r="G45" s="265"/>
+      <c r="H45" s="255"/>
+      <c r="I45" s="265"/>
+      <c r="J45" s="229"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="5"/>
@@ -32027,8 +32033,8 @@
       <c r="D46" s="46"/>
       <c r="E46" s="46"/>
       <c r="F46" s="46"/>
-      <c r="I46" s="167"/>
-      <c r="J46" s="190"/>
+      <c r="I46" s="168"/>
+      <c r="J46" s="191"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="5"/>
